--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10101_認証.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10101_認証.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B845F8B-1472-4F9F-914A-BAC2ED1F2A9F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F0F05D-3892-4069-BDF5-65A0E02C1178}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,24 +12,24 @@
     <sheet name="変更履歴" sheetId="14" r:id="rId2"/>
     <sheet name="目次" sheetId="30" r:id="rId3"/>
     <sheet name="1.  画面取引定義" sheetId="13" r:id="rId4"/>
-    <sheet name="2. WA10101(ログイン画面)" sheetId="31" r:id="rId5"/>
-    <sheet name="3. WA10102(ログアウト)" sheetId="32" r:id="rId6"/>
+    <sheet name="2. WA1010101(ログイン画面)" sheetId="31" r:id="rId5"/>
+    <sheet name="3. WA1010102(ログアウト)" sheetId="32" r:id="rId6"/>
     <sheet name="データ" sheetId="29" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2. WA10101(ログイン画面)'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'3. WA10102(ログアウト)'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2. WA1010101(ログイン画面)'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'3. WA1010102(ログアウト)'!#REF!</definedName>
     <definedName name="_Toc46209822" localSheetId="3">'1.  画面取引定義'!$B$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.  画面取引定義'!$A$1:$AI$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10101(ログイン画面)'!$A$1:$AI$169</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'3. WA10102(ログアウト)'!$A$1:$AI$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA1010101(ログイン画面)'!$A$1:$AI$169</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'3. WA1010102(ログアウト)'!$A$1:$AI$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">データ!$A$1:$E$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$27</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'1.  画面取引定義'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. WA10101(ログイン画面)'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'3. WA10102(ログアウト)'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. WA1010101(ログイン画面)'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'3. WA1010102(ログアウト)'!$1:$4</definedName>
     <definedName name="引継項目格納先">データ!$B$2:$B$2</definedName>
     <definedName name="画面項目種類">データ!$A$2:$A$12</definedName>
     <definedName name="種別一覧">データ!$C$2:$C$7</definedName>
@@ -1463,27 +1463,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>システム機能設計書（画面）
-WA10101/ログイン</t>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>2. WA10101(ログイン画面)</t>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>ログインID</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -1636,10 +1615,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>2. WA10101(ログイン画面)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>ユーザID</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -2109,13 +2084,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>3. WA10102(ログアウト)</t>
-  </si>
-  <si>
-    <t>3. WA10102(ログアウト)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>3.1. 画面レイアウト</t>
     <rPh sb="5" eb="7">
       <t>ガメン</t>
@@ -2178,6 +2146,42 @@
   </si>
   <si>
     <t>3.6.1.ログアウトイベント</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>3. WA1010102(ログアウト)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>システム機能設計書（画面）
+WA10101/認証</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>2. WA1010101(ログイン画面)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>3. WA1010102(ログアウト)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2. WA1010101(ログイン画面)</t>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -3319,6 +3323,114 @@
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3355,24 +3467,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3382,24 +3476,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3436,77 +3512,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -3517,36 +3551,6 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3598,17 +3602,251 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3627,33 +3865,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3664,24 +3875,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3691,12 +3884,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3709,45 +3896,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3759,153 +3910,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -4788,7 +4792,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="19"/>
       <c r="J23" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
@@ -5442,57 +5446,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="225" t="s">
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="255" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="226"/>
-      <c r="L1" s="226"/>
-      <c r="M1" s="226"/>
-      <c r="N1" s="227"/>
-      <c r="O1" s="259" t="s">
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="256"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="256"/>
+      <c r="L1" s="256"/>
+      <c r="M1" s="256"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="210" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="260"/>
-      <c r="Q1" s="260"/>
-      <c r="R1" s="261"/>
-      <c r="S1" s="237" t="s">
-        <v>139</v>
-      </c>
-      <c r="T1" s="238"/>
-      <c r="U1" s="238"/>
-      <c r="V1" s="238"/>
-      <c r="W1" s="238"/>
-      <c r="X1" s="238"/>
-      <c r="Y1" s="238"/>
-      <c r="Z1" s="239"/>
-      <c r="AA1" s="256" t="s">
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
+      <c r="R1" s="212"/>
+      <c r="S1" s="261" t="s">
+        <v>215</v>
+      </c>
+      <c r="T1" s="262"/>
+      <c r="U1" s="262"/>
+      <c r="V1" s="262"/>
+      <c r="W1" s="262"/>
+      <c r="X1" s="262"/>
+      <c r="Y1" s="262"/>
+      <c r="Z1" s="263"/>
+      <c r="AA1" s="207" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="258"/>
-      <c r="AC1" s="207" t="str">
+      <c r="AB1" s="209"/>
+      <c r="AC1" s="243" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="209"/>
-      <c r="AG1" s="213">
+      <c r="AD1" s="244"/>
+      <c r="AE1" s="244"/>
+      <c r="AF1" s="245"/>
+      <c r="AG1" s="249">
         <f>IF(D8="","",D8)</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="214"/>
-      <c r="AI1" s="215"/>
+      <c r="AH1" s="250"/>
+      <c r="AI1" s="251"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -5500,53 +5504,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="257"/>
-      <c r="C2" s="257"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="225" t="s">
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="255" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
-      <c r="H2" s="226"/>
-      <c r="I2" s="226"/>
-      <c r="J2" s="226"/>
-      <c r="K2" s="226"/>
-      <c r="L2" s="226"/>
-      <c r="M2" s="226"/>
-      <c r="N2" s="227"/>
-      <c r="O2" s="262"/>
-      <c r="P2" s="263"/>
-      <c r="Q2" s="263"/>
-      <c r="R2" s="264"/>
-      <c r="S2" s="240"/>
-      <c r="T2" s="241"/>
-      <c r="U2" s="241"/>
-      <c r="V2" s="241"/>
-      <c r="W2" s="241"/>
-      <c r="X2" s="241"/>
-      <c r="Y2" s="241"/>
-      <c r="Z2" s="242"/>
-      <c r="AA2" s="256" t="s">
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="256"/>
+      <c r="K2" s="256"/>
+      <c r="L2" s="256"/>
+      <c r="M2" s="256"/>
+      <c r="N2" s="257"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="214"/>
+      <c r="Q2" s="214"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="264"/>
+      <c r="T2" s="265"/>
+      <c r="U2" s="265"/>
+      <c r="V2" s="265"/>
+      <c r="W2" s="265"/>
+      <c r="X2" s="265"/>
+      <c r="Y2" s="265"/>
+      <c r="Z2" s="266"/>
+      <c r="AA2" s="207" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="258"/>
-      <c r="AC2" s="216" t="str">
+      <c r="AB2" s="209"/>
+      <c r="AC2" s="252" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="217"/>
-      <c r="AE2" s="217"/>
-      <c r="AF2" s="218"/>
-      <c r="AG2" s="213">
+      <c r="AD2" s="253"/>
+      <c r="AE2" s="253"/>
+      <c r="AF2" s="254"/>
+      <c r="AG2" s="249">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="214"/>
-      <c r="AI2" s="215"/>
+      <c r="AH2" s="250"/>
+      <c r="AI2" s="251"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -5554,45 +5558,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="257"/>
-      <c r="C3" s="257"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="225" t="s">
+      <c r="B3" s="208"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="255" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="226"/>
-      <c r="J3" s="226"/>
-      <c r="K3" s="226"/>
-      <c r="L3" s="226"/>
-      <c r="M3" s="226"/>
-      <c r="N3" s="227"/>
-      <c r="O3" s="265"/>
-      <c r="P3" s="266"/>
-      <c r="Q3" s="266"/>
-      <c r="R3" s="267"/>
-      <c r="S3" s="243"/>
-      <c r="T3" s="244"/>
-      <c r="U3" s="244"/>
-      <c r="V3" s="244"/>
-      <c r="W3" s="244"/>
-      <c r="X3" s="244"/>
-      <c r="Y3" s="244"/>
-      <c r="Z3" s="245"/>
-      <c r="AA3" s="268"/>
-      <c r="AB3" s="269"/>
-      <c r="AC3" s="207"/>
-      <c r="AD3" s="208"/>
-      <c r="AE3" s="208"/>
-      <c r="AF3" s="209"/>
-      <c r="AG3" s="213"/>
-      <c r="AH3" s="214"/>
-      <c r="AI3" s="215"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="216"/>
+      <c r="P3" s="217"/>
+      <c r="Q3" s="217"/>
+      <c r="R3" s="218"/>
+      <c r="S3" s="267"/>
+      <c r="T3" s="268"/>
+      <c r="U3" s="268"/>
+      <c r="V3" s="268"/>
+      <c r="W3" s="268"/>
+      <c r="X3" s="268"/>
+      <c r="Y3" s="268"/>
+      <c r="Z3" s="269"/>
+      <c r="AA3" s="219"/>
+      <c r="AB3" s="220"/>
+      <c r="AC3" s="243"/>
+      <c r="AD3" s="244"/>
+      <c r="AE3" s="244"/>
+      <c r="AF3" s="245"/>
+      <c r="AG3" s="249"/>
+      <c r="AH3" s="250"/>
+      <c r="AI3" s="251"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -5731,1042 +5735,1042 @@
       <c r="A7" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="222" t="s">
+      <c r="B7" s="233" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="224"/>
-      <c r="D7" s="222" t="s">
+      <c r="C7" s="234"/>
+      <c r="D7" s="233" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="223"/>
-      <c r="F7" s="224"/>
-      <c r="G7" s="222" t="s">
+      <c r="E7" s="235"/>
+      <c r="F7" s="234"/>
+      <c r="G7" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="223"/>
-      <c r="I7" s="224"/>
-      <c r="J7" s="222" t="s">
+      <c r="H7" s="235"/>
+      <c r="I7" s="234"/>
+      <c r="J7" s="233" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="223"/>
-      <c r="L7" s="223"/>
-      <c r="M7" s="223"/>
-      <c r="N7" s="223"/>
-      <c r="O7" s="223"/>
-      <c r="P7" s="224"/>
-      <c r="Q7" s="222" t="s">
+      <c r="K7" s="235"/>
+      <c r="L7" s="235"/>
+      <c r="M7" s="235"/>
+      <c r="N7" s="235"/>
+      <c r="O7" s="235"/>
+      <c r="P7" s="234"/>
+      <c r="Q7" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="223"/>
-      <c r="S7" s="223"/>
-      <c r="T7" s="223"/>
-      <c r="U7" s="223"/>
-      <c r="V7" s="223"/>
-      <c r="W7" s="223"/>
-      <c r="X7" s="223"/>
-      <c r="Y7" s="223"/>
-      <c r="Z7" s="223"/>
-      <c r="AA7" s="223"/>
-      <c r="AB7" s="223"/>
-      <c r="AC7" s="223"/>
-      <c r="AD7" s="223"/>
-      <c r="AE7" s="224"/>
-      <c r="AF7" s="222" t="s">
+      <c r="R7" s="235"/>
+      <c r="S7" s="235"/>
+      <c r="T7" s="235"/>
+      <c r="U7" s="235"/>
+      <c r="V7" s="235"/>
+      <c r="W7" s="235"/>
+      <c r="X7" s="235"/>
+      <c r="Y7" s="235"/>
+      <c r="Z7" s="235"/>
+      <c r="AA7" s="235"/>
+      <c r="AB7" s="235"/>
+      <c r="AC7" s="235"/>
+      <c r="AD7" s="235"/>
+      <c r="AE7" s="234"/>
+      <c r="AF7" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="223"/>
-      <c r="AH7" s="223"/>
-      <c r="AI7" s="224"/>
+      <c r="AG7" s="235"/>
+      <c r="AH7" s="235"/>
+      <c r="AI7" s="234"/>
     </row>
     <row r="8" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="56">
         <v>1</v>
       </c>
-      <c r="B8" s="249" t="s">
+      <c r="B8" s="236" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="250"/>
-      <c r="D8" s="251">
+      <c r="C8" s="237"/>
+      <c r="D8" s="238">
         <v>43656</v>
       </c>
-      <c r="E8" s="252"/>
-      <c r="F8" s="253"/>
-      <c r="G8" s="254" t="s">
+      <c r="E8" s="239"/>
+      <c r="F8" s="240"/>
+      <c r="G8" s="241" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="255"/>
-      <c r="I8" s="250"/>
-      <c r="J8" s="234" t="s">
+      <c r="H8" s="242"/>
+      <c r="I8" s="237"/>
+      <c r="J8" s="258" t="s">
         <v>108</v>
       </c>
-      <c r="K8" s="235"/>
-      <c r="L8" s="235"/>
-      <c r="M8" s="235"/>
-      <c r="N8" s="235"/>
-      <c r="O8" s="235"/>
-      <c r="P8" s="236"/>
-      <c r="Q8" s="210" t="s">
+      <c r="K8" s="259"/>
+      <c r="L8" s="259"/>
+      <c r="M8" s="259"/>
+      <c r="N8" s="259"/>
+      <c r="O8" s="259"/>
+      <c r="P8" s="260"/>
+      <c r="Q8" s="246" t="s">
         <v>109</v>
       </c>
-      <c r="R8" s="211"/>
-      <c r="S8" s="211"/>
-      <c r="T8" s="211"/>
-      <c r="U8" s="211"/>
-      <c r="V8" s="211"/>
-      <c r="W8" s="211"/>
-      <c r="X8" s="211"/>
-      <c r="Y8" s="211"/>
-      <c r="Z8" s="211"/>
-      <c r="AA8" s="211"/>
-      <c r="AB8" s="211"/>
-      <c r="AC8" s="211"/>
-      <c r="AD8" s="211"/>
-      <c r="AE8" s="212"/>
-      <c r="AF8" s="234" t="s">
+      <c r="R8" s="247"/>
+      <c r="S8" s="247"/>
+      <c r="T8" s="247"/>
+      <c r="U8" s="247"/>
+      <c r="V8" s="247"/>
+      <c r="W8" s="247"/>
+      <c r="X8" s="247"/>
+      <c r="Y8" s="247"/>
+      <c r="Z8" s="247"/>
+      <c r="AA8" s="247"/>
+      <c r="AB8" s="247"/>
+      <c r="AC8" s="247"/>
+      <c r="AD8" s="247"/>
+      <c r="AE8" s="248"/>
+      <c r="AF8" s="258" t="s">
         <v>110</v>
       </c>
-      <c r="AG8" s="235"/>
-      <c r="AH8" s="235"/>
-      <c r="AI8" s="236"/>
+      <c r="AG8" s="259"/>
+      <c r="AH8" s="259"/>
+      <c r="AI8" s="260"/>
     </row>
     <row r="9" spans="1:40" s="55" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="57">
         <v>2</v>
       </c>
-      <c r="B9" s="219" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" s="221"/>
-      <c r="D9" s="246">
+      <c r="B9" s="227" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="228"/>
+      <c r="D9" s="229">
         <v>44796</v>
       </c>
-      <c r="E9" s="247"/>
-      <c r="F9" s="248"/>
-      <c r="G9" s="219" t="s">
-        <v>180</v>
-      </c>
-      <c r="H9" s="220"/>
-      <c r="I9" s="221"/>
-      <c r="J9" s="228" t="s">
-        <v>189</v>
-      </c>
-      <c r="K9" s="232"/>
-      <c r="L9" s="232"/>
-      <c r="M9" s="232"/>
-      <c r="N9" s="232"/>
-      <c r="O9" s="232"/>
-      <c r="P9" s="233"/>
-      <c r="Q9" s="228" t="s">
-        <v>207</v>
-      </c>
-      <c r="R9" s="229"/>
-      <c r="S9" s="229"/>
-      <c r="T9" s="229"/>
-      <c r="U9" s="229"/>
-      <c r="V9" s="229"/>
-      <c r="W9" s="229"/>
-      <c r="X9" s="229"/>
-      <c r="Y9" s="229"/>
-      <c r="Z9" s="229"/>
-      <c r="AA9" s="229"/>
-      <c r="AB9" s="229"/>
-      <c r="AC9" s="229"/>
-      <c r="AD9" s="229"/>
-      <c r="AE9" s="230"/>
-      <c r="AF9" s="231" t="s">
-        <v>178</v>
-      </c>
-      <c r="AG9" s="232"/>
-      <c r="AH9" s="232"/>
-      <c r="AI9" s="233"/>
+      <c r="E9" s="230"/>
+      <c r="F9" s="231"/>
+      <c r="G9" s="227" t="s">
+        <v>177</v>
+      </c>
+      <c r="H9" s="232"/>
+      <c r="I9" s="228"/>
+      <c r="J9" s="221" t="s">
+        <v>186</v>
+      </c>
+      <c r="K9" s="225"/>
+      <c r="L9" s="225"/>
+      <c r="M9" s="225"/>
+      <c r="N9" s="225"/>
+      <c r="O9" s="225"/>
+      <c r="P9" s="226"/>
+      <c r="Q9" s="221" t="s">
+        <v>204</v>
+      </c>
+      <c r="R9" s="222"/>
+      <c r="S9" s="222"/>
+      <c r="T9" s="222"/>
+      <c r="U9" s="222"/>
+      <c r="V9" s="222"/>
+      <c r="W9" s="222"/>
+      <c r="X9" s="222"/>
+      <c r="Y9" s="222"/>
+      <c r="Z9" s="222"/>
+      <c r="AA9" s="222"/>
+      <c r="AB9" s="222"/>
+      <c r="AC9" s="222"/>
+      <c r="AD9" s="222"/>
+      <c r="AE9" s="223"/>
+      <c r="AF9" s="224" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG9" s="225"/>
+      <c r="AH9" s="225"/>
+      <c r="AI9" s="226"/>
     </row>
     <row r="10" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="57"/>
-      <c r="B10" s="219"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="246"/>
-      <c r="E10" s="247"/>
-      <c r="F10" s="248"/>
-      <c r="G10" s="219"/>
-      <c r="H10" s="220"/>
-      <c r="I10" s="221"/>
-      <c r="J10" s="231"/>
-      <c r="K10" s="232"/>
-      <c r="L10" s="232"/>
-      <c r="M10" s="232"/>
-      <c r="N10" s="232"/>
-      <c r="O10" s="232"/>
-      <c r="P10" s="233"/>
-      <c r="Q10" s="228"/>
-      <c r="R10" s="229"/>
-      <c r="S10" s="229"/>
-      <c r="T10" s="229"/>
-      <c r="U10" s="229"/>
-      <c r="V10" s="229"/>
-      <c r="W10" s="229"/>
-      <c r="X10" s="229"/>
-      <c r="Y10" s="229"/>
-      <c r="Z10" s="229"/>
-      <c r="AA10" s="229"/>
-      <c r="AB10" s="229"/>
-      <c r="AC10" s="229"/>
-      <c r="AD10" s="229"/>
-      <c r="AE10" s="230"/>
-      <c r="AF10" s="231"/>
-      <c r="AG10" s="232"/>
-      <c r="AH10" s="232"/>
-      <c r="AI10" s="233"/>
+      <c r="B10" s="227"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="229"/>
+      <c r="E10" s="230"/>
+      <c r="F10" s="231"/>
+      <c r="G10" s="227"/>
+      <c r="H10" s="232"/>
+      <c r="I10" s="228"/>
+      <c r="J10" s="224"/>
+      <c r="K10" s="225"/>
+      <c r="L10" s="225"/>
+      <c r="M10" s="225"/>
+      <c r="N10" s="225"/>
+      <c r="O10" s="225"/>
+      <c r="P10" s="226"/>
+      <c r="Q10" s="221"/>
+      <c r="R10" s="222"/>
+      <c r="S10" s="222"/>
+      <c r="T10" s="222"/>
+      <c r="U10" s="222"/>
+      <c r="V10" s="222"/>
+      <c r="W10" s="222"/>
+      <c r="X10" s="222"/>
+      <c r="Y10" s="222"/>
+      <c r="Z10" s="222"/>
+      <c r="AA10" s="222"/>
+      <c r="AB10" s="222"/>
+      <c r="AC10" s="222"/>
+      <c r="AD10" s="222"/>
+      <c r="AE10" s="223"/>
+      <c r="AF10" s="224"/>
+      <c r="AG10" s="225"/>
+      <c r="AH10" s="225"/>
+      <c r="AI10" s="226"/>
     </row>
     <row r="11" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="57"/>
-      <c r="B11" s="219"/>
-      <c r="C11" s="221"/>
-      <c r="D11" s="246"/>
-      <c r="E11" s="247"/>
-      <c r="F11" s="248"/>
-      <c r="G11" s="219"/>
-      <c r="H11" s="220"/>
-      <c r="I11" s="221"/>
-      <c r="J11" s="231"/>
-      <c r="K11" s="232"/>
-      <c r="L11" s="232"/>
-      <c r="M11" s="232"/>
-      <c r="N11" s="232"/>
-      <c r="O11" s="232"/>
-      <c r="P11" s="233"/>
-      <c r="Q11" s="228"/>
-      <c r="R11" s="229"/>
-      <c r="S11" s="229"/>
-      <c r="T11" s="229"/>
-      <c r="U11" s="229"/>
-      <c r="V11" s="229"/>
-      <c r="W11" s="229"/>
-      <c r="X11" s="229"/>
-      <c r="Y11" s="229"/>
-      <c r="Z11" s="229"/>
-      <c r="AA11" s="229"/>
-      <c r="AB11" s="229"/>
-      <c r="AC11" s="229"/>
-      <c r="AD11" s="229"/>
-      <c r="AE11" s="230"/>
-      <c r="AF11" s="231"/>
-      <c r="AG11" s="232"/>
-      <c r="AH11" s="232"/>
-      <c r="AI11" s="233"/>
+      <c r="B11" s="227"/>
+      <c r="C11" s="228"/>
+      <c r="D11" s="229"/>
+      <c r="E11" s="230"/>
+      <c r="F11" s="231"/>
+      <c r="G11" s="227"/>
+      <c r="H11" s="232"/>
+      <c r="I11" s="228"/>
+      <c r="J11" s="224"/>
+      <c r="K11" s="225"/>
+      <c r="L11" s="225"/>
+      <c r="M11" s="225"/>
+      <c r="N11" s="225"/>
+      <c r="O11" s="225"/>
+      <c r="P11" s="226"/>
+      <c r="Q11" s="221"/>
+      <c r="R11" s="222"/>
+      <c r="S11" s="222"/>
+      <c r="T11" s="222"/>
+      <c r="U11" s="222"/>
+      <c r="V11" s="222"/>
+      <c r="W11" s="222"/>
+      <c r="X11" s="222"/>
+      <c r="Y11" s="222"/>
+      <c r="Z11" s="222"/>
+      <c r="AA11" s="222"/>
+      <c r="AB11" s="222"/>
+      <c r="AC11" s="222"/>
+      <c r="AD11" s="222"/>
+      <c r="AE11" s="223"/>
+      <c r="AF11" s="224"/>
+      <c r="AG11" s="225"/>
+      <c r="AH11" s="225"/>
+      <c r="AI11" s="226"/>
     </row>
     <row r="12" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="57"/>
-      <c r="B12" s="219"/>
-      <c r="C12" s="221"/>
-      <c r="D12" s="246"/>
-      <c r="E12" s="247"/>
-      <c r="F12" s="248"/>
-      <c r="G12" s="219"/>
-      <c r="H12" s="220"/>
-      <c r="I12" s="221"/>
-      <c r="J12" s="231"/>
-      <c r="K12" s="232"/>
-      <c r="L12" s="232"/>
-      <c r="M12" s="232"/>
-      <c r="N12" s="232"/>
-      <c r="O12" s="232"/>
-      <c r="P12" s="233"/>
-      <c r="Q12" s="228"/>
-      <c r="R12" s="229"/>
-      <c r="S12" s="229"/>
-      <c r="T12" s="229"/>
-      <c r="U12" s="229"/>
-      <c r="V12" s="229"/>
-      <c r="W12" s="229"/>
-      <c r="X12" s="229"/>
-      <c r="Y12" s="229"/>
-      <c r="Z12" s="229"/>
-      <c r="AA12" s="229"/>
-      <c r="AB12" s="229"/>
-      <c r="AC12" s="229"/>
-      <c r="AD12" s="229"/>
-      <c r="AE12" s="230"/>
-      <c r="AF12" s="231"/>
-      <c r="AG12" s="232"/>
-      <c r="AH12" s="232"/>
-      <c r="AI12" s="233"/>
+      <c r="B12" s="227"/>
+      <c r="C12" s="228"/>
+      <c r="D12" s="229"/>
+      <c r="E12" s="230"/>
+      <c r="F12" s="231"/>
+      <c r="G12" s="227"/>
+      <c r="H12" s="232"/>
+      <c r="I12" s="228"/>
+      <c r="J12" s="224"/>
+      <c r="K12" s="225"/>
+      <c r="L12" s="225"/>
+      <c r="M12" s="225"/>
+      <c r="N12" s="225"/>
+      <c r="O12" s="225"/>
+      <c r="P12" s="226"/>
+      <c r="Q12" s="221"/>
+      <c r="R12" s="222"/>
+      <c r="S12" s="222"/>
+      <c r="T12" s="222"/>
+      <c r="U12" s="222"/>
+      <c r="V12" s="222"/>
+      <c r="W12" s="222"/>
+      <c r="X12" s="222"/>
+      <c r="Y12" s="222"/>
+      <c r="Z12" s="222"/>
+      <c r="AA12" s="222"/>
+      <c r="AB12" s="222"/>
+      <c r="AC12" s="222"/>
+      <c r="AD12" s="222"/>
+      <c r="AE12" s="223"/>
+      <c r="AF12" s="224"/>
+      <c r="AG12" s="225"/>
+      <c r="AH12" s="225"/>
+      <c r="AI12" s="226"/>
     </row>
     <row r="13" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="57"/>
-      <c r="B13" s="219"/>
-      <c r="C13" s="221"/>
-      <c r="D13" s="246"/>
-      <c r="E13" s="247"/>
-      <c r="F13" s="248"/>
-      <c r="G13" s="219"/>
-      <c r="H13" s="220"/>
-      <c r="I13" s="221"/>
-      <c r="J13" s="231"/>
-      <c r="K13" s="232"/>
-      <c r="L13" s="232"/>
-      <c r="M13" s="232"/>
-      <c r="N13" s="232"/>
-      <c r="O13" s="232"/>
-      <c r="P13" s="233"/>
-      <c r="Q13" s="228"/>
-      <c r="R13" s="229"/>
-      <c r="S13" s="229"/>
-      <c r="T13" s="229"/>
-      <c r="U13" s="229"/>
-      <c r="V13" s="229"/>
-      <c r="W13" s="229"/>
-      <c r="X13" s="229"/>
-      <c r="Y13" s="229"/>
-      <c r="Z13" s="229"/>
-      <c r="AA13" s="229"/>
-      <c r="AB13" s="229"/>
-      <c r="AC13" s="229"/>
-      <c r="AD13" s="229"/>
-      <c r="AE13" s="230"/>
-      <c r="AF13" s="231"/>
-      <c r="AG13" s="232"/>
-      <c r="AH13" s="232"/>
-      <c r="AI13" s="233"/>
+      <c r="B13" s="227"/>
+      <c r="C13" s="228"/>
+      <c r="D13" s="229"/>
+      <c r="E13" s="230"/>
+      <c r="F13" s="231"/>
+      <c r="G13" s="227"/>
+      <c r="H13" s="232"/>
+      <c r="I13" s="228"/>
+      <c r="J13" s="224"/>
+      <c r="K13" s="225"/>
+      <c r="L13" s="225"/>
+      <c r="M13" s="225"/>
+      <c r="N13" s="225"/>
+      <c r="O13" s="225"/>
+      <c r="P13" s="226"/>
+      <c r="Q13" s="221"/>
+      <c r="R13" s="222"/>
+      <c r="S13" s="222"/>
+      <c r="T13" s="222"/>
+      <c r="U13" s="222"/>
+      <c r="V13" s="222"/>
+      <c r="W13" s="222"/>
+      <c r="X13" s="222"/>
+      <c r="Y13" s="222"/>
+      <c r="Z13" s="222"/>
+      <c r="AA13" s="222"/>
+      <c r="AB13" s="222"/>
+      <c r="AC13" s="222"/>
+      <c r="AD13" s="222"/>
+      <c r="AE13" s="223"/>
+      <c r="AF13" s="224"/>
+      <c r="AG13" s="225"/>
+      <c r="AH13" s="225"/>
+      <c r="AI13" s="226"/>
     </row>
     <row r="14" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="57"/>
-      <c r="B14" s="219"/>
-      <c r="C14" s="221"/>
-      <c r="D14" s="246"/>
-      <c r="E14" s="247"/>
-      <c r="F14" s="248"/>
-      <c r="G14" s="219"/>
-      <c r="H14" s="220"/>
-      <c r="I14" s="221"/>
-      <c r="J14" s="231"/>
-      <c r="K14" s="232"/>
-      <c r="L14" s="232"/>
-      <c r="M14" s="232"/>
-      <c r="N14" s="232"/>
-      <c r="O14" s="232"/>
-      <c r="P14" s="233"/>
-      <c r="Q14" s="228"/>
-      <c r="R14" s="229"/>
-      <c r="S14" s="229"/>
-      <c r="T14" s="229"/>
-      <c r="U14" s="229"/>
-      <c r="V14" s="229"/>
-      <c r="W14" s="229"/>
-      <c r="X14" s="229"/>
-      <c r="Y14" s="229"/>
-      <c r="Z14" s="229"/>
-      <c r="AA14" s="229"/>
-      <c r="AB14" s="229"/>
-      <c r="AC14" s="229"/>
-      <c r="AD14" s="229"/>
-      <c r="AE14" s="230"/>
-      <c r="AF14" s="231"/>
-      <c r="AG14" s="232"/>
-      <c r="AH14" s="232"/>
-      <c r="AI14" s="233"/>
+      <c r="B14" s="227"/>
+      <c r="C14" s="228"/>
+      <c r="D14" s="229"/>
+      <c r="E14" s="230"/>
+      <c r="F14" s="231"/>
+      <c r="G14" s="227"/>
+      <c r="H14" s="232"/>
+      <c r="I14" s="228"/>
+      <c r="J14" s="224"/>
+      <c r="K14" s="225"/>
+      <c r="L14" s="225"/>
+      <c r="M14" s="225"/>
+      <c r="N14" s="225"/>
+      <c r="O14" s="225"/>
+      <c r="P14" s="226"/>
+      <c r="Q14" s="221"/>
+      <c r="R14" s="222"/>
+      <c r="S14" s="222"/>
+      <c r="T14" s="222"/>
+      <c r="U14" s="222"/>
+      <c r="V14" s="222"/>
+      <c r="W14" s="222"/>
+      <c r="X14" s="222"/>
+      <c r="Y14" s="222"/>
+      <c r="Z14" s="222"/>
+      <c r="AA14" s="222"/>
+      <c r="AB14" s="222"/>
+      <c r="AC14" s="222"/>
+      <c r="AD14" s="222"/>
+      <c r="AE14" s="223"/>
+      <c r="AF14" s="224"/>
+      <c r="AG14" s="225"/>
+      <c r="AH14" s="225"/>
+      <c r="AI14" s="226"/>
     </row>
     <row r="15" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="57"/>
-      <c r="B15" s="219"/>
-      <c r="C15" s="221"/>
-      <c r="D15" s="246"/>
-      <c r="E15" s="247"/>
-      <c r="F15" s="248"/>
-      <c r="G15" s="219"/>
-      <c r="H15" s="220"/>
-      <c r="I15" s="221"/>
-      <c r="J15" s="231"/>
-      <c r="K15" s="232"/>
-      <c r="L15" s="232"/>
-      <c r="M15" s="232"/>
-      <c r="N15" s="232"/>
-      <c r="O15" s="232"/>
-      <c r="P15" s="233"/>
-      <c r="Q15" s="228"/>
-      <c r="R15" s="229"/>
-      <c r="S15" s="229"/>
-      <c r="T15" s="229"/>
-      <c r="U15" s="229"/>
-      <c r="V15" s="229"/>
-      <c r="W15" s="229"/>
-      <c r="X15" s="229"/>
-      <c r="Y15" s="229"/>
-      <c r="Z15" s="229"/>
-      <c r="AA15" s="229"/>
-      <c r="AB15" s="229"/>
-      <c r="AC15" s="229"/>
-      <c r="AD15" s="229"/>
-      <c r="AE15" s="230"/>
-      <c r="AF15" s="231"/>
-      <c r="AG15" s="232"/>
-      <c r="AH15" s="232"/>
-      <c r="AI15" s="233"/>
+      <c r="B15" s="227"/>
+      <c r="C15" s="228"/>
+      <c r="D15" s="229"/>
+      <c r="E15" s="230"/>
+      <c r="F15" s="231"/>
+      <c r="G15" s="227"/>
+      <c r="H15" s="232"/>
+      <c r="I15" s="228"/>
+      <c r="J15" s="224"/>
+      <c r="K15" s="225"/>
+      <c r="L15" s="225"/>
+      <c r="M15" s="225"/>
+      <c r="N15" s="225"/>
+      <c r="O15" s="225"/>
+      <c r="P15" s="226"/>
+      <c r="Q15" s="221"/>
+      <c r="R15" s="222"/>
+      <c r="S15" s="222"/>
+      <c r="T15" s="222"/>
+      <c r="U15" s="222"/>
+      <c r="V15" s="222"/>
+      <c r="W15" s="222"/>
+      <c r="X15" s="222"/>
+      <c r="Y15" s="222"/>
+      <c r="Z15" s="222"/>
+      <c r="AA15" s="222"/>
+      <c r="AB15" s="222"/>
+      <c r="AC15" s="222"/>
+      <c r="AD15" s="222"/>
+      <c r="AE15" s="223"/>
+      <c r="AF15" s="224"/>
+      <c r="AG15" s="225"/>
+      <c r="AH15" s="225"/>
+      <c r="AI15" s="226"/>
     </row>
     <row r="16" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="57"/>
-      <c r="B16" s="219"/>
-      <c r="C16" s="221"/>
-      <c r="D16" s="246"/>
-      <c r="E16" s="247"/>
-      <c r="F16" s="248"/>
-      <c r="G16" s="219"/>
-      <c r="H16" s="220"/>
-      <c r="I16" s="221"/>
-      <c r="J16" s="231"/>
-      <c r="K16" s="232"/>
-      <c r="L16" s="232"/>
-      <c r="M16" s="232"/>
-      <c r="N16" s="232"/>
-      <c r="O16" s="232"/>
-      <c r="P16" s="233"/>
-      <c r="Q16" s="228"/>
-      <c r="R16" s="229"/>
-      <c r="S16" s="229"/>
-      <c r="T16" s="229"/>
-      <c r="U16" s="229"/>
-      <c r="V16" s="229"/>
-      <c r="W16" s="229"/>
-      <c r="X16" s="229"/>
-      <c r="Y16" s="229"/>
-      <c r="Z16" s="229"/>
-      <c r="AA16" s="229"/>
-      <c r="AB16" s="229"/>
-      <c r="AC16" s="229"/>
-      <c r="AD16" s="229"/>
-      <c r="AE16" s="230"/>
-      <c r="AF16" s="231"/>
-      <c r="AG16" s="232"/>
-      <c r="AH16" s="232"/>
-      <c r="AI16" s="233"/>
+      <c r="B16" s="227"/>
+      <c r="C16" s="228"/>
+      <c r="D16" s="229"/>
+      <c r="E16" s="230"/>
+      <c r="F16" s="231"/>
+      <c r="G16" s="227"/>
+      <c r="H16" s="232"/>
+      <c r="I16" s="228"/>
+      <c r="J16" s="224"/>
+      <c r="K16" s="225"/>
+      <c r="L16" s="225"/>
+      <c r="M16" s="225"/>
+      <c r="N16" s="225"/>
+      <c r="O16" s="225"/>
+      <c r="P16" s="226"/>
+      <c r="Q16" s="221"/>
+      <c r="R16" s="222"/>
+      <c r="S16" s="222"/>
+      <c r="T16" s="222"/>
+      <c r="U16" s="222"/>
+      <c r="V16" s="222"/>
+      <c r="W16" s="222"/>
+      <c r="X16" s="222"/>
+      <c r="Y16" s="222"/>
+      <c r="Z16" s="222"/>
+      <c r="AA16" s="222"/>
+      <c r="AB16" s="222"/>
+      <c r="AC16" s="222"/>
+      <c r="AD16" s="222"/>
+      <c r="AE16" s="223"/>
+      <c r="AF16" s="224"/>
+      <c r="AG16" s="225"/>
+      <c r="AH16" s="225"/>
+      <c r="AI16" s="226"/>
     </row>
     <row r="17" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="57"/>
-      <c r="B17" s="219"/>
-      <c r="C17" s="221"/>
-      <c r="D17" s="246"/>
-      <c r="E17" s="247"/>
-      <c r="F17" s="248"/>
-      <c r="G17" s="219"/>
-      <c r="H17" s="220"/>
-      <c r="I17" s="221"/>
-      <c r="J17" s="231"/>
-      <c r="K17" s="232"/>
-      <c r="L17" s="232"/>
-      <c r="M17" s="232"/>
-      <c r="N17" s="232"/>
-      <c r="O17" s="232"/>
-      <c r="P17" s="233"/>
-      <c r="Q17" s="228"/>
-      <c r="R17" s="229"/>
-      <c r="S17" s="229"/>
-      <c r="T17" s="229"/>
-      <c r="U17" s="229"/>
-      <c r="V17" s="229"/>
-      <c r="W17" s="229"/>
-      <c r="X17" s="229"/>
-      <c r="Y17" s="229"/>
-      <c r="Z17" s="229"/>
-      <c r="AA17" s="229"/>
-      <c r="AB17" s="229"/>
-      <c r="AC17" s="229"/>
-      <c r="AD17" s="229"/>
-      <c r="AE17" s="230"/>
-      <c r="AF17" s="231"/>
-      <c r="AG17" s="232"/>
-      <c r="AH17" s="232"/>
-      <c r="AI17" s="233"/>
+      <c r="B17" s="227"/>
+      <c r="C17" s="228"/>
+      <c r="D17" s="229"/>
+      <c r="E17" s="230"/>
+      <c r="F17" s="231"/>
+      <c r="G17" s="227"/>
+      <c r="H17" s="232"/>
+      <c r="I17" s="228"/>
+      <c r="J17" s="224"/>
+      <c r="K17" s="225"/>
+      <c r="L17" s="225"/>
+      <c r="M17" s="225"/>
+      <c r="N17" s="225"/>
+      <c r="O17" s="225"/>
+      <c r="P17" s="226"/>
+      <c r="Q17" s="221"/>
+      <c r="R17" s="222"/>
+      <c r="S17" s="222"/>
+      <c r="T17" s="222"/>
+      <c r="U17" s="222"/>
+      <c r="V17" s="222"/>
+      <c r="W17" s="222"/>
+      <c r="X17" s="222"/>
+      <c r="Y17" s="222"/>
+      <c r="Z17" s="222"/>
+      <c r="AA17" s="222"/>
+      <c r="AB17" s="222"/>
+      <c r="AC17" s="222"/>
+      <c r="AD17" s="222"/>
+      <c r="AE17" s="223"/>
+      <c r="AF17" s="224"/>
+      <c r="AG17" s="225"/>
+      <c r="AH17" s="225"/>
+      <c r="AI17" s="226"/>
     </row>
     <row r="18" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="57"/>
-      <c r="B18" s="219"/>
-      <c r="C18" s="221"/>
-      <c r="D18" s="246"/>
-      <c r="E18" s="247"/>
-      <c r="F18" s="248"/>
-      <c r="G18" s="219"/>
-      <c r="H18" s="220"/>
-      <c r="I18" s="221"/>
-      <c r="J18" s="231"/>
-      <c r="K18" s="232"/>
-      <c r="L18" s="232"/>
-      <c r="M18" s="232"/>
-      <c r="N18" s="232"/>
-      <c r="O18" s="232"/>
-      <c r="P18" s="233"/>
-      <c r="Q18" s="228"/>
-      <c r="R18" s="229"/>
-      <c r="S18" s="229"/>
-      <c r="T18" s="229"/>
-      <c r="U18" s="229"/>
-      <c r="V18" s="229"/>
-      <c r="W18" s="229"/>
-      <c r="X18" s="229"/>
-      <c r="Y18" s="229"/>
-      <c r="Z18" s="229"/>
-      <c r="AA18" s="229"/>
-      <c r="AB18" s="229"/>
-      <c r="AC18" s="229"/>
-      <c r="AD18" s="229"/>
-      <c r="AE18" s="230"/>
-      <c r="AF18" s="231"/>
-      <c r="AG18" s="232"/>
-      <c r="AH18" s="232"/>
-      <c r="AI18" s="233"/>
+      <c r="B18" s="227"/>
+      <c r="C18" s="228"/>
+      <c r="D18" s="229"/>
+      <c r="E18" s="230"/>
+      <c r="F18" s="231"/>
+      <c r="G18" s="227"/>
+      <c r="H18" s="232"/>
+      <c r="I18" s="228"/>
+      <c r="J18" s="224"/>
+      <c r="K18" s="225"/>
+      <c r="L18" s="225"/>
+      <c r="M18" s="225"/>
+      <c r="N18" s="225"/>
+      <c r="O18" s="225"/>
+      <c r="P18" s="226"/>
+      <c r="Q18" s="221"/>
+      <c r="R18" s="222"/>
+      <c r="S18" s="222"/>
+      <c r="T18" s="222"/>
+      <c r="U18" s="222"/>
+      <c r="V18" s="222"/>
+      <c r="W18" s="222"/>
+      <c r="X18" s="222"/>
+      <c r="Y18" s="222"/>
+      <c r="Z18" s="222"/>
+      <c r="AA18" s="222"/>
+      <c r="AB18" s="222"/>
+      <c r="AC18" s="222"/>
+      <c r="AD18" s="222"/>
+      <c r="AE18" s="223"/>
+      <c r="AF18" s="224"/>
+      <c r="AG18" s="225"/>
+      <c r="AH18" s="225"/>
+      <c r="AI18" s="226"/>
     </row>
     <row r="19" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="57"/>
-      <c r="B19" s="219"/>
-      <c r="C19" s="221"/>
-      <c r="D19" s="246"/>
-      <c r="E19" s="247"/>
-      <c r="F19" s="248"/>
-      <c r="G19" s="219"/>
-      <c r="H19" s="220"/>
-      <c r="I19" s="221"/>
-      <c r="J19" s="231"/>
-      <c r="K19" s="232"/>
-      <c r="L19" s="232"/>
-      <c r="M19" s="232"/>
-      <c r="N19" s="232"/>
-      <c r="O19" s="232"/>
-      <c r="P19" s="233"/>
-      <c r="Q19" s="228"/>
-      <c r="R19" s="229"/>
-      <c r="S19" s="229"/>
-      <c r="T19" s="229"/>
-      <c r="U19" s="229"/>
-      <c r="V19" s="229"/>
-      <c r="W19" s="229"/>
-      <c r="X19" s="229"/>
-      <c r="Y19" s="229"/>
-      <c r="Z19" s="229"/>
-      <c r="AA19" s="229"/>
-      <c r="AB19" s="229"/>
-      <c r="AC19" s="229"/>
-      <c r="AD19" s="229"/>
-      <c r="AE19" s="230"/>
-      <c r="AF19" s="231"/>
-      <c r="AG19" s="232"/>
-      <c r="AH19" s="232"/>
-      <c r="AI19" s="233"/>
+      <c r="B19" s="227"/>
+      <c r="C19" s="228"/>
+      <c r="D19" s="229"/>
+      <c r="E19" s="230"/>
+      <c r="F19" s="231"/>
+      <c r="G19" s="227"/>
+      <c r="H19" s="232"/>
+      <c r="I19" s="228"/>
+      <c r="J19" s="224"/>
+      <c r="K19" s="225"/>
+      <c r="L19" s="225"/>
+      <c r="M19" s="225"/>
+      <c r="N19" s="225"/>
+      <c r="O19" s="225"/>
+      <c r="P19" s="226"/>
+      <c r="Q19" s="221"/>
+      <c r="R19" s="222"/>
+      <c r="S19" s="222"/>
+      <c r="T19" s="222"/>
+      <c r="U19" s="222"/>
+      <c r="V19" s="222"/>
+      <c r="W19" s="222"/>
+      <c r="X19" s="222"/>
+      <c r="Y19" s="222"/>
+      <c r="Z19" s="222"/>
+      <c r="AA19" s="222"/>
+      <c r="AB19" s="222"/>
+      <c r="AC19" s="222"/>
+      <c r="AD19" s="222"/>
+      <c r="AE19" s="223"/>
+      <c r="AF19" s="224"/>
+      <c r="AG19" s="225"/>
+      <c r="AH19" s="225"/>
+      <c r="AI19" s="226"/>
     </row>
     <row r="20" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="57"/>
-      <c r="B20" s="219"/>
-      <c r="C20" s="221"/>
-      <c r="D20" s="246"/>
-      <c r="E20" s="247"/>
-      <c r="F20" s="248"/>
-      <c r="G20" s="219"/>
-      <c r="H20" s="220"/>
-      <c r="I20" s="221"/>
-      <c r="J20" s="231"/>
-      <c r="K20" s="232"/>
-      <c r="L20" s="232"/>
-      <c r="M20" s="232"/>
-      <c r="N20" s="232"/>
-      <c r="O20" s="232"/>
-      <c r="P20" s="233"/>
-      <c r="Q20" s="228"/>
-      <c r="R20" s="229"/>
-      <c r="S20" s="229"/>
-      <c r="T20" s="229"/>
-      <c r="U20" s="229"/>
-      <c r="V20" s="229"/>
-      <c r="W20" s="229"/>
-      <c r="X20" s="229"/>
-      <c r="Y20" s="229"/>
-      <c r="Z20" s="229"/>
-      <c r="AA20" s="229"/>
-      <c r="AB20" s="229"/>
-      <c r="AC20" s="229"/>
-      <c r="AD20" s="229"/>
-      <c r="AE20" s="230"/>
-      <c r="AF20" s="231"/>
-      <c r="AG20" s="232"/>
-      <c r="AH20" s="232"/>
-      <c r="AI20" s="233"/>
+      <c r="B20" s="227"/>
+      <c r="C20" s="228"/>
+      <c r="D20" s="229"/>
+      <c r="E20" s="230"/>
+      <c r="F20" s="231"/>
+      <c r="G20" s="227"/>
+      <c r="H20" s="232"/>
+      <c r="I20" s="228"/>
+      <c r="J20" s="224"/>
+      <c r="K20" s="225"/>
+      <c r="L20" s="225"/>
+      <c r="M20" s="225"/>
+      <c r="N20" s="225"/>
+      <c r="O20" s="225"/>
+      <c r="P20" s="226"/>
+      <c r="Q20" s="221"/>
+      <c r="R20" s="222"/>
+      <c r="S20" s="222"/>
+      <c r="T20" s="222"/>
+      <c r="U20" s="222"/>
+      <c r="V20" s="222"/>
+      <c r="W20" s="222"/>
+      <c r="X20" s="222"/>
+      <c r="Y20" s="222"/>
+      <c r="Z20" s="222"/>
+      <c r="AA20" s="222"/>
+      <c r="AB20" s="222"/>
+      <c r="AC20" s="222"/>
+      <c r="AD20" s="222"/>
+      <c r="AE20" s="223"/>
+      <c r="AF20" s="224"/>
+      <c r="AG20" s="225"/>
+      <c r="AH20" s="225"/>
+      <c r="AI20" s="226"/>
     </row>
     <row r="21" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="57"/>
-      <c r="B21" s="219"/>
-      <c r="C21" s="221"/>
-      <c r="D21" s="246"/>
-      <c r="E21" s="247"/>
-      <c r="F21" s="248"/>
-      <c r="G21" s="219"/>
-      <c r="H21" s="220"/>
-      <c r="I21" s="221"/>
-      <c r="J21" s="231"/>
-      <c r="K21" s="232"/>
-      <c r="L21" s="232"/>
-      <c r="M21" s="232"/>
-      <c r="N21" s="232"/>
-      <c r="O21" s="232"/>
-      <c r="P21" s="233"/>
-      <c r="Q21" s="228"/>
-      <c r="R21" s="229"/>
-      <c r="S21" s="229"/>
-      <c r="T21" s="229"/>
-      <c r="U21" s="229"/>
-      <c r="V21" s="229"/>
-      <c r="W21" s="229"/>
-      <c r="X21" s="229"/>
-      <c r="Y21" s="229"/>
-      <c r="Z21" s="229"/>
-      <c r="AA21" s="229"/>
-      <c r="AB21" s="229"/>
-      <c r="AC21" s="229"/>
-      <c r="AD21" s="229"/>
-      <c r="AE21" s="230"/>
-      <c r="AF21" s="231"/>
-      <c r="AG21" s="232"/>
-      <c r="AH21" s="232"/>
-      <c r="AI21" s="233"/>
+      <c r="B21" s="227"/>
+      <c r="C21" s="228"/>
+      <c r="D21" s="229"/>
+      <c r="E21" s="230"/>
+      <c r="F21" s="231"/>
+      <c r="G21" s="227"/>
+      <c r="H21" s="232"/>
+      <c r="I21" s="228"/>
+      <c r="J21" s="224"/>
+      <c r="K21" s="225"/>
+      <c r="L21" s="225"/>
+      <c r="M21" s="225"/>
+      <c r="N21" s="225"/>
+      <c r="O21" s="225"/>
+      <c r="P21" s="226"/>
+      <c r="Q21" s="221"/>
+      <c r="R21" s="222"/>
+      <c r="S21" s="222"/>
+      <c r="T21" s="222"/>
+      <c r="U21" s="222"/>
+      <c r="V21" s="222"/>
+      <c r="W21" s="222"/>
+      <c r="X21" s="222"/>
+      <c r="Y21" s="222"/>
+      <c r="Z21" s="222"/>
+      <c r="AA21" s="222"/>
+      <c r="AB21" s="222"/>
+      <c r="AC21" s="222"/>
+      <c r="AD21" s="222"/>
+      <c r="AE21" s="223"/>
+      <c r="AF21" s="224"/>
+      <c r="AG21" s="225"/>
+      <c r="AH21" s="225"/>
+      <c r="AI21" s="226"/>
     </row>
     <row r="22" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="57"/>
-      <c r="B22" s="219"/>
-      <c r="C22" s="221"/>
-      <c r="D22" s="246"/>
-      <c r="E22" s="247"/>
-      <c r="F22" s="248"/>
-      <c r="G22" s="219"/>
-      <c r="H22" s="220"/>
-      <c r="I22" s="221"/>
-      <c r="J22" s="231"/>
-      <c r="K22" s="232"/>
-      <c r="L22" s="232"/>
-      <c r="M22" s="232"/>
-      <c r="N22" s="232"/>
-      <c r="O22" s="232"/>
-      <c r="P22" s="233"/>
-      <c r="Q22" s="228"/>
-      <c r="R22" s="229"/>
-      <c r="S22" s="229"/>
-      <c r="T22" s="229"/>
-      <c r="U22" s="229"/>
-      <c r="V22" s="229"/>
-      <c r="W22" s="229"/>
-      <c r="X22" s="229"/>
-      <c r="Y22" s="229"/>
-      <c r="Z22" s="229"/>
-      <c r="AA22" s="229"/>
-      <c r="AB22" s="229"/>
-      <c r="AC22" s="229"/>
-      <c r="AD22" s="229"/>
-      <c r="AE22" s="230"/>
-      <c r="AF22" s="231"/>
-      <c r="AG22" s="232"/>
-      <c r="AH22" s="232"/>
-      <c r="AI22" s="233"/>
+      <c r="B22" s="227"/>
+      <c r="C22" s="228"/>
+      <c r="D22" s="229"/>
+      <c r="E22" s="230"/>
+      <c r="F22" s="231"/>
+      <c r="G22" s="227"/>
+      <c r="H22" s="232"/>
+      <c r="I22" s="228"/>
+      <c r="J22" s="224"/>
+      <c r="K22" s="225"/>
+      <c r="L22" s="225"/>
+      <c r="M22" s="225"/>
+      <c r="N22" s="225"/>
+      <c r="O22" s="225"/>
+      <c r="P22" s="226"/>
+      <c r="Q22" s="221"/>
+      <c r="R22" s="222"/>
+      <c r="S22" s="222"/>
+      <c r="T22" s="222"/>
+      <c r="U22" s="222"/>
+      <c r="V22" s="222"/>
+      <c r="W22" s="222"/>
+      <c r="X22" s="222"/>
+      <c r="Y22" s="222"/>
+      <c r="Z22" s="222"/>
+      <c r="AA22" s="222"/>
+      <c r="AB22" s="222"/>
+      <c r="AC22" s="222"/>
+      <c r="AD22" s="222"/>
+      <c r="AE22" s="223"/>
+      <c r="AF22" s="224"/>
+      <c r="AG22" s="225"/>
+      <c r="AH22" s="225"/>
+      <c r="AI22" s="226"/>
     </row>
     <row r="23" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="57"/>
-      <c r="B23" s="219"/>
-      <c r="C23" s="221"/>
-      <c r="D23" s="246"/>
-      <c r="E23" s="247"/>
-      <c r="F23" s="248"/>
-      <c r="G23" s="219"/>
-      <c r="H23" s="220"/>
-      <c r="I23" s="221"/>
-      <c r="J23" s="231"/>
-      <c r="K23" s="232"/>
-      <c r="L23" s="232"/>
-      <c r="M23" s="232"/>
-      <c r="N23" s="232"/>
-      <c r="O23" s="232"/>
-      <c r="P23" s="233"/>
-      <c r="Q23" s="228"/>
-      <c r="R23" s="229"/>
-      <c r="S23" s="229"/>
-      <c r="T23" s="229"/>
-      <c r="U23" s="229"/>
-      <c r="V23" s="229"/>
-      <c r="W23" s="229"/>
-      <c r="X23" s="229"/>
-      <c r="Y23" s="229"/>
-      <c r="Z23" s="229"/>
-      <c r="AA23" s="229"/>
-      <c r="AB23" s="229"/>
-      <c r="AC23" s="229"/>
-      <c r="AD23" s="229"/>
-      <c r="AE23" s="230"/>
-      <c r="AF23" s="231"/>
-      <c r="AG23" s="232"/>
-      <c r="AH23" s="232"/>
-      <c r="AI23" s="233"/>
+      <c r="B23" s="227"/>
+      <c r="C23" s="228"/>
+      <c r="D23" s="229"/>
+      <c r="E23" s="230"/>
+      <c r="F23" s="231"/>
+      <c r="G23" s="227"/>
+      <c r="H23" s="232"/>
+      <c r="I23" s="228"/>
+      <c r="J23" s="224"/>
+      <c r="K23" s="225"/>
+      <c r="L23" s="225"/>
+      <c r="M23" s="225"/>
+      <c r="N23" s="225"/>
+      <c r="O23" s="225"/>
+      <c r="P23" s="226"/>
+      <c r="Q23" s="221"/>
+      <c r="R23" s="222"/>
+      <c r="S23" s="222"/>
+      <c r="T23" s="222"/>
+      <c r="U23" s="222"/>
+      <c r="V23" s="222"/>
+      <c r="W23" s="222"/>
+      <c r="X23" s="222"/>
+      <c r="Y23" s="222"/>
+      <c r="Z23" s="222"/>
+      <c r="AA23" s="222"/>
+      <c r="AB23" s="222"/>
+      <c r="AC23" s="222"/>
+      <c r="AD23" s="222"/>
+      <c r="AE23" s="223"/>
+      <c r="AF23" s="224"/>
+      <c r="AG23" s="225"/>
+      <c r="AH23" s="225"/>
+      <c r="AI23" s="226"/>
     </row>
     <row r="24" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="57"/>
-      <c r="B24" s="219"/>
-      <c r="C24" s="221"/>
-      <c r="D24" s="246"/>
-      <c r="E24" s="247"/>
-      <c r="F24" s="248"/>
-      <c r="G24" s="219"/>
-      <c r="H24" s="220"/>
-      <c r="I24" s="221"/>
-      <c r="J24" s="231"/>
-      <c r="K24" s="232"/>
-      <c r="L24" s="232"/>
-      <c r="M24" s="232"/>
-      <c r="N24" s="232"/>
-      <c r="O24" s="232"/>
-      <c r="P24" s="233"/>
-      <c r="Q24" s="228"/>
-      <c r="R24" s="229"/>
-      <c r="S24" s="229"/>
-      <c r="T24" s="229"/>
-      <c r="U24" s="229"/>
-      <c r="V24" s="229"/>
-      <c r="W24" s="229"/>
-      <c r="X24" s="229"/>
-      <c r="Y24" s="229"/>
-      <c r="Z24" s="229"/>
-      <c r="AA24" s="229"/>
-      <c r="AB24" s="229"/>
-      <c r="AC24" s="229"/>
-      <c r="AD24" s="229"/>
-      <c r="AE24" s="230"/>
-      <c r="AF24" s="231"/>
-      <c r="AG24" s="232"/>
-      <c r="AH24" s="232"/>
-      <c r="AI24" s="233"/>
+      <c r="B24" s="227"/>
+      <c r="C24" s="228"/>
+      <c r="D24" s="229"/>
+      <c r="E24" s="230"/>
+      <c r="F24" s="231"/>
+      <c r="G24" s="227"/>
+      <c r="H24" s="232"/>
+      <c r="I24" s="228"/>
+      <c r="J24" s="224"/>
+      <c r="K24" s="225"/>
+      <c r="L24" s="225"/>
+      <c r="M24" s="225"/>
+      <c r="N24" s="225"/>
+      <c r="O24" s="225"/>
+      <c r="P24" s="226"/>
+      <c r="Q24" s="221"/>
+      <c r="R24" s="222"/>
+      <c r="S24" s="222"/>
+      <c r="T24" s="222"/>
+      <c r="U24" s="222"/>
+      <c r="V24" s="222"/>
+      <c r="W24" s="222"/>
+      <c r="X24" s="222"/>
+      <c r="Y24" s="222"/>
+      <c r="Z24" s="222"/>
+      <c r="AA24" s="222"/>
+      <c r="AB24" s="222"/>
+      <c r="AC24" s="222"/>
+      <c r="AD24" s="222"/>
+      <c r="AE24" s="223"/>
+      <c r="AF24" s="224"/>
+      <c r="AG24" s="225"/>
+      <c r="AH24" s="225"/>
+      <c r="AI24" s="226"/>
     </row>
     <row r="25" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="57"/>
-      <c r="B25" s="219"/>
-      <c r="C25" s="221"/>
-      <c r="D25" s="246"/>
-      <c r="E25" s="247"/>
-      <c r="F25" s="248"/>
-      <c r="G25" s="219"/>
-      <c r="H25" s="220"/>
-      <c r="I25" s="221"/>
-      <c r="J25" s="231"/>
-      <c r="K25" s="232"/>
-      <c r="L25" s="232"/>
-      <c r="M25" s="232"/>
-      <c r="N25" s="232"/>
-      <c r="O25" s="232"/>
-      <c r="P25" s="233"/>
-      <c r="Q25" s="228"/>
-      <c r="R25" s="229"/>
-      <c r="S25" s="229"/>
-      <c r="T25" s="229"/>
-      <c r="U25" s="229"/>
-      <c r="V25" s="229"/>
-      <c r="W25" s="229"/>
-      <c r="X25" s="229"/>
-      <c r="Y25" s="229"/>
-      <c r="Z25" s="229"/>
-      <c r="AA25" s="229"/>
-      <c r="AB25" s="229"/>
-      <c r="AC25" s="229"/>
-      <c r="AD25" s="229"/>
-      <c r="AE25" s="230"/>
-      <c r="AF25" s="231"/>
-      <c r="AG25" s="232"/>
-      <c r="AH25" s="232"/>
-      <c r="AI25" s="233"/>
+      <c r="B25" s="227"/>
+      <c r="C25" s="228"/>
+      <c r="D25" s="229"/>
+      <c r="E25" s="230"/>
+      <c r="F25" s="231"/>
+      <c r="G25" s="227"/>
+      <c r="H25" s="232"/>
+      <c r="I25" s="228"/>
+      <c r="J25" s="224"/>
+      <c r="K25" s="225"/>
+      <c r="L25" s="225"/>
+      <c r="M25" s="225"/>
+      <c r="N25" s="225"/>
+      <c r="O25" s="225"/>
+      <c r="P25" s="226"/>
+      <c r="Q25" s="221"/>
+      <c r="R25" s="222"/>
+      <c r="S25" s="222"/>
+      <c r="T25" s="222"/>
+      <c r="U25" s="222"/>
+      <c r="V25" s="222"/>
+      <c r="W25" s="222"/>
+      <c r="X25" s="222"/>
+      <c r="Y25" s="222"/>
+      <c r="Z25" s="222"/>
+      <c r="AA25" s="222"/>
+      <c r="AB25" s="222"/>
+      <c r="AC25" s="222"/>
+      <c r="AD25" s="222"/>
+      <c r="AE25" s="223"/>
+      <c r="AF25" s="224"/>
+      <c r="AG25" s="225"/>
+      <c r="AH25" s="225"/>
+      <c r="AI25" s="226"/>
     </row>
     <row r="26" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="57"/>
-      <c r="B26" s="219"/>
-      <c r="C26" s="221"/>
-      <c r="D26" s="246"/>
-      <c r="E26" s="247"/>
-      <c r="F26" s="248"/>
-      <c r="G26" s="219"/>
-      <c r="H26" s="220"/>
-      <c r="I26" s="221"/>
-      <c r="J26" s="231"/>
-      <c r="K26" s="232"/>
-      <c r="L26" s="232"/>
-      <c r="M26" s="232"/>
-      <c r="N26" s="232"/>
-      <c r="O26" s="232"/>
-      <c r="P26" s="233"/>
-      <c r="Q26" s="228"/>
-      <c r="R26" s="229"/>
-      <c r="S26" s="229"/>
-      <c r="T26" s="229"/>
-      <c r="U26" s="229"/>
-      <c r="V26" s="229"/>
-      <c r="W26" s="229"/>
-      <c r="X26" s="229"/>
-      <c r="Y26" s="229"/>
-      <c r="Z26" s="229"/>
-      <c r="AA26" s="229"/>
-      <c r="AB26" s="229"/>
-      <c r="AC26" s="229"/>
-      <c r="AD26" s="229"/>
-      <c r="AE26" s="230"/>
-      <c r="AF26" s="231"/>
-      <c r="AG26" s="232"/>
-      <c r="AH26" s="232"/>
-      <c r="AI26" s="233"/>
+      <c r="B26" s="227"/>
+      <c r="C26" s="228"/>
+      <c r="D26" s="229"/>
+      <c r="E26" s="230"/>
+      <c r="F26" s="231"/>
+      <c r="G26" s="227"/>
+      <c r="H26" s="232"/>
+      <c r="I26" s="228"/>
+      <c r="J26" s="224"/>
+      <c r="K26" s="225"/>
+      <c r="L26" s="225"/>
+      <c r="M26" s="225"/>
+      <c r="N26" s="225"/>
+      <c r="O26" s="225"/>
+      <c r="P26" s="226"/>
+      <c r="Q26" s="221"/>
+      <c r="R26" s="222"/>
+      <c r="S26" s="222"/>
+      <c r="T26" s="222"/>
+      <c r="U26" s="222"/>
+      <c r="V26" s="222"/>
+      <c r="W26" s="222"/>
+      <c r="X26" s="222"/>
+      <c r="Y26" s="222"/>
+      <c r="Z26" s="222"/>
+      <c r="AA26" s="222"/>
+      <c r="AB26" s="222"/>
+      <c r="AC26" s="222"/>
+      <c r="AD26" s="222"/>
+      <c r="AE26" s="223"/>
+      <c r="AF26" s="224"/>
+      <c r="AG26" s="225"/>
+      <c r="AH26" s="225"/>
+      <c r="AI26" s="226"/>
     </row>
     <row r="27" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="57"/>
-      <c r="B27" s="219"/>
-      <c r="C27" s="221"/>
-      <c r="D27" s="246"/>
-      <c r="E27" s="247"/>
-      <c r="F27" s="248"/>
-      <c r="G27" s="219"/>
-      <c r="H27" s="220"/>
-      <c r="I27" s="221"/>
-      <c r="J27" s="231"/>
-      <c r="K27" s="232"/>
-      <c r="L27" s="232"/>
-      <c r="M27" s="232"/>
-      <c r="N27" s="232"/>
-      <c r="O27" s="232"/>
-      <c r="P27" s="233"/>
-      <c r="Q27" s="228"/>
-      <c r="R27" s="229"/>
-      <c r="S27" s="229"/>
-      <c r="T27" s="229"/>
-      <c r="U27" s="229"/>
-      <c r="V27" s="229"/>
-      <c r="W27" s="229"/>
-      <c r="X27" s="229"/>
-      <c r="Y27" s="229"/>
-      <c r="Z27" s="229"/>
-      <c r="AA27" s="229"/>
-      <c r="AB27" s="229"/>
-      <c r="AC27" s="229"/>
-      <c r="AD27" s="229"/>
-      <c r="AE27" s="230"/>
-      <c r="AF27" s="231"/>
-      <c r="AG27" s="232"/>
-      <c r="AH27" s="232"/>
-      <c r="AI27" s="233"/>
+      <c r="B27" s="227"/>
+      <c r="C27" s="228"/>
+      <c r="D27" s="229"/>
+      <c r="E27" s="230"/>
+      <c r="F27" s="231"/>
+      <c r="G27" s="227"/>
+      <c r="H27" s="232"/>
+      <c r="I27" s="228"/>
+      <c r="J27" s="224"/>
+      <c r="K27" s="225"/>
+      <c r="L27" s="225"/>
+      <c r="M27" s="225"/>
+      <c r="N27" s="225"/>
+      <c r="O27" s="225"/>
+      <c r="P27" s="226"/>
+      <c r="Q27" s="221"/>
+      <c r="R27" s="222"/>
+      <c r="S27" s="222"/>
+      <c r="T27" s="222"/>
+      <c r="U27" s="222"/>
+      <c r="V27" s="222"/>
+      <c r="W27" s="222"/>
+      <c r="X27" s="222"/>
+      <c r="Y27" s="222"/>
+      <c r="Z27" s="222"/>
+      <c r="AA27" s="222"/>
+      <c r="AB27" s="222"/>
+      <c r="AC27" s="222"/>
+      <c r="AD27" s="222"/>
+      <c r="AE27" s="223"/>
+      <c r="AF27" s="224"/>
+      <c r="AG27" s="225"/>
+      <c r="AH27" s="225"/>
+      <c r="AI27" s="226"/>
     </row>
     <row r="28" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="57"/>
-      <c r="B28" s="219"/>
-      <c r="C28" s="221"/>
-      <c r="D28" s="246"/>
-      <c r="E28" s="247"/>
-      <c r="F28" s="248"/>
-      <c r="G28" s="219"/>
-      <c r="H28" s="220"/>
-      <c r="I28" s="221"/>
-      <c r="J28" s="231"/>
-      <c r="K28" s="232"/>
-      <c r="L28" s="232"/>
-      <c r="M28" s="232"/>
-      <c r="N28" s="232"/>
-      <c r="O28" s="232"/>
-      <c r="P28" s="233"/>
-      <c r="Q28" s="228"/>
-      <c r="R28" s="229"/>
-      <c r="S28" s="229"/>
-      <c r="T28" s="229"/>
-      <c r="U28" s="229"/>
-      <c r="V28" s="229"/>
-      <c r="W28" s="229"/>
-      <c r="X28" s="229"/>
-      <c r="Y28" s="229"/>
-      <c r="Z28" s="229"/>
-      <c r="AA28" s="229"/>
-      <c r="AB28" s="229"/>
-      <c r="AC28" s="229"/>
-      <c r="AD28" s="229"/>
-      <c r="AE28" s="230"/>
-      <c r="AF28" s="231"/>
-      <c r="AG28" s="232"/>
-      <c r="AH28" s="232"/>
-      <c r="AI28" s="233"/>
+      <c r="B28" s="227"/>
+      <c r="C28" s="228"/>
+      <c r="D28" s="229"/>
+      <c r="E28" s="230"/>
+      <c r="F28" s="231"/>
+      <c r="G28" s="227"/>
+      <c r="H28" s="232"/>
+      <c r="I28" s="228"/>
+      <c r="J28" s="224"/>
+      <c r="K28" s="225"/>
+      <c r="L28" s="225"/>
+      <c r="M28" s="225"/>
+      <c r="N28" s="225"/>
+      <c r="O28" s="225"/>
+      <c r="P28" s="226"/>
+      <c r="Q28" s="221"/>
+      <c r="R28" s="222"/>
+      <c r="S28" s="222"/>
+      <c r="T28" s="222"/>
+      <c r="U28" s="222"/>
+      <c r="V28" s="222"/>
+      <c r="W28" s="222"/>
+      <c r="X28" s="222"/>
+      <c r="Y28" s="222"/>
+      <c r="Z28" s="222"/>
+      <c r="AA28" s="222"/>
+      <c r="AB28" s="222"/>
+      <c r="AC28" s="222"/>
+      <c r="AD28" s="222"/>
+      <c r="AE28" s="223"/>
+      <c r="AF28" s="224"/>
+      <c r="AG28" s="225"/>
+      <c r="AH28" s="225"/>
+      <c r="AI28" s="226"/>
     </row>
     <row r="29" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="57"/>
-      <c r="B29" s="219"/>
-      <c r="C29" s="221"/>
-      <c r="D29" s="246"/>
-      <c r="E29" s="247"/>
-      <c r="F29" s="248"/>
-      <c r="G29" s="219"/>
-      <c r="H29" s="220"/>
-      <c r="I29" s="221"/>
-      <c r="J29" s="231"/>
-      <c r="K29" s="232"/>
-      <c r="L29" s="232"/>
-      <c r="M29" s="232"/>
-      <c r="N29" s="232"/>
-      <c r="O29" s="232"/>
-      <c r="P29" s="233"/>
-      <c r="Q29" s="228"/>
-      <c r="R29" s="229"/>
-      <c r="S29" s="229"/>
-      <c r="T29" s="229"/>
-      <c r="U29" s="229"/>
-      <c r="V29" s="229"/>
-      <c r="W29" s="229"/>
-      <c r="X29" s="229"/>
-      <c r="Y29" s="229"/>
-      <c r="Z29" s="229"/>
-      <c r="AA29" s="229"/>
-      <c r="AB29" s="229"/>
-      <c r="AC29" s="229"/>
-      <c r="AD29" s="229"/>
-      <c r="AE29" s="230"/>
-      <c r="AF29" s="231"/>
-      <c r="AG29" s="232"/>
-      <c r="AH29" s="232"/>
-      <c r="AI29" s="233"/>
+      <c r="B29" s="227"/>
+      <c r="C29" s="228"/>
+      <c r="D29" s="229"/>
+      <c r="E29" s="230"/>
+      <c r="F29" s="231"/>
+      <c r="G29" s="227"/>
+      <c r="H29" s="232"/>
+      <c r="I29" s="228"/>
+      <c r="J29" s="224"/>
+      <c r="K29" s="225"/>
+      <c r="L29" s="225"/>
+      <c r="M29" s="225"/>
+      <c r="N29" s="225"/>
+      <c r="O29" s="225"/>
+      <c r="P29" s="226"/>
+      <c r="Q29" s="221"/>
+      <c r="R29" s="222"/>
+      <c r="S29" s="222"/>
+      <c r="T29" s="222"/>
+      <c r="U29" s="222"/>
+      <c r="V29" s="222"/>
+      <c r="W29" s="222"/>
+      <c r="X29" s="222"/>
+      <c r="Y29" s="222"/>
+      <c r="Z29" s="222"/>
+      <c r="AA29" s="222"/>
+      <c r="AB29" s="222"/>
+      <c r="AC29" s="222"/>
+      <c r="AD29" s="222"/>
+      <c r="AE29" s="223"/>
+      <c r="AF29" s="224"/>
+      <c r="AG29" s="225"/>
+      <c r="AH29" s="225"/>
+      <c r="AI29" s="226"/>
     </row>
     <row r="30" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="57"/>
-      <c r="B30" s="219"/>
-      <c r="C30" s="221"/>
-      <c r="D30" s="246"/>
-      <c r="E30" s="247"/>
-      <c r="F30" s="248"/>
-      <c r="G30" s="219"/>
-      <c r="H30" s="220"/>
-      <c r="I30" s="221"/>
-      <c r="J30" s="231"/>
-      <c r="K30" s="232"/>
-      <c r="L30" s="232"/>
-      <c r="M30" s="232"/>
-      <c r="N30" s="232"/>
-      <c r="O30" s="232"/>
-      <c r="P30" s="233"/>
-      <c r="Q30" s="228"/>
-      <c r="R30" s="229"/>
-      <c r="S30" s="229"/>
-      <c r="T30" s="229"/>
-      <c r="U30" s="229"/>
-      <c r="V30" s="229"/>
-      <c r="W30" s="229"/>
-      <c r="X30" s="229"/>
-      <c r="Y30" s="229"/>
-      <c r="Z30" s="229"/>
-      <c r="AA30" s="229"/>
-      <c r="AB30" s="229"/>
-      <c r="AC30" s="229"/>
-      <c r="AD30" s="229"/>
-      <c r="AE30" s="230"/>
-      <c r="AF30" s="231"/>
-      <c r="AG30" s="232"/>
-      <c r="AH30" s="232"/>
-      <c r="AI30" s="233"/>
+      <c r="B30" s="227"/>
+      <c r="C30" s="228"/>
+      <c r="D30" s="229"/>
+      <c r="E30" s="230"/>
+      <c r="F30" s="231"/>
+      <c r="G30" s="227"/>
+      <c r="H30" s="232"/>
+      <c r="I30" s="228"/>
+      <c r="J30" s="224"/>
+      <c r="K30" s="225"/>
+      <c r="L30" s="225"/>
+      <c r="M30" s="225"/>
+      <c r="N30" s="225"/>
+      <c r="O30" s="225"/>
+      <c r="P30" s="226"/>
+      <c r="Q30" s="221"/>
+      <c r="R30" s="222"/>
+      <c r="S30" s="222"/>
+      <c r="T30" s="222"/>
+      <c r="U30" s="222"/>
+      <c r="V30" s="222"/>
+      <c r="W30" s="222"/>
+      <c r="X30" s="222"/>
+      <c r="Y30" s="222"/>
+      <c r="Z30" s="222"/>
+      <c r="AA30" s="222"/>
+      <c r="AB30" s="222"/>
+      <c r="AC30" s="222"/>
+      <c r="AD30" s="222"/>
+      <c r="AE30" s="223"/>
+      <c r="AF30" s="224"/>
+      <c r="AG30" s="225"/>
+      <c r="AH30" s="225"/>
+      <c r="AI30" s="226"/>
     </row>
     <row r="31" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="57"/>
-      <c r="B31" s="219"/>
-      <c r="C31" s="221"/>
-      <c r="D31" s="246"/>
-      <c r="E31" s="247"/>
-      <c r="F31" s="248"/>
-      <c r="G31" s="219"/>
-      <c r="H31" s="220"/>
-      <c r="I31" s="221"/>
-      <c r="J31" s="231"/>
-      <c r="K31" s="232"/>
-      <c r="L31" s="232"/>
-      <c r="M31" s="232"/>
-      <c r="N31" s="232"/>
-      <c r="O31" s="232"/>
-      <c r="P31" s="233"/>
-      <c r="Q31" s="228"/>
-      <c r="R31" s="229"/>
-      <c r="S31" s="229"/>
-      <c r="T31" s="229"/>
-      <c r="U31" s="229"/>
-      <c r="V31" s="229"/>
-      <c r="W31" s="229"/>
-      <c r="X31" s="229"/>
-      <c r="Y31" s="229"/>
-      <c r="Z31" s="229"/>
-      <c r="AA31" s="229"/>
-      <c r="AB31" s="229"/>
-      <c r="AC31" s="229"/>
-      <c r="AD31" s="229"/>
-      <c r="AE31" s="230"/>
-      <c r="AF31" s="231"/>
-      <c r="AG31" s="232"/>
-      <c r="AH31" s="232"/>
-      <c r="AI31" s="233"/>
+      <c r="B31" s="227"/>
+      <c r="C31" s="228"/>
+      <c r="D31" s="229"/>
+      <c r="E31" s="230"/>
+      <c r="F31" s="231"/>
+      <c r="G31" s="227"/>
+      <c r="H31" s="232"/>
+      <c r="I31" s="228"/>
+      <c r="J31" s="224"/>
+      <c r="K31" s="225"/>
+      <c r="L31" s="225"/>
+      <c r="M31" s="225"/>
+      <c r="N31" s="225"/>
+      <c r="O31" s="225"/>
+      <c r="P31" s="226"/>
+      <c r="Q31" s="221"/>
+      <c r="R31" s="222"/>
+      <c r="S31" s="222"/>
+      <c r="T31" s="222"/>
+      <c r="U31" s="222"/>
+      <c r="V31" s="222"/>
+      <c r="W31" s="222"/>
+      <c r="X31" s="222"/>
+      <c r="Y31" s="222"/>
+      <c r="Z31" s="222"/>
+      <c r="AA31" s="222"/>
+      <c r="AB31" s="222"/>
+      <c r="AC31" s="222"/>
+      <c r="AD31" s="222"/>
+      <c r="AE31" s="223"/>
+      <c r="AF31" s="224"/>
+      <c r="AG31" s="225"/>
+      <c r="AH31" s="225"/>
+      <c r="AI31" s="226"/>
     </row>
     <row r="32" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="57"/>
-      <c r="B32" s="219"/>
-      <c r="C32" s="221"/>
-      <c r="D32" s="246"/>
-      <c r="E32" s="247"/>
-      <c r="F32" s="248"/>
-      <c r="G32" s="219"/>
-      <c r="H32" s="220"/>
-      <c r="I32" s="221"/>
-      <c r="J32" s="231"/>
-      <c r="K32" s="232"/>
-      <c r="L32" s="232"/>
-      <c r="M32" s="232"/>
-      <c r="N32" s="232"/>
-      <c r="O32" s="232"/>
-      <c r="P32" s="233"/>
-      <c r="Q32" s="228"/>
-      <c r="R32" s="229"/>
-      <c r="S32" s="229"/>
-      <c r="T32" s="229"/>
-      <c r="U32" s="229"/>
-      <c r="V32" s="229"/>
-      <c r="W32" s="229"/>
-      <c r="X32" s="229"/>
-      <c r="Y32" s="229"/>
-      <c r="Z32" s="229"/>
-      <c r="AA32" s="229"/>
-      <c r="AB32" s="229"/>
-      <c r="AC32" s="229"/>
-      <c r="AD32" s="229"/>
-      <c r="AE32" s="230"/>
-      <c r="AF32" s="231"/>
-      <c r="AG32" s="232"/>
-      <c r="AH32" s="232"/>
-      <c r="AI32" s="233"/>
+      <c r="B32" s="227"/>
+      <c r="C32" s="228"/>
+      <c r="D32" s="229"/>
+      <c r="E32" s="230"/>
+      <c r="F32" s="231"/>
+      <c r="G32" s="227"/>
+      <c r="H32" s="232"/>
+      <c r="I32" s="228"/>
+      <c r="J32" s="224"/>
+      <c r="K32" s="225"/>
+      <c r="L32" s="225"/>
+      <c r="M32" s="225"/>
+      <c r="N32" s="225"/>
+      <c r="O32" s="225"/>
+      <c r="P32" s="226"/>
+      <c r="Q32" s="221"/>
+      <c r="R32" s="222"/>
+      <c r="S32" s="222"/>
+      <c r="T32" s="222"/>
+      <c r="U32" s="222"/>
+      <c r="V32" s="222"/>
+      <c r="W32" s="222"/>
+      <c r="X32" s="222"/>
+      <c r="Y32" s="222"/>
+      <c r="Z32" s="222"/>
+      <c r="AA32" s="222"/>
+      <c r="AB32" s="222"/>
+      <c r="AC32" s="222"/>
+      <c r="AD32" s="222"/>
+      <c r="AE32" s="223"/>
+      <c r="AF32" s="224"/>
+      <c r="AG32" s="225"/>
+      <c r="AH32" s="225"/>
+      <c r="AI32" s="226"/>
     </row>
     <row r="33" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="57"/>
-      <c r="B33" s="219"/>
-      <c r="C33" s="221"/>
-      <c r="D33" s="246"/>
-      <c r="E33" s="247"/>
-      <c r="F33" s="248"/>
-      <c r="G33" s="219"/>
-      <c r="H33" s="220"/>
-      <c r="I33" s="221"/>
-      <c r="J33" s="231"/>
-      <c r="K33" s="232"/>
-      <c r="L33" s="232"/>
-      <c r="M33" s="232"/>
-      <c r="N33" s="232"/>
-      <c r="O33" s="232"/>
-      <c r="P33" s="233"/>
-      <c r="Q33" s="228"/>
-      <c r="R33" s="229"/>
-      <c r="S33" s="229"/>
-      <c r="T33" s="229"/>
-      <c r="U33" s="229"/>
-      <c r="V33" s="229"/>
-      <c r="W33" s="229"/>
-      <c r="X33" s="229"/>
-      <c r="Y33" s="229"/>
-      <c r="Z33" s="229"/>
-      <c r="AA33" s="229"/>
-      <c r="AB33" s="229"/>
-      <c r="AC33" s="229"/>
-      <c r="AD33" s="229"/>
-      <c r="AE33" s="230"/>
-      <c r="AF33" s="231"/>
-      <c r="AG33" s="232"/>
-      <c r="AH33" s="232"/>
-      <c r="AI33" s="233"/>
+      <c r="B33" s="227"/>
+      <c r="C33" s="228"/>
+      <c r="D33" s="229"/>
+      <c r="E33" s="230"/>
+      <c r="F33" s="231"/>
+      <c r="G33" s="227"/>
+      <c r="H33" s="232"/>
+      <c r="I33" s="228"/>
+      <c r="J33" s="224"/>
+      <c r="K33" s="225"/>
+      <c r="L33" s="225"/>
+      <c r="M33" s="225"/>
+      <c r="N33" s="225"/>
+      <c r="O33" s="225"/>
+      <c r="P33" s="226"/>
+      <c r="Q33" s="221"/>
+      <c r="R33" s="222"/>
+      <c r="S33" s="222"/>
+      <c r="T33" s="222"/>
+      <c r="U33" s="222"/>
+      <c r="V33" s="222"/>
+      <c r="W33" s="222"/>
+      <c r="X33" s="222"/>
+      <c r="Y33" s="222"/>
+      <c r="Z33" s="222"/>
+      <c r="AA33" s="222"/>
+      <c r="AB33" s="222"/>
+      <c r="AC33" s="222"/>
+      <c r="AD33" s="222"/>
+      <c r="AE33" s="223"/>
+      <c r="AF33" s="224"/>
+      <c r="AG33" s="225"/>
+      <c r="AH33" s="225"/>
+      <c r="AI33" s="226"/>
     </row>
     <row r="34" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="28"/>
@@ -6807,6 +6811,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -6831,161 +6990,6 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -7142,158 +7146,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="273" t="str">
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="279" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="226"/>
-      <c r="L1" s="226"/>
-      <c r="M1" s="226"/>
-      <c r="N1" s="227"/>
-      <c r="O1" s="259" t="s">
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="256"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="256"/>
+      <c r="L1" s="256"/>
+      <c r="M1" s="256"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="210" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="260"/>
-      <c r="Q1" s="260"/>
-      <c r="R1" s="261"/>
-      <c r="S1" s="274" t="str">
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
+      <c r="R1" s="212"/>
+      <c r="S1" s="270" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
-WA10101/ログイン</v>
-      </c>
-      <c r="T1" s="275"/>
-      <c r="U1" s="275"/>
-      <c r="V1" s="275"/>
-      <c r="W1" s="275"/>
-      <c r="X1" s="275"/>
-      <c r="Y1" s="275"/>
-      <c r="Z1" s="276"/>
-      <c r="AA1" s="256" t="s">
+WA10101/認証</v>
+      </c>
+      <c r="T1" s="271"/>
+      <c r="U1" s="271"/>
+      <c r="V1" s="271"/>
+      <c r="W1" s="271"/>
+      <c r="X1" s="271"/>
+      <c r="Y1" s="271"/>
+      <c r="Z1" s="272"/>
+      <c r="AA1" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="258"/>
-      <c r="AC1" s="207" t="str">
+      <c r="AB1" s="209"/>
+      <c r="AC1" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="209"/>
-      <c r="AG1" s="270">
+      <c r="AD1" s="244"/>
+      <c r="AE1" s="244"/>
+      <c r="AF1" s="245"/>
+      <c r="AG1" s="280">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="271"/>
-      <c r="AI1" s="272"/>
+      <c r="AH1" s="281"/>
+      <c r="AI1" s="282"/>
     </row>
     <row r="2" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="257"/>
-      <c r="C2" s="257"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="273" t="str">
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="279" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
-      <c r="H2" s="226"/>
-      <c r="I2" s="226"/>
-      <c r="J2" s="226"/>
-      <c r="K2" s="226"/>
-      <c r="L2" s="226"/>
-      <c r="M2" s="226"/>
-      <c r="N2" s="227"/>
-      <c r="O2" s="262"/>
-      <c r="P2" s="263"/>
-      <c r="Q2" s="263"/>
-      <c r="R2" s="264"/>
-      <c r="S2" s="277"/>
-      <c r="T2" s="278"/>
-      <c r="U2" s="278"/>
-      <c r="V2" s="278"/>
-      <c r="W2" s="278"/>
-      <c r="X2" s="278"/>
-      <c r="Y2" s="278"/>
-      <c r="Z2" s="279"/>
-      <c r="AA2" s="256" t="s">
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="256"/>
+      <c r="K2" s="256"/>
+      <c r="L2" s="256"/>
+      <c r="M2" s="256"/>
+      <c r="N2" s="257"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="214"/>
+      <c r="Q2" s="214"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="273"/>
+      <c r="T2" s="274"/>
+      <c r="U2" s="274"/>
+      <c r="V2" s="274"/>
+      <c r="W2" s="274"/>
+      <c r="X2" s="274"/>
+      <c r="Y2" s="274"/>
+      <c r="Z2" s="275"/>
+      <c r="AA2" s="207" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="258"/>
-      <c r="AC2" s="207" t="str">
+      <c r="AB2" s="209"/>
+      <c r="AC2" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="208"/>
-      <c r="AE2" s="208"/>
-      <c r="AF2" s="209"/>
-      <c r="AG2" s="270">
+      <c r="AD2" s="244"/>
+      <c r="AE2" s="244"/>
+      <c r="AF2" s="245"/>
+      <c r="AG2" s="280">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="271"/>
-      <c r="AI2" s="272"/>
+      <c r="AH2" s="281"/>
+      <c r="AI2" s="282"/>
     </row>
     <row r="3" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="257"/>
-      <c r="C3" s="257"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="273" t="str">
+      <c r="B3" s="208"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="279" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="226"/>
-      <c r="J3" s="226"/>
-      <c r="K3" s="226"/>
-      <c r="L3" s="226"/>
-      <c r="M3" s="226"/>
-      <c r="N3" s="227"/>
-      <c r="O3" s="265"/>
-      <c r="P3" s="266"/>
-      <c r="Q3" s="266"/>
-      <c r="R3" s="267"/>
-      <c r="S3" s="280"/>
-      <c r="T3" s="281"/>
-      <c r="U3" s="281"/>
-      <c r="V3" s="281"/>
-      <c r="W3" s="281"/>
-      <c r="X3" s="281"/>
-      <c r="Y3" s="281"/>
-      <c r="Z3" s="282"/>
-      <c r="AA3" s="256"/>
-      <c r="AB3" s="258"/>
-      <c r="AC3" s="207" t="str">
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="216"/>
+      <c r="P3" s="217"/>
+      <c r="Q3" s="217"/>
+      <c r="R3" s="218"/>
+      <c r="S3" s="276"/>
+      <c r="T3" s="277"/>
+      <c r="U3" s="277"/>
+      <c r="V3" s="277"/>
+      <c r="W3" s="277"/>
+      <c r="X3" s="277"/>
+      <c r="Y3" s="277"/>
+      <c r="Z3" s="278"/>
+      <c r="AA3" s="207"/>
+      <c r="AB3" s="209"/>
+      <c r="AC3" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="208"/>
-      <c r="AE3" s="208"/>
-      <c r="AF3" s="209"/>
-      <c r="AG3" s="270" t="str">
+      <c r="AD3" s="244"/>
+      <c r="AE3" s="244"/>
+      <c r="AF3" s="245"/>
+      <c r="AG3" s="280" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="271"/>
-      <c r="AI3" s="272"/>
+      <c r="AH3" s="281"/>
+      <c r="AI3" s="282"/>
     </row>
     <row r="4" spans="1:35" s="35" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
@@ -7526,7 +7530,7 @@
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="31"/>
       <c r="B10" s="41" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="31"/>
@@ -7826,7 +7830,7 @@
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="26"/>
       <c r="B18" s="26" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
@@ -7865,7 +7869,7 @@
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="71"/>
       <c r="C19" s="41" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
@@ -7901,7 +7905,7 @@
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="31" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="J20" s="71"/>
       <c r="K20" s="69"/>
@@ -7932,7 +7936,7 @@
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="103" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
@@ -7962,7 +7966,7 @@
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="103" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K22" s="71"/>
       <c r="L22" s="71"/>
@@ -7990,7 +7994,7 @@
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="103" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S23" s="72"/>
       <c r="T23" s="72"/>
@@ -8012,7 +8016,7 @@
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="31" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="J24" s="71"/>
       <c r="Q24" s="52"/>
@@ -8195,6 +8199,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -8204,14 +8216,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -8238,158 +8242,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="207" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="273" t="str">
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="279" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="226"/>
-      <c r="L1" s="226"/>
-      <c r="M1" s="226"/>
-      <c r="N1" s="227"/>
-      <c r="O1" s="259" t="s">
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="256"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="256"/>
+      <c r="L1" s="256"/>
+      <c r="M1" s="256"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="210" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="260"/>
-      <c r="Q1" s="260"/>
-      <c r="R1" s="261"/>
-      <c r="S1" s="274" t="str">
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
+      <c r="R1" s="212"/>
+      <c r="S1" s="270" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
-WA10101/ログイン</v>
-      </c>
-      <c r="T1" s="275"/>
-      <c r="U1" s="275"/>
-      <c r="V1" s="275"/>
-      <c r="W1" s="275"/>
-      <c r="X1" s="275"/>
-      <c r="Y1" s="275"/>
-      <c r="Z1" s="276"/>
-      <c r="AA1" s="256" t="s">
+WA10101/認証</v>
+      </c>
+      <c r="T1" s="271"/>
+      <c r="U1" s="271"/>
+      <c r="V1" s="271"/>
+      <c r="W1" s="271"/>
+      <c r="X1" s="271"/>
+      <c r="Y1" s="271"/>
+      <c r="Z1" s="272"/>
+      <c r="AA1" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="258"/>
-      <c r="AC1" s="207" t="str">
+      <c r="AB1" s="209"/>
+      <c r="AC1" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="209"/>
-      <c r="AG1" s="270">
+      <c r="AD1" s="244"/>
+      <c r="AE1" s="244"/>
+      <c r="AF1" s="245"/>
+      <c r="AG1" s="280">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="271"/>
-      <c r="AI1" s="272"/>
+      <c r="AH1" s="281"/>
+      <c r="AI1" s="282"/>
     </row>
     <row r="2" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="257"/>
-      <c r="C2" s="257"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="273" t="str">
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="279" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
-      <c r="H2" s="226"/>
-      <c r="I2" s="226"/>
-      <c r="J2" s="226"/>
-      <c r="K2" s="226"/>
-      <c r="L2" s="226"/>
-      <c r="M2" s="226"/>
-      <c r="N2" s="227"/>
-      <c r="O2" s="262"/>
-      <c r="P2" s="263"/>
-      <c r="Q2" s="263"/>
-      <c r="R2" s="264"/>
-      <c r="S2" s="277"/>
-      <c r="T2" s="278"/>
-      <c r="U2" s="278"/>
-      <c r="V2" s="278"/>
-      <c r="W2" s="278"/>
-      <c r="X2" s="278"/>
-      <c r="Y2" s="278"/>
-      <c r="Z2" s="279"/>
-      <c r="AA2" s="256" t="s">
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="256"/>
+      <c r="K2" s="256"/>
+      <c r="L2" s="256"/>
+      <c r="M2" s="256"/>
+      <c r="N2" s="257"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="214"/>
+      <c r="Q2" s="214"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="273"/>
+      <c r="T2" s="274"/>
+      <c r="U2" s="274"/>
+      <c r="V2" s="274"/>
+      <c r="W2" s="274"/>
+      <c r="X2" s="274"/>
+      <c r="Y2" s="274"/>
+      <c r="Z2" s="275"/>
+      <c r="AA2" s="207" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="258"/>
-      <c r="AC2" s="207" t="str">
+      <c r="AB2" s="209"/>
+      <c r="AC2" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="208"/>
-      <c r="AE2" s="208"/>
-      <c r="AF2" s="209"/>
-      <c r="AG2" s="270">
+      <c r="AD2" s="244"/>
+      <c r="AE2" s="244"/>
+      <c r="AF2" s="245"/>
+      <c r="AG2" s="280">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="271"/>
-      <c r="AI2" s="272"/>
+      <c r="AH2" s="281"/>
+      <c r="AI2" s="282"/>
     </row>
     <row r="3" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="257"/>
-      <c r="C3" s="257"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="273" t="str">
+      <c r="B3" s="208"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="279" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="226"/>
-      <c r="J3" s="226"/>
-      <c r="K3" s="226"/>
-      <c r="L3" s="226"/>
-      <c r="M3" s="226"/>
-      <c r="N3" s="227"/>
-      <c r="O3" s="265"/>
-      <c r="P3" s="266"/>
-      <c r="Q3" s="266"/>
-      <c r="R3" s="267"/>
-      <c r="S3" s="280"/>
-      <c r="T3" s="281"/>
-      <c r="U3" s="281"/>
-      <c r="V3" s="281"/>
-      <c r="W3" s="281"/>
-      <c r="X3" s="281"/>
-      <c r="Y3" s="281"/>
-      <c r="Z3" s="282"/>
-      <c r="AA3" s="256"/>
-      <c r="AB3" s="258"/>
-      <c r="AC3" s="207" t="str">
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="216"/>
+      <c r="P3" s="217"/>
+      <c r="Q3" s="217"/>
+      <c r="R3" s="218"/>
+      <c r="S3" s="276"/>
+      <c r="T3" s="277"/>
+      <c r="U3" s="277"/>
+      <c r="V3" s="277"/>
+      <c r="W3" s="277"/>
+      <c r="X3" s="277"/>
+      <c r="Y3" s="277"/>
+      <c r="Z3" s="278"/>
+      <c r="AA3" s="207"/>
+      <c r="AB3" s="209"/>
+      <c r="AC3" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="208"/>
-      <c r="AE3" s="208"/>
-      <c r="AF3" s="209"/>
-      <c r="AG3" s="270" t="str">
+      <c r="AD3" s="244"/>
+      <c r="AE3" s="244"/>
+      <c r="AF3" s="245"/>
+      <c r="AG3" s="280" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="271"/>
-      <c r="AI3" s="272"/>
+      <c r="AH3" s="281"/>
+      <c r="AI3" s="282"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8411,7 +8415,7 @@
       <c r="D8" s="294"/>
       <c r="E8" s="294"/>
       <c r="F8" s="295"/>
-      <c r="G8" s="231" t="s">
+      <c r="G8" s="224" t="s">
         <v>137</v>
       </c>
       <c r="H8" s="296"/>
@@ -8449,8 +8453,8 @@
       <c r="D9" s="298"/>
       <c r="E9" s="298"/>
       <c r="F9" s="299"/>
-      <c r="G9" s="231" t="s">
-        <v>208</v>
+      <c r="G9" s="224" t="s">
+        <v>205</v>
       </c>
       <c r="H9" s="294"/>
       <c r="I9" s="294"/>
@@ -8488,7 +8492,7 @@
       <c r="E10" s="285"/>
       <c r="F10" s="286"/>
       <c r="G10" s="163" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H10" s="93"/>
       <c r="I10" s="93"/>
@@ -8524,7 +8528,7 @@
       <c r="E11" s="288"/>
       <c r="F11" s="289"/>
       <c r="G11" s="95" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
@@ -8630,7 +8634,7 @@
       <c r="E14" s="283"/>
       <c r="F14" s="283"/>
       <c r="G14" s="100" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H14" s="101"/>
       <c r="I14" s="101"/>
@@ -8699,6 +8703,18 @@
     <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C10:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -8710,18 +8726,6 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C10:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -8752,166 +8756,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="343" t="s">
+      <c r="A1" s="383" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="344"/>
-      <c r="C1" s="344"/>
-      <c r="D1" s="345"/>
-      <c r="E1" s="273" t="str">
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="385"/>
+      <c r="E1" s="279" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="226"/>
-      <c r="L1" s="226"/>
-      <c r="M1" s="226"/>
-      <c r="N1" s="227"/>
-      <c r="O1" s="259" t="s">
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="256"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="256"/>
+      <c r="L1" s="256"/>
+      <c r="M1" s="256"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="210" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="260"/>
-      <c r="Q1" s="260"/>
-      <c r="R1" s="261"/>
-      <c r="S1" s="274" t="str">
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
+      <c r="R1" s="212"/>
+      <c r="S1" s="270" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
-WA10101/ログイン</v>
-      </c>
-      <c r="T1" s="275"/>
-      <c r="U1" s="275"/>
-      <c r="V1" s="275"/>
-      <c r="W1" s="275"/>
-      <c r="X1" s="275"/>
-      <c r="Y1" s="275"/>
-      <c r="Z1" s="276"/>
-      <c r="AA1" s="256" t="s">
+WA10101/認証</v>
+      </c>
+      <c r="T1" s="271"/>
+      <c r="U1" s="271"/>
+      <c r="V1" s="271"/>
+      <c r="W1" s="271"/>
+      <c r="X1" s="271"/>
+      <c r="Y1" s="271"/>
+      <c r="Z1" s="272"/>
+      <c r="AA1" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="258"/>
-      <c r="AC1" s="207" t="str">
+      <c r="AB1" s="209"/>
+      <c r="AC1" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="209"/>
-      <c r="AG1" s="340">
+      <c r="AD1" s="244"/>
+      <c r="AE1" s="244"/>
+      <c r="AF1" s="245"/>
+      <c r="AG1" s="380">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="341"/>
-      <c r="AI1" s="342"/>
+      <c r="AH1" s="381"/>
+      <c r="AI1" s="382"/>
       <c r="AJ1" s="30"/>
     </row>
     <row r="2" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="343" t="s">
+      <c r="A2" s="383" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="344"/>
-      <c r="C2" s="344"/>
-      <c r="D2" s="345"/>
-      <c r="E2" s="273" t="str">
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="279" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
-      <c r="H2" s="226"/>
-      <c r="I2" s="226"/>
-      <c r="J2" s="226"/>
-      <c r="K2" s="226"/>
-      <c r="L2" s="226"/>
-      <c r="M2" s="226"/>
-      <c r="N2" s="227"/>
-      <c r="O2" s="262"/>
-      <c r="P2" s="263"/>
-      <c r="Q2" s="263"/>
-      <c r="R2" s="264"/>
-      <c r="S2" s="277"/>
-      <c r="T2" s="278"/>
-      <c r="U2" s="278"/>
-      <c r="V2" s="278"/>
-      <c r="W2" s="278"/>
-      <c r="X2" s="278"/>
-      <c r="Y2" s="278"/>
-      <c r="Z2" s="279"/>
-      <c r="AA2" s="256" t="s">
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="256"/>
+      <c r="K2" s="256"/>
+      <c r="L2" s="256"/>
+      <c r="M2" s="256"/>
+      <c r="N2" s="257"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="214"/>
+      <c r="Q2" s="214"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="273"/>
+      <c r="T2" s="274"/>
+      <c r="U2" s="274"/>
+      <c r="V2" s="274"/>
+      <c r="W2" s="274"/>
+      <c r="X2" s="274"/>
+      <c r="Y2" s="274"/>
+      <c r="Z2" s="275"/>
+      <c r="AA2" s="207" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="258"/>
-      <c r="AC2" s="207" t="str">
+      <c r="AB2" s="209"/>
+      <c r="AC2" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="208"/>
-      <c r="AE2" s="208"/>
-      <c r="AF2" s="209"/>
-      <c r="AG2" s="340">
+      <c r="AD2" s="244"/>
+      <c r="AE2" s="244"/>
+      <c r="AF2" s="245"/>
+      <c r="AG2" s="380">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="341"/>
-      <c r="AI2" s="342"/>
+      <c r="AH2" s="381"/>
+      <c r="AI2" s="382"/>
       <c r="AJ2" s="30"/>
     </row>
     <row r="3" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="343" t="s">
+      <c r="A3" s="383" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="344"/>
-      <c r="C3" s="344"/>
-      <c r="D3" s="345"/>
-      <c r="E3" s="273" t="str">
+      <c r="B3" s="384"/>
+      <c r="C3" s="384"/>
+      <c r="D3" s="385"/>
+      <c r="E3" s="279" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="226"/>
-      <c r="J3" s="226"/>
-      <c r="K3" s="226"/>
-      <c r="L3" s="226"/>
-      <c r="M3" s="226"/>
-      <c r="N3" s="227"/>
-      <c r="O3" s="265"/>
-      <c r="P3" s="266"/>
-      <c r="Q3" s="266"/>
-      <c r="R3" s="267"/>
-      <c r="S3" s="280"/>
-      <c r="T3" s="281"/>
-      <c r="U3" s="281"/>
-      <c r="V3" s="281"/>
-      <c r="W3" s="281"/>
-      <c r="X3" s="281"/>
-      <c r="Y3" s="281"/>
-      <c r="Z3" s="282"/>
-      <c r="AA3" s="256"/>
-      <c r="AB3" s="258"/>
-      <c r="AC3" s="207" t="str">
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="216"/>
+      <c r="P3" s="217"/>
+      <c r="Q3" s="217"/>
+      <c r="R3" s="218"/>
+      <c r="S3" s="276"/>
+      <c r="T3" s="277"/>
+      <c r="U3" s="277"/>
+      <c r="V3" s="277"/>
+      <c r="W3" s="277"/>
+      <c r="X3" s="277"/>
+      <c r="Y3" s="277"/>
+      <c r="Z3" s="278"/>
+      <c r="AA3" s="207"/>
+      <c r="AB3" s="209"/>
+      <c r="AC3" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="208"/>
-      <c r="AE3" s="208"/>
-      <c r="AF3" s="209"/>
-      <c r="AG3" s="340" t="str">
+      <c r="AD3" s="244"/>
+      <c r="AE3" s="244"/>
+      <c r="AF3" s="245"/>
+      <c r="AG3" s="380" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="341"/>
-      <c r="AI3" s="342"/>
+      <c r="AH3" s="381"/>
+      <c r="AI3" s="382"/>
       <c r="AJ3" s="30"/>
     </row>
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="160" t="s">
-        <v>140</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9057,39 +9061,39 @@
       <c r="D43" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="348" t="s">
+      <c r="E43" s="379" t="s">
         <v>69</v>
       </c>
-      <c r="F43" s="348"/>
-      <c r="G43" s="348"/>
-      <c r="H43" s="348"/>
-      <c r="I43" s="348"/>
-      <c r="J43" s="348"/>
-      <c r="K43" s="348"/>
-      <c r="L43" s="348"/>
-      <c r="M43" s="348"/>
-      <c r="N43" s="348" t="s">
+      <c r="F43" s="379"/>
+      <c r="G43" s="379"/>
+      <c r="H43" s="379"/>
+      <c r="I43" s="379"/>
+      <c r="J43" s="379"/>
+      <c r="K43" s="379"/>
+      <c r="L43" s="379"/>
+      <c r="M43" s="379"/>
+      <c r="N43" s="379" t="s">
         <v>43</v>
       </c>
-      <c r="O43" s="348"/>
-      <c r="P43" s="348"/>
-      <c r="Q43" s="348" t="s">
+      <c r="O43" s="379"/>
+      <c r="P43" s="379"/>
+      <c r="Q43" s="379" t="s">
         <v>25</v>
       </c>
-      <c r="R43" s="348"/>
-      <c r="S43" s="348"/>
-      <c r="T43" s="348"/>
-      <c r="U43" s="348"/>
-      <c r="V43" s="348" t="s">
+      <c r="R43" s="379"/>
+      <c r="S43" s="379"/>
+      <c r="T43" s="379"/>
+      <c r="U43" s="379"/>
+      <c r="V43" s="379" t="s">
         <v>14</v>
       </c>
-      <c r="W43" s="348"/>
-      <c r="X43" s="348"/>
-      <c r="Y43" s="348"/>
-      <c r="Z43" s="348"/>
-      <c r="AA43" s="348"/>
-      <c r="AB43" s="348"/>
-      <c r="AC43" s="348"/>
+      <c r="W43" s="379"/>
+      <c r="X43" s="379"/>
+      <c r="Y43" s="379"/>
+      <c r="Z43" s="379"/>
+      <c r="AA43" s="379"/>
+      <c r="AB43" s="379"/>
+      <c r="AC43" s="379"/>
       <c r="AD43" s="135"/>
       <c r="AE43" s="135"/>
       <c r="AF43" s="135"/>
@@ -9100,39 +9104,39 @@
       <c r="D44" s="153">
         <v>1</v>
       </c>
-      <c r="E44" s="366" t="s">
+      <c r="E44" s="371" t="s">
         <v>119</v>
       </c>
-      <c r="F44" s="363"/>
-      <c r="G44" s="363"/>
-      <c r="H44" s="363"/>
-      <c r="I44" s="363"/>
-      <c r="J44" s="363"/>
-      <c r="K44" s="363"/>
-      <c r="L44" s="363"/>
-      <c r="M44" s="363"/>
-      <c r="N44" s="363" t="s">
+      <c r="F44" s="368"/>
+      <c r="G44" s="368"/>
+      <c r="H44" s="368"/>
+      <c r="I44" s="368"/>
+      <c r="J44" s="368"/>
+      <c r="K44" s="368"/>
+      <c r="L44" s="368"/>
+      <c r="M44" s="368"/>
+      <c r="N44" s="368" t="s">
         <v>89</v>
       </c>
-      <c r="O44" s="363"/>
-      <c r="P44" s="363"/>
-      <c r="Q44" s="361" t="s">
+      <c r="O44" s="368"/>
+      <c r="P44" s="368"/>
+      <c r="Q44" s="366" t="s">
         <v>113</v>
       </c>
-      <c r="R44" s="361"/>
-      <c r="S44" s="361"/>
-      <c r="T44" s="361"/>
-      <c r="U44" s="361"/>
-      <c r="V44" s="362" t="s">
+      <c r="R44" s="366"/>
+      <c r="S44" s="366"/>
+      <c r="T44" s="366"/>
+      <c r="U44" s="366"/>
+      <c r="V44" s="367" t="s">
         <v>123</v>
       </c>
-      <c r="W44" s="361"/>
-      <c r="X44" s="361"/>
-      <c r="Y44" s="361"/>
-      <c r="Z44" s="361"/>
-      <c r="AA44" s="361"/>
-      <c r="AB44" s="361"/>
-      <c r="AC44" s="361"/>
+      <c r="W44" s="366"/>
+      <c r="X44" s="366"/>
+      <c r="Y44" s="366"/>
+      <c r="Z44" s="366"/>
+      <c r="AA44" s="366"/>
+      <c r="AB44" s="366"/>
+      <c r="AC44" s="366"/>
       <c r="AM44" s="35"/>
     </row>
     <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9209,36 +9213,36 @@
       <c r="AZ48" s="133"/>
     </row>
     <row r="49" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D49" s="346" t="s">
+      <c r="D49" s="322" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="310" t="s">
+      <c r="E49" s="357" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="311"/>
-      <c r="G49" s="311"/>
-      <c r="H49" s="311"/>
-      <c r="I49" s="311"/>
-      <c r="J49" s="311"/>
-      <c r="K49" s="311"/>
-      <c r="L49" s="311"/>
-      <c r="M49" s="311"/>
-      <c r="N49" s="311"/>
-      <c r="O49" s="311"/>
-      <c r="P49" s="311"/>
-      <c r="Q49" s="311"/>
-      <c r="R49" s="311"/>
-      <c r="S49" s="311"/>
-      <c r="T49" s="311"/>
-      <c r="U49" s="311"/>
-      <c r="V49" s="311"/>
-      <c r="W49" s="311"/>
-      <c r="X49" s="311"/>
-      <c r="Y49" s="311"/>
-      <c r="Z49" s="311"/>
-      <c r="AA49" s="311"/>
-      <c r="AB49" s="311"/>
-      <c r="AC49" s="312"/>
+      <c r="F49" s="358"/>
+      <c r="G49" s="358"/>
+      <c r="H49" s="358"/>
+      <c r="I49" s="358"/>
+      <c r="J49" s="358"/>
+      <c r="K49" s="358"/>
+      <c r="L49" s="358"/>
+      <c r="M49" s="358"/>
+      <c r="N49" s="358"/>
+      <c r="O49" s="358"/>
+      <c r="P49" s="358"/>
+      <c r="Q49" s="358"/>
+      <c r="R49" s="358"/>
+      <c r="S49" s="358"/>
+      <c r="T49" s="358"/>
+      <c r="U49" s="358"/>
+      <c r="V49" s="358"/>
+      <c r="W49" s="358"/>
+      <c r="X49" s="358"/>
+      <c r="Y49" s="358"/>
+      <c r="Z49" s="358"/>
+      <c r="AA49" s="358"/>
+      <c r="AB49" s="358"/>
+      <c r="AC49" s="359"/>
       <c r="AD49" s="284" t="s">
         <v>33</v>
       </c>
@@ -9256,29 +9260,29 @@
       <c r="AN49" s="133"/>
     </row>
     <row r="50" spans="3:53" s="91" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D50" s="376"/>
+      <c r="D50" s="330"/>
       <c r="E50" s="284" t="s">
         <v>31</v>
       </c>
       <c r="F50" s="285"/>
       <c r="G50" s="285"/>
       <c r="H50" s="286"/>
-      <c r="I50" s="391" t="s">
+      <c r="I50" s="356" t="s">
         <v>39</v>
       </c>
-      <c r="J50" s="378"/>
-      <c r="K50" s="378"/>
-      <c r="L50" s="379"/>
-      <c r="M50" s="377" t="s">
+      <c r="J50" s="332"/>
+      <c r="K50" s="332"/>
+      <c r="L50" s="333"/>
+      <c r="M50" s="331" t="s">
         <v>118</v>
       </c>
-      <c r="N50" s="378"/>
-      <c r="O50" s="378"/>
-      <c r="P50" s="378"/>
-      <c r="Q50" s="378"/>
-      <c r="R50" s="378"/>
-      <c r="S50" s="378"/>
-      <c r="T50" s="379"/>
+      <c r="N50" s="332"/>
+      <c r="O50" s="332"/>
+      <c r="P50" s="332"/>
+      <c r="Q50" s="332"/>
+      <c r="R50" s="332"/>
+      <c r="S50" s="332"/>
+      <c r="T50" s="333"/>
       <c r="U50" s="284" t="s">
         <v>32</v>
       </c>
@@ -9291,7 +9295,7 @@
       </c>
       <c r="AA50" s="285"/>
       <c r="AB50" s="286"/>
-      <c r="AC50" s="346" t="s">
+      <c r="AC50" s="322" t="s">
         <v>44</v>
       </c>
       <c r="AD50" s="287"/>
@@ -9313,23 +9317,23 @@
       <c r="AT50" s="133"/>
     </row>
     <row r="51" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D51" s="347"/>
+      <c r="D51" s="323"/>
       <c r="E51" s="290"/>
       <c r="F51" s="291"/>
       <c r="G51" s="291"/>
       <c r="H51" s="292"/>
-      <c r="I51" s="380"/>
-      <c r="J51" s="381"/>
-      <c r="K51" s="381"/>
-      <c r="L51" s="382"/>
-      <c r="M51" s="380"/>
-      <c r="N51" s="381"/>
-      <c r="O51" s="381"/>
-      <c r="P51" s="381"/>
-      <c r="Q51" s="381"/>
-      <c r="R51" s="381"/>
-      <c r="S51" s="381"/>
-      <c r="T51" s="382"/>
+      <c r="I51" s="334"/>
+      <c r="J51" s="335"/>
+      <c r="K51" s="335"/>
+      <c r="L51" s="336"/>
+      <c r="M51" s="334"/>
+      <c r="N51" s="335"/>
+      <c r="O51" s="335"/>
+      <c r="P51" s="335"/>
+      <c r="Q51" s="335"/>
+      <c r="R51" s="335"/>
+      <c r="S51" s="335"/>
+      <c r="T51" s="336"/>
       <c r="U51" s="290"/>
       <c r="V51" s="291"/>
       <c r="W51" s="291"/>
@@ -9338,7 +9342,7 @@
       <c r="Z51" s="290"/>
       <c r="AA51" s="291"/>
       <c r="AB51" s="292"/>
-      <c r="AC51" s="347"/>
+      <c r="AC51" s="323"/>
       <c r="AD51" s="290"/>
       <c r="AE51" s="291"/>
       <c r="AF51" s="291"/>
@@ -9363,55 +9367,55 @@
       <c r="D52" s="138">
         <v>1</v>
       </c>
-      <c r="E52" s="231" t="s">
-        <v>141</v>
+      <c r="E52" s="224" t="s">
+        <v>139</v>
       </c>
       <c r="F52" s="296"/>
       <c r="G52" s="296"/>
-      <c r="H52" s="369"/>
-      <c r="I52" s="368" t="s">
+      <c r="H52" s="354"/>
+      <c r="I52" s="355" t="s">
         <v>88</v>
       </c>
-      <c r="J52" s="368"/>
-      <c r="K52" s="368"/>
-      <c r="L52" s="368"/>
-      <c r="M52" s="364" t="s">
+      <c r="J52" s="355"/>
+      <c r="K52" s="355"/>
+      <c r="L52" s="355"/>
+      <c r="M52" s="369" t="s">
         <v>136</v>
       </c>
-      <c r="N52" s="365"/>
-      <c r="O52" s="365"/>
-      <c r="P52" s="365"/>
-      <c r="Q52" s="365"/>
-      <c r="R52" s="365"/>
-      <c r="S52" s="365"/>
-      <c r="T52" s="365"/>
-      <c r="U52" s="300" t="s">
+      <c r="N52" s="370"/>
+      <c r="O52" s="370"/>
+      <c r="P52" s="370"/>
+      <c r="Q52" s="370"/>
+      <c r="R52" s="370"/>
+      <c r="S52" s="370"/>
+      <c r="T52" s="370"/>
+      <c r="U52" s="352" t="s">
         <v>135</v>
       </c>
-      <c r="V52" s="301"/>
-      <c r="W52" s="301"/>
-      <c r="X52" s="301"/>
-      <c r="Y52" s="301"/>
-      <c r="Z52" s="300" t="s">
+      <c r="V52" s="353"/>
+      <c r="W52" s="353"/>
+      <c r="X52" s="353"/>
+      <c r="Y52" s="353"/>
+      <c r="Z52" s="352" t="s">
         <v>135</v>
       </c>
-      <c r="AA52" s="301"/>
-      <c r="AB52" s="301"/>
+      <c r="AA52" s="353"/>
+      <c r="AB52" s="353"/>
       <c r="AC52" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="AD52" s="228" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE52" s="302"/>
-      <c r="AF52" s="302"/>
-      <c r="AG52" s="303"/>
+      <c r="AD52" s="221" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE52" s="320"/>
+      <c r="AF52" s="320"/>
+      <c r="AG52" s="321"/>
       <c r="AH52" s="133"/>
       <c r="AI52" s="133"/>
       <c r="AJ52" s="133"/>
       <c r="AK52" s="133"/>
       <c r="AL52" s="100" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AM52" s="164"/>
       <c r="AN52" s="164"/>
@@ -9426,55 +9430,55 @@
       <c r="D53" s="138">
         <v>2</v>
       </c>
-      <c r="E53" s="231" t="s">
-        <v>142</v>
+      <c r="E53" s="224" t="s">
+        <v>140</v>
       </c>
       <c r="F53" s="296"/>
       <c r="G53" s="296"/>
-      <c r="H53" s="369"/>
-      <c r="I53" s="367" t="s">
-        <v>166</v>
-      </c>
-      <c r="J53" s="368"/>
-      <c r="K53" s="368"/>
-      <c r="L53" s="368"/>
-      <c r="M53" s="339" t="s">
+      <c r="H53" s="354"/>
+      <c r="I53" s="372" t="s">
+        <v>163</v>
+      </c>
+      <c r="J53" s="355"/>
+      <c r="K53" s="355"/>
+      <c r="L53" s="355"/>
+      <c r="M53" s="376" t="s">
         <v>79</v>
       </c>
-      <c r="N53" s="333"/>
-      <c r="O53" s="333"/>
-      <c r="P53" s="333"/>
-      <c r="Q53" s="333"/>
-      <c r="R53" s="333"/>
-      <c r="S53" s="333"/>
-      <c r="T53" s="334"/>
-      <c r="U53" s="228" t="s">
-        <v>167</v>
-      </c>
-      <c r="V53" s="302"/>
-      <c r="W53" s="302"/>
-      <c r="X53" s="302"/>
-      <c r="Y53" s="303"/>
-      <c r="Z53" s="300" t="s">
+      <c r="N53" s="377"/>
+      <c r="O53" s="377"/>
+      <c r="P53" s="377"/>
+      <c r="Q53" s="377"/>
+      <c r="R53" s="377"/>
+      <c r="S53" s="377"/>
+      <c r="T53" s="378"/>
+      <c r="U53" s="221" t="s">
+        <v>164</v>
+      </c>
+      <c r="V53" s="320"/>
+      <c r="W53" s="320"/>
+      <c r="X53" s="320"/>
+      <c r="Y53" s="321"/>
+      <c r="Z53" s="352" t="s">
         <v>135</v>
       </c>
-      <c r="AA53" s="301"/>
-      <c r="AB53" s="301"/>
+      <c r="AA53" s="353"/>
+      <c r="AB53" s="353"/>
       <c r="AC53" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="AD53" s="228" t="s">
-        <v>202</v>
-      </c>
-      <c r="AE53" s="302"/>
-      <c r="AF53" s="302"/>
-      <c r="AG53" s="303"/>
+      <c r="AD53" s="221" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE53" s="320"/>
+      <c r="AF53" s="320"/>
+      <c r="AG53" s="321"/>
       <c r="AH53" s="133"/>
       <c r="AI53" s="133"/>
       <c r="AJ53" s="133"/>
       <c r="AK53" s="133"/>
       <c r="AL53" s="100" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AM53" s="164"/>
       <c r="AN53" s="164"/>
@@ -9593,24 +9597,24 @@
       <c r="AW57" s="105"/>
     </row>
     <row r="58" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D58" s="383" t="s">
+      <c r="D58" s="337" t="s">
         <v>117</v>
       </c>
-      <c r="E58" s="324" t="s">
+      <c r="E58" s="339" t="s">
         <v>49</v>
       </c>
-      <c r="F58" s="325"/>
-      <c r="G58" s="325"/>
-      <c r="H58" s="325"/>
-      <c r="I58" s="325"/>
-      <c r="J58" s="326"/>
-      <c r="K58" s="324" t="s">
+      <c r="F58" s="340"/>
+      <c r="G58" s="340"/>
+      <c r="H58" s="340"/>
+      <c r="I58" s="340"/>
+      <c r="J58" s="341"/>
+      <c r="K58" s="339" t="s">
         <v>50</v>
       </c>
-      <c r="L58" s="325"/>
-      <c r="M58" s="325"/>
-      <c r="N58" s="326"/>
-      <c r="O58" s="322" t="s">
+      <c r="L58" s="340"/>
+      <c r="M58" s="340"/>
+      <c r="N58" s="341"/>
+      <c r="O58" s="395" t="s">
         <v>51</v>
       </c>
       <c r="P58" s="139" t="s">
@@ -9621,21 +9625,21 @@
       <c r="S58" s="140"/>
       <c r="T58" s="140"/>
       <c r="U58" s="140"/>
-      <c r="V58" s="324" t="s">
+      <c r="V58" s="339" t="s">
         <v>30</v>
       </c>
-      <c r="W58" s="325"/>
-      <c r="X58" s="325"/>
-      <c r="Y58" s="325"/>
-      <c r="Z58" s="325"/>
-      <c r="AA58" s="325"/>
-      <c r="AB58" s="325"/>
-      <c r="AC58" s="325"/>
-      <c r="AD58" s="325"/>
-      <c r="AE58" s="325"/>
-      <c r="AF58" s="325"/>
-      <c r="AG58" s="325"/>
-      <c r="AH58" s="326"/>
+      <c r="W58" s="340"/>
+      <c r="X58" s="340"/>
+      <c r="Y58" s="340"/>
+      <c r="Z58" s="340"/>
+      <c r="AA58" s="340"/>
+      <c r="AB58" s="340"/>
+      <c r="AC58" s="340"/>
+      <c r="AD58" s="340"/>
+      <c r="AE58" s="340"/>
+      <c r="AF58" s="340"/>
+      <c r="AG58" s="340"/>
+      <c r="AH58" s="341"/>
       <c r="AK58" s="105"/>
       <c r="AL58" s="105"/>
       <c r="AM58" s="105"/>
@@ -9651,18 +9655,18 @@
       <c r="AW58" s="105"/>
     </row>
     <row r="59" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D59" s="384"/>
-      <c r="E59" s="327"/>
-      <c r="F59" s="328"/>
-      <c r="G59" s="328"/>
-      <c r="H59" s="328"/>
-      <c r="I59" s="328"/>
-      <c r="J59" s="329"/>
-      <c r="K59" s="327"/>
-      <c r="L59" s="328"/>
-      <c r="M59" s="328"/>
-      <c r="N59" s="329"/>
-      <c r="O59" s="323"/>
+      <c r="D59" s="338"/>
+      <c r="E59" s="342"/>
+      <c r="F59" s="343"/>
+      <c r="G59" s="343"/>
+      <c r="H59" s="343"/>
+      <c r="I59" s="343"/>
+      <c r="J59" s="344"/>
+      <c r="K59" s="342"/>
+      <c r="L59" s="343"/>
+      <c r="M59" s="343"/>
+      <c r="N59" s="344"/>
+      <c r="O59" s="396"/>
       <c r="P59" s="141" t="s">
         <v>52</v>
       </c>
@@ -9675,23 +9679,23 @@
       <c r="S59" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="T59" s="330" t="s">
+      <c r="T59" s="397" t="s">
         <v>59</v>
       </c>
-      <c r="U59" s="331"/>
-      <c r="V59" s="327"/>
-      <c r="W59" s="328"/>
-      <c r="X59" s="328"/>
-      <c r="Y59" s="328"/>
-      <c r="Z59" s="328"/>
-      <c r="AA59" s="328"/>
-      <c r="AB59" s="328"/>
-      <c r="AC59" s="328"/>
-      <c r="AD59" s="328"/>
-      <c r="AE59" s="328"/>
-      <c r="AF59" s="328"/>
-      <c r="AG59" s="328"/>
-      <c r="AH59" s="329"/>
+      <c r="U59" s="398"/>
+      <c r="V59" s="342"/>
+      <c r="W59" s="343"/>
+      <c r="X59" s="343"/>
+      <c r="Y59" s="343"/>
+      <c r="Z59" s="343"/>
+      <c r="AA59" s="343"/>
+      <c r="AB59" s="343"/>
+      <c r="AC59" s="343"/>
+      <c r="AD59" s="343"/>
+      <c r="AE59" s="343"/>
+      <c r="AF59" s="343"/>
+      <c r="AG59" s="343"/>
+      <c r="AH59" s="344"/>
       <c r="AK59" s="105"/>
       <c r="AL59" s="105"/>
       <c r="AM59" s="105"/>
@@ -9710,20 +9714,20 @@
       <c r="D60" s="142">
         <v>1</v>
       </c>
-      <c r="E60" s="388" t="s">
-        <v>143</v>
-      </c>
-      <c r="F60" s="389"/>
-      <c r="G60" s="389"/>
-      <c r="H60" s="389"/>
-      <c r="I60" s="389"/>
-      <c r="J60" s="390"/>
-      <c r="K60" s="358" t="s">
+      <c r="E60" s="306" t="s">
+        <v>141</v>
+      </c>
+      <c r="F60" s="307"/>
+      <c r="G60" s="307"/>
+      <c r="H60" s="307"/>
+      <c r="I60" s="307"/>
+      <c r="J60" s="308"/>
+      <c r="K60" s="350" t="s">
         <v>91</v>
       </c>
-      <c r="L60" s="302"/>
-      <c r="M60" s="302"/>
-      <c r="N60" s="303"/>
+      <c r="L60" s="320"/>
+      <c r="M60" s="320"/>
+      <c r="N60" s="321"/>
       <c r="O60" s="137" t="s">
         <v>92</v>
       </c>
@@ -9739,25 +9743,25 @@
       <c r="S60" s="162" t="s">
         <v>89</v>
       </c>
-      <c r="T60" s="386" t="s">
+      <c r="T60" s="348" t="s">
         <v>89</v>
       </c>
-      <c r="U60" s="387"/>
-      <c r="V60" s="358" t="s">
+      <c r="U60" s="349"/>
+      <c r="V60" s="350" t="s">
         <v>79</v>
       </c>
-      <c r="W60" s="302"/>
-      <c r="X60" s="302"/>
-      <c r="Y60" s="302"/>
-      <c r="Z60" s="302"/>
-      <c r="AA60" s="302"/>
-      <c r="AB60" s="302"/>
-      <c r="AC60" s="302"/>
-      <c r="AD60" s="302"/>
-      <c r="AE60" s="302"/>
-      <c r="AF60" s="302"/>
-      <c r="AG60" s="302"/>
-      <c r="AH60" s="303"/>
+      <c r="W60" s="320"/>
+      <c r="X60" s="320"/>
+      <c r="Y60" s="320"/>
+      <c r="Z60" s="320"/>
+      <c r="AA60" s="320"/>
+      <c r="AB60" s="320"/>
+      <c r="AC60" s="320"/>
+      <c r="AD60" s="320"/>
+      <c r="AE60" s="320"/>
+      <c r="AF60" s="320"/>
+      <c r="AG60" s="320"/>
+      <c r="AH60" s="321"/>
       <c r="AK60" s="105"/>
       <c r="AL60" s="105"/>
       <c r="AM60" s="105"/>
@@ -9777,19 +9781,19 @@
         <v>2</v>
       </c>
       <c r="E61" s="192" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F61" s="193"/>
       <c r="G61" s="193"/>
       <c r="H61" s="193"/>
       <c r="I61" s="193"/>
       <c r="J61" s="193"/>
-      <c r="K61" s="358" t="s">
+      <c r="K61" s="350" t="s">
         <v>91</v>
       </c>
-      <c r="L61" s="302"/>
-      <c r="M61" s="302"/>
-      <c r="N61" s="303"/>
+      <c r="L61" s="320"/>
+      <c r="M61" s="320"/>
+      <c r="N61" s="321"/>
       <c r="O61" s="137" t="s">
         <v>92</v>
       </c>
@@ -9805,25 +9809,25 @@
       <c r="S61" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="T61" s="386" t="s">
+      <c r="T61" s="348" t="s">
         <v>89</v>
       </c>
-      <c r="U61" s="387"/>
-      <c r="V61" s="358" t="s">
+      <c r="U61" s="349"/>
+      <c r="V61" s="350" t="s">
         <v>79</v>
       </c>
-      <c r="W61" s="302"/>
-      <c r="X61" s="302"/>
-      <c r="Y61" s="302"/>
-      <c r="Z61" s="302"/>
-      <c r="AA61" s="302"/>
-      <c r="AB61" s="302"/>
-      <c r="AC61" s="302"/>
-      <c r="AD61" s="302"/>
-      <c r="AE61" s="302"/>
-      <c r="AF61" s="302"/>
-      <c r="AG61" s="302"/>
-      <c r="AH61" s="303"/>
+      <c r="W61" s="320"/>
+      <c r="X61" s="320"/>
+      <c r="Y61" s="320"/>
+      <c r="Z61" s="320"/>
+      <c r="AA61" s="320"/>
+      <c r="AB61" s="320"/>
+      <c r="AC61" s="320"/>
+      <c r="AD61" s="320"/>
+      <c r="AE61" s="320"/>
+      <c r="AF61" s="320"/>
+      <c r="AG61" s="320"/>
+      <c r="AH61" s="321"/>
       <c r="AK61" s="105"/>
       <c r="AL61" s="105"/>
       <c r="AM61" s="105"/>
@@ -9949,136 +9953,136 @@
       <c r="D66" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="313" t="s">
+      <c r="E66" s="345" t="s">
         <v>72</v>
       </c>
-      <c r="F66" s="314"/>
-      <c r="G66" s="314"/>
-      <c r="H66" s="314"/>
-      <c r="I66" s="314"/>
-      <c r="J66" s="385"/>
-      <c r="K66" s="313" t="s">
+      <c r="F66" s="346"/>
+      <c r="G66" s="346"/>
+      <c r="H66" s="346"/>
+      <c r="I66" s="346"/>
+      <c r="J66" s="347"/>
+      <c r="K66" s="345" t="s">
         <v>38</v>
       </c>
-      <c r="L66" s="314"/>
-      <c r="M66" s="314"/>
-      <c r="N66" s="314"/>
-      <c r="O66" s="314"/>
-      <c r="P66" s="314"/>
-      <c r="Q66" s="315"/>
+      <c r="L66" s="346"/>
+      <c r="M66" s="346"/>
+      <c r="N66" s="346"/>
+      <c r="O66" s="346"/>
+      <c r="P66" s="346"/>
+      <c r="Q66" s="351"/>
       <c r="R66" s="293" t="s">
         <v>73</v>
       </c>
-      <c r="S66" s="314"/>
-      <c r="T66" s="314"/>
-      <c r="U66" s="314"/>
-      <c r="V66" s="314"/>
-      <c r="W66" s="314"/>
-      <c r="X66" s="314"/>
-      <c r="Y66" s="315"/>
-      <c r="Z66" s="310" t="s">
+      <c r="S66" s="346"/>
+      <c r="T66" s="346"/>
+      <c r="U66" s="346"/>
+      <c r="V66" s="346"/>
+      <c r="W66" s="346"/>
+      <c r="X66" s="346"/>
+      <c r="Y66" s="351"/>
+      <c r="Z66" s="357" t="s">
         <v>26</v>
       </c>
-      <c r="AA66" s="311"/>
-      <c r="AB66" s="311"/>
-      <c r="AC66" s="311"/>
-      <c r="AD66" s="312"/>
-      <c r="AE66" s="307" t="s">
+      <c r="AA66" s="358"/>
+      <c r="AB66" s="358"/>
+      <c r="AC66" s="358"/>
+      <c r="AD66" s="359"/>
+      <c r="AE66" s="389" t="s">
         <v>129</v>
       </c>
-      <c r="AF66" s="308"/>
-      <c r="AG66" s="308"/>
-      <c r="AH66" s="309"/>
+      <c r="AF66" s="390"/>
+      <c r="AG66" s="390"/>
+      <c r="AH66" s="391"/>
     </row>
     <row r="67" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D67" s="145">
         <v>1</v>
       </c>
-      <c r="E67" s="349" t="s">
+      <c r="E67" s="404" t="s">
         <v>94</v>
       </c>
-      <c r="F67" s="350"/>
-      <c r="G67" s="350"/>
-      <c r="H67" s="350"/>
-      <c r="I67" s="350"/>
-      <c r="J67" s="351"/>
-      <c r="K67" s="358" t="s">
+      <c r="F67" s="364"/>
+      <c r="G67" s="364"/>
+      <c r="H67" s="364"/>
+      <c r="I67" s="364"/>
+      <c r="J67" s="365"/>
+      <c r="K67" s="350" t="s">
         <v>95</v>
       </c>
-      <c r="L67" s="302"/>
-      <c r="M67" s="302"/>
-      <c r="N67" s="302"/>
-      <c r="O67" s="302"/>
-      <c r="P67" s="302"/>
-      <c r="Q67" s="303"/>
-      <c r="R67" s="228" t="s">
-        <v>145</v>
-      </c>
-      <c r="S67" s="302"/>
-      <c r="T67" s="302"/>
-      <c r="U67" s="302"/>
-      <c r="V67" s="302"/>
-      <c r="W67" s="302"/>
-      <c r="X67" s="302"/>
-      <c r="Y67" s="303"/>
-      <c r="Z67" s="358" t="s">
+      <c r="L67" s="320"/>
+      <c r="M67" s="320"/>
+      <c r="N67" s="320"/>
+      <c r="O67" s="320"/>
+      <c r="P67" s="320"/>
+      <c r="Q67" s="321"/>
+      <c r="R67" s="221" t="s">
+        <v>143</v>
+      </c>
+      <c r="S67" s="320"/>
+      <c r="T67" s="320"/>
+      <c r="U67" s="320"/>
+      <c r="V67" s="320"/>
+      <c r="W67" s="320"/>
+      <c r="X67" s="320"/>
+      <c r="Y67" s="321"/>
+      <c r="Z67" s="350" t="s">
         <v>93</v>
       </c>
-      <c r="AA67" s="302"/>
-      <c r="AB67" s="302"/>
-      <c r="AC67" s="302"/>
-      <c r="AD67" s="303"/>
-      <c r="AE67" s="304" t="s">
+      <c r="AA67" s="320"/>
+      <c r="AB67" s="320"/>
+      <c r="AC67" s="320"/>
+      <c r="AD67" s="321"/>
+      <c r="AE67" s="386" t="s">
         <v>71</v>
       </c>
-      <c r="AF67" s="305"/>
-      <c r="AG67" s="305"/>
-      <c r="AH67" s="306"/>
+      <c r="AF67" s="387"/>
+      <c r="AG67" s="387"/>
+      <c r="AH67" s="388"/>
     </row>
     <row r="68" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D68" s="145">
         <v>2</v>
       </c>
-      <c r="E68" s="360" t="s">
+      <c r="E68" s="363" t="s">
         <v>138</v>
       </c>
-      <c r="F68" s="350"/>
-      <c r="G68" s="350"/>
-      <c r="H68" s="350"/>
-      <c r="I68" s="350"/>
-      <c r="J68" s="351"/>
-      <c r="K68" s="228" t="s">
+      <c r="F68" s="364"/>
+      <c r="G68" s="364"/>
+      <c r="H68" s="364"/>
+      <c r="I68" s="364"/>
+      <c r="J68" s="365"/>
+      <c r="K68" s="221" t="s">
+        <v>142</v>
+      </c>
+      <c r="L68" s="320"/>
+      <c r="M68" s="320"/>
+      <c r="N68" s="320"/>
+      <c r="O68" s="320"/>
+      <c r="P68" s="320"/>
+      <c r="Q68" s="321"/>
+      <c r="R68" s="221" t="s">
         <v>144</v>
       </c>
-      <c r="L68" s="302"/>
-      <c r="M68" s="302"/>
-      <c r="N68" s="302"/>
-      <c r="O68" s="302"/>
-      <c r="P68" s="302"/>
-      <c r="Q68" s="303"/>
-      <c r="R68" s="228" t="s">
-        <v>146</v>
-      </c>
-      <c r="S68" s="302"/>
-      <c r="T68" s="302"/>
-      <c r="U68" s="302"/>
-      <c r="V68" s="302"/>
-      <c r="W68" s="302"/>
-      <c r="X68" s="302"/>
-      <c r="Y68" s="303"/>
-      <c r="Z68" s="228" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA68" s="302"/>
-      <c r="AB68" s="302"/>
-      <c r="AC68" s="302"/>
-      <c r="AD68" s="303"/>
-      <c r="AE68" s="304" t="s">
+      <c r="S68" s="320"/>
+      <c r="T68" s="320"/>
+      <c r="U68" s="320"/>
+      <c r="V68" s="320"/>
+      <c r="W68" s="320"/>
+      <c r="X68" s="320"/>
+      <c r="Y68" s="321"/>
+      <c r="Z68" s="221" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA68" s="320"/>
+      <c r="AB68" s="320"/>
+      <c r="AC68" s="320"/>
+      <c r="AD68" s="321"/>
+      <c r="AE68" s="386" t="s">
         <v>71</v>
       </c>
-      <c r="AF68" s="305"/>
-      <c r="AG68" s="305"/>
-      <c r="AH68" s="306"/>
+      <c r="AF68" s="387"/>
+      <c r="AG68" s="387"/>
+      <c r="AH68" s="388"/>
     </row>
     <row r="69" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D69" s="128"/>
@@ -10323,7 +10327,7 @@
     </row>
     <row r="79" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E79" s="103" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G79" s="107"/>
       <c r="AJ79" s="110"/>
@@ -10379,7 +10383,7 @@
     <row r="81" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E81" s="126"/>
       <c r="F81" s="71" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AJ81" s="110"/>
       <c r="AK81" s="110"/>
@@ -10462,7 +10466,7 @@
     <row r="84" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C84" s="105"/>
       <c r="D84" s="152" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E84" s="106"/>
       <c r="AP84" s="105"/>
@@ -10525,40 +10529,40 @@
       <c r="G88" s="293" t="s">
         <v>68</v>
       </c>
-      <c r="H88" s="314"/>
-      <c r="I88" s="314"/>
-      <c r="J88" s="314"/>
-      <c r="K88" s="314"/>
-      <c r="L88" s="315"/>
-      <c r="M88" s="335" t="s">
+      <c r="H88" s="346"/>
+      <c r="I88" s="346"/>
+      <c r="J88" s="346"/>
+      <c r="K88" s="346"/>
+      <c r="L88" s="351"/>
+      <c r="M88" s="400" t="s">
         <v>76</v>
       </c>
-      <c r="N88" s="314"/>
-      <c r="O88" s="314"/>
-      <c r="P88" s="314"/>
-      <c r="Q88" s="314"/>
-      <c r="R88" s="314"/>
-      <c r="S88" s="314"/>
-      <c r="T88" s="314"/>
-      <c r="U88" s="314"/>
-      <c r="V88" s="315"/>
-      <c r="W88" s="359" t="s">
-        <v>157</v>
-      </c>
-      <c r="X88" s="356"/>
-      <c r="Y88" s="357"/>
-      <c r="Z88" s="355" t="s">
+      <c r="N88" s="346"/>
+      <c r="O88" s="346"/>
+      <c r="P88" s="346"/>
+      <c r="Q88" s="346"/>
+      <c r="R88" s="346"/>
+      <c r="S88" s="346"/>
+      <c r="T88" s="346"/>
+      <c r="U88" s="346"/>
+      <c r="V88" s="351"/>
+      <c r="W88" s="360" t="s">
+        <v>155</v>
+      </c>
+      <c r="X88" s="361"/>
+      <c r="Y88" s="362"/>
+      <c r="Z88" s="408" t="s">
         <v>77</v>
       </c>
-      <c r="AA88" s="356"/>
-      <c r="AB88" s="356"/>
-      <c r="AC88" s="357"/>
-      <c r="AD88" s="370" t="s">
+      <c r="AA88" s="361"/>
+      <c r="AB88" s="361"/>
+      <c r="AC88" s="362"/>
+      <c r="AD88" s="373" t="s">
         <v>130</v>
       </c>
-      <c r="AE88" s="371"/>
-      <c r="AF88" s="371"/>
-      <c r="AG88" s="372"/>
+      <c r="AE88" s="374"/>
+      <c r="AF88" s="374"/>
+      <c r="AG88" s="375"/>
       <c r="AJ88" s="125"/>
       <c r="AK88" s="125"/>
       <c r="AL88" s="125"/>
@@ -10588,43 +10592,43 @@
       <c r="F89" s="148">
         <v>1</v>
       </c>
-      <c r="G89" s="332" t="s">
+      <c r="G89" s="399" t="s">
         <v>70</v>
       </c>
-      <c r="H89" s="333"/>
-      <c r="I89" s="333"/>
-      <c r="J89" s="333"/>
-      <c r="K89" s="333"/>
-      <c r="L89" s="334"/>
-      <c r="M89" s="339" t="s">
+      <c r="H89" s="377"/>
+      <c r="I89" s="377"/>
+      <c r="J89" s="377"/>
+      <c r="K89" s="377"/>
+      <c r="L89" s="378"/>
+      <c r="M89" s="376" t="s">
         <v>86</v>
       </c>
-      <c r="N89" s="333"/>
-      <c r="O89" s="333"/>
-      <c r="P89" s="333"/>
-      <c r="Q89" s="333"/>
-      <c r="R89" s="333"/>
-      <c r="S89" s="333"/>
-      <c r="T89" s="333"/>
-      <c r="U89" s="333"/>
-      <c r="V89" s="334"/>
-      <c r="W89" s="336" t="s">
+      <c r="N89" s="377"/>
+      <c r="O89" s="377"/>
+      <c r="P89" s="377"/>
+      <c r="Q89" s="377"/>
+      <c r="R89" s="377"/>
+      <c r="S89" s="377"/>
+      <c r="T89" s="377"/>
+      <c r="U89" s="377"/>
+      <c r="V89" s="378"/>
+      <c r="W89" s="401" t="s">
         <v>132</v>
       </c>
-      <c r="X89" s="337"/>
-      <c r="Y89" s="338"/>
-      <c r="Z89" s="352" t="s">
+      <c r="X89" s="402"/>
+      <c r="Y89" s="403"/>
+      <c r="Z89" s="405" t="s">
         <v>131</v>
       </c>
-      <c r="AA89" s="353"/>
-      <c r="AB89" s="353"/>
-      <c r="AC89" s="354"/>
-      <c r="AD89" s="339" t="s">
+      <c r="AA89" s="406"/>
+      <c r="AB89" s="406"/>
+      <c r="AC89" s="407"/>
+      <c r="AD89" s="376" t="s">
         <v>120</v>
       </c>
-      <c r="AE89" s="333"/>
-      <c r="AF89" s="333"/>
-      <c r="AG89" s="334"/>
+      <c r="AE89" s="377"/>
+      <c r="AF89" s="377"/>
+      <c r="AG89" s="378"/>
       <c r="AI89" s="125"/>
       <c r="AJ89" s="125"/>
       <c r="AK89" s="125"/>
@@ -10768,22 +10772,22 @@
     </row>
     <row r="96" spans="1:58" x14ac:dyDescent="0.15">
       <c r="F96" s="103" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="7:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G98" s="316" t="s">
+      <c r="G98" s="327" t="s">
         <v>99</v>
       </c>
-      <c r="H98" s="317"/>
-      <c r="I98" s="317"/>
-      <c r="J98" s="317"/>
-      <c r="K98" s="317"/>
-      <c r="L98" s="317"/>
-      <c r="M98" s="317"/>
-      <c r="N98" s="317"/>
-      <c r="O98" s="317"/>
-      <c r="P98" s="318"/>
+      <c r="H98" s="328"/>
+      <c r="I98" s="328"/>
+      <c r="J98" s="328"/>
+      <c r="K98" s="328"/>
+      <c r="L98" s="328"/>
+      <c r="M98" s="328"/>
+      <c r="N98" s="328"/>
+      <c r="O98" s="328"/>
+      <c r="P98" s="329"/>
       <c r="Q98" s="195" t="s">
         <v>100</v>
       </c>
@@ -10800,20 +10804,20 @@
       <c r="AB98" s="197"/>
     </row>
     <row r="99" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G99" s="392" t="s">
-        <v>143</v>
-      </c>
-      <c r="H99" s="393"/>
-      <c r="I99" s="393"/>
-      <c r="J99" s="393"/>
-      <c r="K99" s="393"/>
-      <c r="L99" s="393"/>
-      <c r="M99" s="393"/>
-      <c r="N99" s="393"/>
-      <c r="O99" s="393"/>
-      <c r="P99" s="394"/>
+      <c r="G99" s="300" t="s">
+        <v>141</v>
+      </c>
+      <c r="H99" s="301"/>
+      <c r="I99" s="301"/>
+      <c r="J99" s="301"/>
+      <c r="K99" s="301"/>
+      <c r="L99" s="301"/>
+      <c r="M99" s="301"/>
+      <c r="N99" s="301"/>
+      <c r="O99" s="301"/>
+      <c r="P99" s="302"/>
       <c r="Q99" s="198" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R99" s="199"/>
       <c r="S99" s="199"/>
@@ -10830,18 +10834,18 @@
       <c r="AH99" s="109"/>
     </row>
     <row r="100" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G100" s="401"/>
-      <c r="H100" s="402"/>
-      <c r="I100" s="402"/>
-      <c r="J100" s="402"/>
-      <c r="K100" s="402"/>
-      <c r="L100" s="402"/>
-      <c r="M100" s="402"/>
-      <c r="N100" s="402"/>
-      <c r="O100" s="402"/>
-      <c r="P100" s="403"/>
+      <c r="G100" s="312"/>
+      <c r="H100" s="313"/>
+      <c r="I100" s="313"/>
+      <c r="J100" s="313"/>
+      <c r="K100" s="313"/>
+      <c r="L100" s="313"/>
+      <c r="M100" s="313"/>
+      <c r="N100" s="313"/>
+      <c r="O100" s="313"/>
+      <c r="P100" s="314"/>
       <c r="Q100" s="198" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="R100" s="199"/>
       <c r="S100" s="199"/>
@@ -10858,18 +10862,18 @@
       <c r="AH100" s="109"/>
     </row>
     <row r="101" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G101" s="401"/>
-      <c r="H101" s="402"/>
-      <c r="I101" s="402"/>
-      <c r="J101" s="402"/>
-      <c r="K101" s="402"/>
-      <c r="L101" s="402"/>
-      <c r="M101" s="402"/>
-      <c r="N101" s="402"/>
-      <c r="O101" s="402"/>
-      <c r="P101" s="403"/>
+      <c r="G101" s="312"/>
+      <c r="H101" s="313"/>
+      <c r="I101" s="313"/>
+      <c r="J101" s="313"/>
+      <c r="K101" s="313"/>
+      <c r="L101" s="313"/>
+      <c r="M101" s="313"/>
+      <c r="N101" s="313"/>
+      <c r="O101" s="313"/>
+      <c r="P101" s="314"/>
       <c r="Q101" s="198" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R101" s="199"/>
       <c r="S101" s="199"/>
@@ -10886,18 +10890,18 @@
       <c r="AH101" s="109"/>
     </row>
     <row r="102" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G102" s="401"/>
-      <c r="H102" s="402"/>
-      <c r="I102" s="402"/>
-      <c r="J102" s="402"/>
-      <c r="K102" s="402"/>
-      <c r="L102" s="402"/>
-      <c r="M102" s="402"/>
-      <c r="N102" s="402"/>
-      <c r="O102" s="402"/>
-      <c r="P102" s="403"/>
+      <c r="G102" s="312"/>
+      <c r="H102" s="313"/>
+      <c r="I102" s="313"/>
+      <c r="J102" s="313"/>
+      <c r="K102" s="313"/>
+      <c r="L102" s="313"/>
+      <c r="M102" s="313"/>
+      <c r="N102" s="313"/>
+      <c r="O102" s="313"/>
+      <c r="P102" s="314"/>
       <c r="Q102" s="198" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="R102" s="199"/>
       <c r="S102" s="199"/>
@@ -10914,18 +10918,18 @@
       <c r="AH102" s="109"/>
     </row>
     <row r="103" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G103" s="401"/>
-      <c r="H103" s="402"/>
-      <c r="I103" s="402"/>
-      <c r="J103" s="402"/>
-      <c r="K103" s="402"/>
-      <c r="L103" s="402"/>
-      <c r="M103" s="402"/>
-      <c r="N103" s="402"/>
-      <c r="O103" s="402"/>
-      <c r="P103" s="403"/>
+      <c r="G103" s="312"/>
+      <c r="H103" s="313"/>
+      <c r="I103" s="313"/>
+      <c r="J103" s="313"/>
+      <c r="K103" s="313"/>
+      <c r="L103" s="313"/>
+      <c r="M103" s="313"/>
+      <c r="N103" s="313"/>
+      <c r="O103" s="313"/>
+      <c r="P103" s="314"/>
       <c r="Q103" s="198" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="R103" s="199"/>
       <c r="S103" s="199"/>
@@ -10942,18 +10946,18 @@
       <c r="AH103" s="109"/>
     </row>
     <row r="104" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G104" s="401"/>
-      <c r="H104" s="402"/>
-      <c r="I104" s="402"/>
-      <c r="J104" s="402"/>
-      <c r="K104" s="402"/>
-      <c r="L104" s="402"/>
-      <c r="M104" s="402"/>
-      <c r="N104" s="402"/>
-      <c r="O104" s="402"/>
-      <c r="P104" s="403"/>
+      <c r="G104" s="312"/>
+      <c r="H104" s="313"/>
+      <c r="I104" s="313"/>
+      <c r="J104" s="313"/>
+      <c r="K104" s="313"/>
+      <c r="L104" s="313"/>
+      <c r="M104" s="313"/>
+      <c r="N104" s="313"/>
+      <c r="O104" s="313"/>
+      <c r="P104" s="314"/>
       <c r="Q104" s="198" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R104" s="199"/>
       <c r="S104" s="199"/>
@@ -10970,18 +10974,18 @@
       <c r="AH104" s="109"/>
     </row>
     <row r="105" spans="7:58" x14ac:dyDescent="0.15">
-      <c r="G105" s="404"/>
-      <c r="H105" s="402"/>
-      <c r="I105" s="402"/>
-      <c r="J105" s="402"/>
-      <c r="K105" s="402"/>
-      <c r="L105" s="402"/>
-      <c r="M105" s="402"/>
-      <c r="N105" s="402"/>
-      <c r="O105" s="402"/>
-      <c r="P105" s="403"/>
+      <c r="G105" s="315"/>
+      <c r="H105" s="313"/>
+      <c r="I105" s="313"/>
+      <c r="J105" s="313"/>
+      <c r="K105" s="313"/>
+      <c r="L105" s="313"/>
+      <c r="M105" s="313"/>
+      <c r="N105" s="313"/>
+      <c r="O105" s="313"/>
+      <c r="P105" s="314"/>
       <c r="Q105" s="198" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="R105" s="199"/>
       <c r="S105" s="199"/>
@@ -11111,7 +11115,7 @@
       <c r="G108" s="114"/>
       <c r="H108" s="174"/>
       <c r="I108" s="174" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J108" s="115"/>
       <c r="K108" s="115"/>
@@ -11122,7 +11126,7 @@
         <v>102</v>
       </c>
       <c r="R108" s="174" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S108" s="115"/>
       <c r="T108" s="115"/>
@@ -11206,14 +11210,14 @@
     <row r="110" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G110" s="114"/>
       <c r="H110" s="174" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I110" s="174" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J110" s="115"/>
       <c r="K110" s="174" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L110" s="115"/>
       <c r="M110" s="116"/>
@@ -11348,60 +11352,60 @@
     </row>
     <row r="113" spans="4:58" x14ac:dyDescent="0.15">
       <c r="F113" s="103" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="115" spans="4:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G115" s="316" t="s">
+      <c r="G115" s="327" t="s">
         <v>99</v>
       </c>
-      <c r="H115" s="317"/>
-      <c r="I115" s="317"/>
-      <c r="J115" s="317"/>
-      <c r="K115" s="317"/>
-      <c r="L115" s="317"/>
-      <c r="M115" s="317"/>
-      <c r="N115" s="317"/>
-      <c r="O115" s="317"/>
-      <c r="P115" s="318"/>
-      <c r="Q115" s="319" t="s">
+      <c r="H115" s="328"/>
+      <c r="I115" s="328"/>
+      <c r="J115" s="328"/>
+      <c r="K115" s="328"/>
+      <c r="L115" s="328"/>
+      <c r="M115" s="328"/>
+      <c r="N115" s="328"/>
+      <c r="O115" s="328"/>
+      <c r="P115" s="329"/>
+      <c r="Q115" s="392" t="s">
         <v>100</v>
       </c>
-      <c r="R115" s="320"/>
-      <c r="S115" s="320"/>
-      <c r="T115" s="320"/>
-      <c r="U115" s="320"/>
-      <c r="V115" s="320"/>
-      <c r="W115" s="320"/>
-      <c r="X115" s="320"/>
-      <c r="Y115" s="320"/>
-      <c r="Z115" s="321"/>
+      <c r="R115" s="393"/>
+      <c r="S115" s="393"/>
+      <c r="T115" s="393"/>
+      <c r="U115" s="393"/>
+      <c r="V115" s="393"/>
+      <c r="W115" s="393"/>
+      <c r="X115" s="393"/>
+      <c r="Y115" s="393"/>
+      <c r="Z115" s="394"/>
     </row>
     <row r="116" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G116" s="392" t="s">
-        <v>173</v>
-      </c>
-      <c r="H116" s="393"/>
-      <c r="I116" s="393"/>
-      <c r="J116" s="393"/>
-      <c r="K116" s="393"/>
-      <c r="L116" s="393"/>
-      <c r="M116" s="393"/>
-      <c r="N116" s="393"/>
-      <c r="O116" s="393"/>
-      <c r="P116" s="394"/>
-      <c r="Q116" s="388" t="s">
-        <v>203</v>
-      </c>
-      <c r="R116" s="389"/>
-      <c r="S116" s="389"/>
-      <c r="T116" s="389"/>
-      <c r="U116" s="389"/>
-      <c r="V116" s="389"/>
-      <c r="W116" s="389"/>
-      <c r="X116" s="389"/>
-      <c r="Y116" s="389"/>
-      <c r="Z116" s="390"/>
+      <c r="G116" s="300" t="s">
+        <v>170</v>
+      </c>
+      <c r="H116" s="301"/>
+      <c r="I116" s="301"/>
+      <c r="J116" s="301"/>
+      <c r="K116" s="301"/>
+      <c r="L116" s="301"/>
+      <c r="M116" s="301"/>
+      <c r="N116" s="301"/>
+      <c r="O116" s="301"/>
+      <c r="P116" s="302"/>
+      <c r="Q116" s="306" t="s">
+        <v>200</v>
+      </c>
+      <c r="R116" s="307"/>
+      <c r="S116" s="307"/>
+      <c r="T116" s="307"/>
+      <c r="U116" s="307"/>
+      <c r="V116" s="307"/>
+      <c r="W116" s="307"/>
+      <c r="X116" s="307"/>
+      <c r="Y116" s="307"/>
+      <c r="Z116" s="308"/>
       <c r="AC116" s="110"/>
       <c r="AD116" s="110"/>
       <c r="AE116" s="110"/>
@@ -11420,28 +11424,28 @@
       <c r="AY116" s="110"/>
     </row>
     <row r="117" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G117" s="395"/>
-      <c r="H117" s="396"/>
-      <c r="I117" s="396"/>
-      <c r="J117" s="396"/>
-      <c r="K117" s="396"/>
-      <c r="L117" s="396"/>
-      <c r="M117" s="396"/>
-      <c r="N117" s="396"/>
-      <c r="O117" s="396"/>
-      <c r="P117" s="397"/>
-      <c r="Q117" s="388" t="s">
-        <v>174</v>
-      </c>
-      <c r="R117" s="389"/>
-      <c r="S117" s="389"/>
-      <c r="T117" s="389"/>
-      <c r="U117" s="389"/>
-      <c r="V117" s="389"/>
-      <c r="W117" s="389"/>
-      <c r="X117" s="389"/>
-      <c r="Y117" s="389"/>
-      <c r="Z117" s="390"/>
+      <c r="G117" s="303"/>
+      <c r="H117" s="304"/>
+      <c r="I117" s="304"/>
+      <c r="J117" s="304"/>
+      <c r="K117" s="304"/>
+      <c r="L117" s="304"/>
+      <c r="M117" s="304"/>
+      <c r="N117" s="304"/>
+      <c r="O117" s="304"/>
+      <c r="P117" s="305"/>
+      <c r="Q117" s="306" t="s">
+        <v>171</v>
+      </c>
+      <c r="R117" s="307"/>
+      <c r="S117" s="307"/>
+      <c r="T117" s="307"/>
+      <c r="U117" s="307"/>
+      <c r="V117" s="307"/>
+      <c r="W117" s="307"/>
+      <c r="X117" s="307"/>
+      <c r="Y117" s="307"/>
+      <c r="Z117" s="308"/>
       <c r="AC117" s="110"/>
       <c r="AD117" s="110"/>
       <c r="AE117" s="110"/>
@@ -11460,28 +11464,28 @@
       <c r="AY117" s="110"/>
     </row>
     <row r="118" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G118" s="398" t="s">
+      <c r="G118" s="309" t="s">
         <v>101</v>
       </c>
-      <c r="H118" s="399"/>
-      <c r="I118" s="399"/>
-      <c r="J118" s="399"/>
-      <c r="K118" s="399"/>
-      <c r="L118" s="399"/>
-      <c r="M118" s="399"/>
-      <c r="N118" s="399"/>
-      <c r="O118" s="399"/>
-      <c r="P118" s="399"/>
-      <c r="Q118" s="399"/>
-      <c r="R118" s="399"/>
-      <c r="S118" s="399"/>
-      <c r="T118" s="399"/>
-      <c r="U118" s="399"/>
-      <c r="V118" s="399"/>
-      <c r="W118" s="399"/>
-      <c r="X118" s="399"/>
-      <c r="Y118" s="399"/>
-      <c r="Z118" s="400"/>
+      <c r="H118" s="310"/>
+      <c r="I118" s="310"/>
+      <c r="J118" s="310"/>
+      <c r="K118" s="310"/>
+      <c r="L118" s="310"/>
+      <c r="M118" s="310"/>
+      <c r="N118" s="310"/>
+      <c r="O118" s="310"/>
+      <c r="P118" s="310"/>
+      <c r="Q118" s="310"/>
+      <c r="R118" s="310"/>
+      <c r="S118" s="310"/>
+      <c r="T118" s="310"/>
+      <c r="U118" s="310"/>
+      <c r="V118" s="310"/>
+      <c r="W118" s="310"/>
+      <c r="X118" s="310"/>
+      <c r="Y118" s="310"/>
+      <c r="Z118" s="311"/>
       <c r="AJ118" s="110"/>
       <c r="AK118" s="110"/>
       <c r="AL118" s="110"/>
@@ -11554,7 +11558,7 @@
     <row r="120" spans="4:58" x14ac:dyDescent="0.15">
       <c r="G120" s="114"/>
       <c r="H120" s="174" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I120" s="115"/>
       <c r="J120" s="115"/>
@@ -11565,7 +11569,7 @@
         <v>102</v>
       </c>
       <c r="Q120" s="174" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="R120" s="115"/>
       <c r="S120" s="115"/>
@@ -11752,7 +11756,7 @@
     <row r="126" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E126" s="126"/>
       <c r="F126" s="71" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AJ126" s="110"/>
       <c r="AK126" s="110"/>
@@ -11782,7 +11786,7 @@
       <c r="E127" s="126"/>
       <c r="F127" s="127"/>
       <c r="G127" s="71" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AJ127" s="110"/>
       <c r="AK127" s="110"/>
@@ -11812,7 +11816,7 @@
       <c r="E128" s="126"/>
       <c r="F128" s="127"/>
       <c r="H128" s="74" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I128" s="187"/>
       <c r="J128" s="187"/>
@@ -11876,7 +11880,7 @@
     <row r="130" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E130" s="126"/>
       <c r="F130" s="71" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AJ130" s="110"/>
       <c r="AK130" s="110"/>
@@ -11906,7 +11910,7 @@
       <c r="E131" s="126"/>
       <c r="F131" s="127"/>
       <c r="G131" s="71" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AJ131" s="110"/>
       <c r="AK131" s="110"/>
@@ -11936,7 +11940,7 @@
       <c r="E132" s="126"/>
       <c r="F132" s="127"/>
       <c r="H132" s="74" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I132" s="187"/>
       <c r="J132" s="187"/>
@@ -11999,7 +12003,7 @@
     <row r="134" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E134" s="126"/>
       <c r="F134" s="71" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AJ134" s="110"/>
       <c r="AK134" s="110"/>
@@ -12029,7 +12033,7 @@
       <c r="E135" s="126"/>
       <c r="F135" s="127"/>
       <c r="G135" s="71" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AJ135" s="110"/>
       <c r="AK135" s="188"/>
@@ -12060,7 +12064,7 @@
       <c r="F136" s="127"/>
       <c r="G136" s="71"/>
       <c r="H136" s="103" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AJ136" s="110"/>
       <c r="AK136" s="110"/>
@@ -12090,7 +12094,7 @@
       <c r="E137" s="126"/>
       <c r="F137" s="127"/>
       <c r="H137" s="74" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I137" s="187"/>
       <c r="J137" s="187"/>
@@ -12151,8 +12155,8 @@
       <c r="BF138" s="110"/>
     </row>
     <row r="139" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H139" s="346" t="s">
-        <v>154</v>
+      <c r="H139" s="322" t="s">
+        <v>152</v>
       </c>
       <c r="I139" s="284" t="s">
         <v>104</v>
@@ -12162,19 +12166,19 @@
       <c r="L139" s="285"/>
       <c r="M139" s="285"/>
       <c r="N139" s="286"/>
-      <c r="O139" s="373" t="s">
+      <c r="O139" s="324" t="s">
         <v>114</v>
       </c>
-      <c r="P139" s="374"/>
-      <c r="Q139" s="374"/>
-      <c r="R139" s="374"/>
-      <c r="S139" s="374"/>
-      <c r="T139" s="374"/>
-      <c r="U139" s="374"/>
-      <c r="V139" s="374"/>
-      <c r="W139" s="374"/>
-      <c r="X139" s="374"/>
-      <c r="Y139" s="375"/>
+      <c r="P139" s="325"/>
+      <c r="Q139" s="325"/>
+      <c r="R139" s="325"/>
+      <c r="S139" s="325"/>
+      <c r="T139" s="325"/>
+      <c r="U139" s="325"/>
+      <c r="V139" s="325"/>
+      <c r="W139" s="325"/>
+      <c r="X139" s="325"/>
+      <c r="Y139" s="326"/>
       <c r="Z139" s="284" t="s">
         <v>32</v>
       </c>
@@ -12190,28 +12194,28 @@
       <c r="AH139" s="183"/>
     </row>
     <row r="140" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H140" s="347"/>
+      <c r="H140" s="323"/>
       <c r="I140" s="290"/>
       <c r="J140" s="291"/>
       <c r="K140" s="291"/>
       <c r="L140" s="291"/>
       <c r="M140" s="291"/>
       <c r="N140" s="292"/>
-      <c r="O140" s="373" t="s">
+      <c r="O140" s="324" t="s">
         <v>115</v>
       </c>
-      <c r="P140" s="374"/>
-      <c r="Q140" s="374"/>
-      <c r="R140" s="374"/>
-      <c r="S140" s="375"/>
-      <c r="T140" s="316" t="s">
+      <c r="P140" s="325"/>
+      <c r="Q140" s="325"/>
+      <c r="R140" s="325"/>
+      <c r="S140" s="326"/>
+      <c r="T140" s="327" t="s">
         <v>105</v>
       </c>
-      <c r="U140" s="317"/>
-      <c r="V140" s="317"/>
-      <c r="W140" s="317"/>
-      <c r="X140" s="317"/>
-      <c r="Y140" s="318"/>
+      <c r="U140" s="328"/>
+      <c r="V140" s="328"/>
+      <c r="W140" s="328"/>
+      <c r="X140" s="328"/>
+      <c r="Y140" s="329"/>
       <c r="Z140" s="290"/>
       <c r="AA140" s="291"/>
       <c r="AB140" s="291"/>
@@ -12226,37 +12230,37 @@
       <c r="H141" s="138">
         <v>1</v>
       </c>
-      <c r="I141" s="405" t="s">
-        <v>198</v>
-      </c>
-      <c r="J141" s="406"/>
-      <c r="K141" s="406"/>
-      <c r="L141" s="406"/>
-      <c r="M141" s="406"/>
-      <c r="N141" s="407"/>
+      <c r="I141" s="316" t="s">
+        <v>195</v>
+      </c>
+      <c r="J141" s="317"/>
+      <c r="K141" s="317"/>
+      <c r="L141" s="317"/>
+      <c r="M141" s="317"/>
+      <c r="N141" s="318"/>
       <c r="O141" s="175" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P141" s="176"/>
       <c r="Q141" s="176"/>
       <c r="R141" s="176"/>
       <c r="S141" s="177"/>
-      <c r="T141" s="405" t="s">
-        <v>155</v>
-      </c>
-      <c r="U141" s="406"/>
-      <c r="V141" s="406"/>
-      <c r="W141" s="406"/>
-      <c r="X141" s="406"/>
-      <c r="Y141" s="407"/>
-      <c r="Z141" s="408" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA141" s="302"/>
-      <c r="AB141" s="302"/>
-      <c r="AC141" s="302"/>
-      <c r="AD141" s="302"/>
-      <c r="AE141" s="303"/>
+      <c r="T141" s="316" t="s">
+        <v>153</v>
+      </c>
+      <c r="U141" s="317"/>
+      <c r="V141" s="317"/>
+      <c r="W141" s="317"/>
+      <c r="X141" s="317"/>
+      <c r="Y141" s="318"/>
+      <c r="Z141" s="319" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA141" s="320"/>
+      <c r="AB141" s="320"/>
+      <c r="AC141" s="320"/>
+      <c r="AD141" s="320"/>
+      <c r="AE141" s="321"/>
       <c r="AF141" s="168"/>
       <c r="AG141" s="166"/>
       <c r="AH141" s="167"/>
@@ -12370,7 +12374,7 @@
     <row r="144" spans="5:59" x14ac:dyDescent="0.15">
       <c r="H144" s="114"/>
       <c r="I144" s="174" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J144" s="115"/>
       <c r="K144" s="115"/>
@@ -12381,7 +12385,7 @@
         <v>102</v>
       </c>
       <c r="R144" s="174" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S144" s="115"/>
       <c r="T144" s="115"/>
@@ -12507,7 +12511,7 @@
       <c r="E147" s="126"/>
       <c r="F147" s="127"/>
       <c r="G147" s="71" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AJ147" s="110"/>
       <c r="AK147" s="110"/>
@@ -12562,8 +12566,8 @@
       <c r="BF148" s="110"/>
     </row>
     <row r="149" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H149" s="346" t="s">
-        <v>154</v>
+      <c r="H149" s="322" t="s">
+        <v>152</v>
       </c>
       <c r="I149" s="284" t="s">
         <v>104</v>
@@ -12573,19 +12577,19 @@
       <c r="L149" s="285"/>
       <c r="M149" s="285"/>
       <c r="N149" s="286"/>
-      <c r="O149" s="373" t="s">
+      <c r="O149" s="324" t="s">
         <v>114</v>
       </c>
-      <c r="P149" s="374"/>
-      <c r="Q149" s="374"/>
-      <c r="R149" s="374"/>
-      <c r="S149" s="374"/>
-      <c r="T149" s="374"/>
-      <c r="U149" s="374"/>
-      <c r="V149" s="374"/>
-      <c r="W149" s="374"/>
-      <c r="X149" s="374"/>
-      <c r="Y149" s="375"/>
+      <c r="P149" s="325"/>
+      <c r="Q149" s="325"/>
+      <c r="R149" s="325"/>
+      <c r="S149" s="325"/>
+      <c r="T149" s="325"/>
+      <c r="U149" s="325"/>
+      <c r="V149" s="325"/>
+      <c r="W149" s="325"/>
+      <c r="X149" s="325"/>
+      <c r="Y149" s="326"/>
       <c r="Z149" s="284" t="s">
         <v>32</v>
       </c>
@@ -12601,28 +12605,28 @@
       <c r="AH149" s="183"/>
     </row>
     <row r="150" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H150" s="347"/>
+      <c r="H150" s="323"/>
       <c r="I150" s="290"/>
       <c r="J150" s="291"/>
       <c r="K150" s="291"/>
       <c r="L150" s="291"/>
       <c r="M150" s="291"/>
       <c r="N150" s="292"/>
-      <c r="O150" s="373" t="s">
+      <c r="O150" s="324" t="s">
         <v>115</v>
       </c>
-      <c r="P150" s="374"/>
-      <c r="Q150" s="374"/>
-      <c r="R150" s="374"/>
-      <c r="S150" s="375"/>
-      <c r="T150" s="316" t="s">
+      <c r="P150" s="325"/>
+      <c r="Q150" s="325"/>
+      <c r="R150" s="325"/>
+      <c r="S150" s="326"/>
+      <c r="T150" s="327" t="s">
         <v>105</v>
       </c>
-      <c r="U150" s="317"/>
-      <c r="V150" s="317"/>
-      <c r="W150" s="317"/>
-      <c r="X150" s="317"/>
-      <c r="Y150" s="318"/>
+      <c r="U150" s="328"/>
+      <c r="V150" s="328"/>
+      <c r="W150" s="328"/>
+      <c r="X150" s="328"/>
+      <c r="Y150" s="329"/>
       <c r="Z150" s="290"/>
       <c r="AA150" s="291"/>
       <c r="AB150" s="291"/>
@@ -12637,37 +12641,37 @@
       <c r="H151" s="138">
         <v>1</v>
       </c>
-      <c r="I151" s="405" t="s">
-        <v>158</v>
-      </c>
-      <c r="J151" s="406"/>
-      <c r="K151" s="406"/>
-      <c r="L151" s="406"/>
-      <c r="M151" s="406"/>
-      <c r="N151" s="407"/>
+      <c r="I151" s="316" t="s">
+        <v>156</v>
+      </c>
+      <c r="J151" s="317"/>
+      <c r="K151" s="317"/>
+      <c r="L151" s="317"/>
+      <c r="M151" s="317"/>
+      <c r="N151" s="318"/>
       <c r="O151" s="175" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P151" s="176"/>
       <c r="Q151" s="176"/>
       <c r="R151" s="176"/>
       <c r="S151" s="177"/>
-      <c r="T151" s="405" t="s">
-        <v>155</v>
-      </c>
-      <c r="U151" s="406"/>
-      <c r="V151" s="406"/>
-      <c r="W151" s="406"/>
-      <c r="X151" s="406"/>
-      <c r="Y151" s="407"/>
-      <c r="Z151" s="408" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA151" s="302"/>
-      <c r="AB151" s="302"/>
-      <c r="AC151" s="302"/>
-      <c r="AD151" s="302"/>
-      <c r="AE151" s="303"/>
+      <c r="T151" s="316" t="s">
+        <v>153</v>
+      </c>
+      <c r="U151" s="317"/>
+      <c r="V151" s="317"/>
+      <c r="W151" s="317"/>
+      <c r="X151" s="317"/>
+      <c r="Y151" s="318"/>
+      <c r="Z151" s="319" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA151" s="320"/>
+      <c r="AB151" s="320"/>
+      <c r="AC151" s="320"/>
+      <c r="AD151" s="320"/>
+      <c r="AE151" s="321"/>
       <c r="AF151" s="168"/>
       <c r="AG151" s="166"/>
       <c r="AH151" s="167"/>
@@ -12676,37 +12680,37 @@
       <c r="H152" s="138">
         <v>2</v>
       </c>
-      <c r="I152" s="405" t="s">
-        <v>198</v>
-      </c>
-      <c r="J152" s="406"/>
-      <c r="K152" s="406"/>
-      <c r="L152" s="406"/>
-      <c r="M152" s="406"/>
-      <c r="N152" s="407"/>
+      <c r="I152" s="316" t="s">
+        <v>195</v>
+      </c>
+      <c r="J152" s="317"/>
+      <c r="K152" s="317"/>
+      <c r="L152" s="317"/>
+      <c r="M152" s="317"/>
+      <c r="N152" s="318"/>
       <c r="O152" s="175" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P152" s="176"/>
       <c r="Q152" s="176"/>
       <c r="R152" s="176"/>
       <c r="S152" s="177"/>
-      <c r="T152" s="405" t="s">
+      <c r="T152" s="316" t="s">
         <v>93</v>
       </c>
-      <c r="U152" s="406"/>
-      <c r="V152" s="406"/>
-      <c r="W152" s="406"/>
-      <c r="X152" s="406"/>
-      <c r="Y152" s="407"/>
-      <c r="Z152" s="408">
+      <c r="U152" s="317"/>
+      <c r="V152" s="317"/>
+      <c r="W152" s="317"/>
+      <c r="X152" s="317"/>
+      <c r="Y152" s="318"/>
+      <c r="Z152" s="319">
         <v>0</v>
       </c>
-      <c r="AA152" s="302"/>
-      <c r="AB152" s="302"/>
-      <c r="AC152" s="302"/>
-      <c r="AD152" s="302"/>
-      <c r="AE152" s="303"/>
+      <c r="AA152" s="320"/>
+      <c r="AB152" s="320"/>
+      <c r="AC152" s="320"/>
+      <c r="AD152" s="320"/>
+      <c r="AE152" s="321"/>
       <c r="AF152" s="191"/>
       <c r="AG152" s="189"/>
       <c r="AH152" s="190"/>
@@ -12820,7 +12824,7 @@
     <row r="155" spans="5:59" x14ac:dyDescent="0.15">
       <c r="H155" s="114"/>
       <c r="I155" s="174" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J155" s="115"/>
       <c r="K155" s="115"/>
@@ -12831,7 +12835,7 @@
         <v>102</v>
       </c>
       <c r="R155" s="174" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S155" s="115"/>
       <c r="T155" s="115"/>
@@ -12957,7 +12961,7 @@
       <c r="E158" s="126"/>
       <c r="F158" s="127"/>
       <c r="G158" s="71" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AJ158" s="110"/>
       <c r="AK158" s="110"/>
@@ -12987,7 +12991,7 @@
       <c r="E159" s="126"/>
       <c r="F159" s="127"/>
       <c r="H159" s="74" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I159" s="187"/>
       <c r="J159" s="187"/>
@@ -13051,7 +13055,7 @@
       <c r="E161" s="126"/>
       <c r="F161" s="127"/>
       <c r="G161" s="71" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AJ161" s="110"/>
       <c r="AK161" s="110"/>
@@ -13109,7 +13113,7 @@
       <c r="E163" s="126"/>
       <c r="F163" s="127"/>
       <c r="G163" s="71" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AJ163" s="110"/>
       <c r="AK163" s="110"/>
@@ -13167,7 +13171,7 @@
       <c r="E165" s="126"/>
       <c r="F165" s="127"/>
       <c r="G165" s="71" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AJ165" s="110"/>
       <c r="AK165" s="110"/>
@@ -13224,7 +13228,7 @@
     <row r="167" spans="5:58" x14ac:dyDescent="0.15">
       <c r="E167" s="126"/>
       <c r="F167" s="71" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AJ167" s="110"/>
       <c r="AK167" s="110"/>
@@ -13307,6 +13311,95 @@
     </row>
   </sheetData>
   <mergeCells count="113">
+    <mergeCell ref="AE66:AH66"/>
+    <mergeCell ref="Z66:AD66"/>
+    <mergeCell ref="AE67:AH67"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="G115:P115"/>
+    <mergeCell ref="Q115:Z115"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="V58:AH59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="G98:P98"/>
+    <mergeCell ref="G89:L89"/>
+    <mergeCell ref="M88:V88"/>
+    <mergeCell ref="W89:Y89"/>
+    <mergeCell ref="AD89:AG89"/>
+    <mergeCell ref="G88:L88"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="Z89:AC89"/>
+    <mergeCell ref="Z88:AC88"/>
+    <mergeCell ref="M89:V89"/>
+    <mergeCell ref="R67:Y67"/>
+    <mergeCell ref="E43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="V43:AC43"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="Z67:AD67"/>
+    <mergeCell ref="W88:Y88"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="V44:AC44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="M52:T52"/>
+    <mergeCell ref="E44:M44"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="AD88:AG88"/>
+    <mergeCell ref="AD49:AG51"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="AD53:AG53"/>
+    <mergeCell ref="AD52:AG52"/>
+    <mergeCell ref="U50:Y51"/>
+    <mergeCell ref="AC50:AC51"/>
+    <mergeCell ref="M53:T53"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="R68:Y68"/>
+    <mergeCell ref="Z68:AD68"/>
+    <mergeCell ref="AE68:AH68"/>
+    <mergeCell ref="O140:S140"/>
+    <mergeCell ref="T140:Y140"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="M50:T51"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:J59"/>
+    <mergeCell ref="K58:N59"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="V61:AH61"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="R66:Y66"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="V60:AH60"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I50:L51"/>
+    <mergeCell ref="E50:H51"/>
+    <mergeCell ref="E49:AC49"/>
+    <mergeCell ref="Z50:AB51"/>
     <mergeCell ref="G116:P117"/>
     <mergeCell ref="Q116:Z116"/>
     <mergeCell ref="Q117:Z117"/>
@@ -13331,95 +13424,6 @@
     <mergeCell ref="I139:N140"/>
     <mergeCell ref="O139:Y139"/>
     <mergeCell ref="Z139:AE140"/>
-    <mergeCell ref="O140:S140"/>
-    <mergeCell ref="T140:Y140"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="M50:T51"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:J59"/>
-    <mergeCell ref="K58:N59"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="V61:AH61"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="R66:Y66"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="V60:AH60"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I50:L51"/>
-    <mergeCell ref="E50:H51"/>
-    <mergeCell ref="E49:AC49"/>
-    <mergeCell ref="Z50:AB51"/>
-    <mergeCell ref="Z67:AD67"/>
-    <mergeCell ref="W88:Y88"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="K68:Q68"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="V44:AC44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="M52:T52"/>
-    <mergeCell ref="E44:M44"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="AD88:AG88"/>
-    <mergeCell ref="AD49:AG51"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="AD53:AG53"/>
-    <mergeCell ref="AD52:AG52"/>
-    <mergeCell ref="U50:Y51"/>
-    <mergeCell ref="AC50:AC51"/>
-    <mergeCell ref="M53:T53"/>
-    <mergeCell ref="E43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="V43:AC43"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="R68:Y68"/>
-    <mergeCell ref="Z68:AD68"/>
-    <mergeCell ref="AE68:AH68"/>
-    <mergeCell ref="AE66:AH66"/>
-    <mergeCell ref="Z66:AD66"/>
-    <mergeCell ref="AE67:AH67"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="G115:P115"/>
-    <mergeCell ref="Q115:Z115"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="V58:AH59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="G98:P98"/>
-    <mergeCell ref="G89:L89"/>
-    <mergeCell ref="M88:V88"/>
-    <mergeCell ref="W89:Y89"/>
-    <mergeCell ref="AD89:AG89"/>
-    <mergeCell ref="G88:L88"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="Z89:AC89"/>
-    <mergeCell ref="Z88:AC88"/>
-    <mergeCell ref="M89:V89"/>
-    <mergeCell ref="R67:Y67"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">
@@ -13487,171 +13491,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="343" t="s">
+      <c r="A1" s="383" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="344"/>
-      <c r="C1" s="344"/>
-      <c r="D1" s="345"/>
-      <c r="E1" s="273" t="str">
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="385"/>
+      <c r="E1" s="279" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="226"/>
-      <c r="L1" s="226"/>
-      <c r="M1" s="226"/>
-      <c r="N1" s="227"/>
-      <c r="O1" s="259" t="s">
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="256"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="256"/>
+      <c r="L1" s="256"/>
+      <c r="M1" s="256"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="210" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="260"/>
-      <c r="Q1" s="260"/>
-      <c r="R1" s="261"/>
-      <c r="S1" s="274" t="str">
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
+      <c r="R1" s="212"/>
+      <c r="S1" s="270" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
-WA10101/ログイン</v>
-      </c>
-      <c r="T1" s="275"/>
-      <c r="U1" s="275"/>
-      <c r="V1" s="275"/>
-      <c r="W1" s="275"/>
-      <c r="X1" s="275"/>
-      <c r="Y1" s="275"/>
-      <c r="Z1" s="276"/>
-      <c r="AA1" s="256" t="s">
+WA10101/認証</v>
+      </c>
+      <c r="T1" s="271"/>
+      <c r="U1" s="271"/>
+      <c r="V1" s="271"/>
+      <c r="W1" s="271"/>
+      <c r="X1" s="271"/>
+      <c r="Y1" s="271"/>
+      <c r="Z1" s="272"/>
+      <c r="AA1" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="258"/>
-      <c r="AC1" s="207" t="str">
+      <c r="AB1" s="209"/>
+      <c r="AC1" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="209"/>
-      <c r="AG1" s="340">
+      <c r="AD1" s="244"/>
+      <c r="AE1" s="244"/>
+      <c r="AF1" s="245"/>
+      <c r="AG1" s="380">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="341"/>
-      <c r="AI1" s="342"/>
+      <c r="AH1" s="381"/>
+      <c r="AI1" s="382"/>
       <c r="AJ1" s="30"/>
     </row>
     <row r="2" spans="1:53" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="343" t="s">
+      <c r="A2" s="383" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="344"/>
-      <c r="C2" s="344"/>
-      <c r="D2" s="345"/>
-      <c r="E2" s="273" t="str">
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="279" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
-      <c r="H2" s="226"/>
-      <c r="I2" s="226"/>
-      <c r="J2" s="226"/>
-      <c r="K2" s="226"/>
-      <c r="L2" s="226"/>
-      <c r="M2" s="226"/>
-      <c r="N2" s="227"/>
-      <c r="O2" s="262"/>
-      <c r="P2" s="263"/>
-      <c r="Q2" s="263"/>
-      <c r="R2" s="264"/>
-      <c r="S2" s="277"/>
-      <c r="T2" s="278"/>
-      <c r="U2" s="278"/>
-      <c r="V2" s="278"/>
-      <c r="W2" s="278"/>
-      <c r="X2" s="278"/>
-      <c r="Y2" s="278"/>
-      <c r="Z2" s="279"/>
-      <c r="AA2" s="256" t="s">
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="256"/>
+      <c r="K2" s="256"/>
+      <c r="L2" s="256"/>
+      <c r="M2" s="256"/>
+      <c r="N2" s="257"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="214"/>
+      <c r="Q2" s="214"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="273"/>
+      <c r="T2" s="274"/>
+      <c r="U2" s="274"/>
+      <c r="V2" s="274"/>
+      <c r="W2" s="274"/>
+      <c r="X2" s="274"/>
+      <c r="Y2" s="274"/>
+      <c r="Z2" s="275"/>
+      <c r="AA2" s="207" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="258"/>
-      <c r="AC2" s="207" t="str">
+      <c r="AB2" s="209"/>
+      <c r="AC2" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="208"/>
-      <c r="AE2" s="208"/>
-      <c r="AF2" s="209"/>
-      <c r="AG2" s="340">
+      <c r="AD2" s="244"/>
+      <c r="AE2" s="244"/>
+      <c r="AF2" s="245"/>
+      <c r="AG2" s="380">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="341"/>
-      <c r="AI2" s="342"/>
+      <c r="AH2" s="381"/>
+      <c r="AI2" s="382"/>
       <c r="AJ2" s="30"/>
     </row>
     <row r="3" spans="1:53" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="343" t="s">
+      <c r="A3" s="383" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="344"/>
-      <c r="C3" s="344"/>
-      <c r="D3" s="345"/>
-      <c r="E3" s="273" t="str">
+      <c r="B3" s="384"/>
+      <c r="C3" s="384"/>
+      <c r="D3" s="385"/>
+      <c r="E3" s="279" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="226"/>
-      <c r="J3" s="226"/>
-      <c r="K3" s="226"/>
-      <c r="L3" s="226"/>
-      <c r="M3" s="226"/>
-      <c r="N3" s="227"/>
-      <c r="O3" s="265"/>
-      <c r="P3" s="266"/>
-      <c r="Q3" s="266"/>
-      <c r="R3" s="267"/>
-      <c r="S3" s="280"/>
-      <c r="T3" s="281"/>
-      <c r="U3" s="281"/>
-      <c r="V3" s="281"/>
-      <c r="W3" s="281"/>
-      <c r="X3" s="281"/>
-      <c r="Y3" s="281"/>
-      <c r="Z3" s="282"/>
-      <c r="AA3" s="256"/>
-      <c r="AB3" s="258"/>
-      <c r="AC3" s="207" t="str">
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="216"/>
+      <c r="P3" s="217"/>
+      <c r="Q3" s="217"/>
+      <c r="R3" s="218"/>
+      <c r="S3" s="276"/>
+      <c r="T3" s="277"/>
+      <c r="U3" s="277"/>
+      <c r="V3" s="277"/>
+      <c r="W3" s="277"/>
+      <c r="X3" s="277"/>
+      <c r="Y3" s="277"/>
+      <c r="Z3" s="278"/>
+      <c r="AA3" s="207"/>
+      <c r="AB3" s="209"/>
+      <c r="AC3" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="208"/>
-      <c r="AE3" s="208"/>
-      <c r="AF3" s="209"/>
-      <c r="AG3" s="340" t="str">
+      <c r="AD3" s="244"/>
+      <c r="AE3" s="244"/>
+      <c r="AF3" s="245"/>
+      <c r="AG3" s="380" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="341"/>
-      <c r="AI3" s="342"/>
+      <c r="AH3" s="381"/>
+      <c r="AI3" s="382"/>
       <c r="AJ3" s="30"/>
     </row>
     <row r="4" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="160" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="103" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13695,7 +13699,7 @@
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.15">
       <c r="C10" s="161" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D10" s="135"/>
       <c r="E10" s="135"/>
@@ -13765,39 +13769,39 @@
       <c r="D12" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="348" t="s">
+      <c r="E12" s="379" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="348"/>
-      <c r="G12" s="348"/>
-      <c r="H12" s="348"/>
-      <c r="I12" s="348"/>
-      <c r="J12" s="348"/>
-      <c r="K12" s="348"/>
-      <c r="L12" s="348"/>
-      <c r="M12" s="348"/>
-      <c r="N12" s="348" t="s">
+      <c r="F12" s="379"/>
+      <c r="G12" s="379"/>
+      <c r="H12" s="379"/>
+      <c r="I12" s="379"/>
+      <c r="J12" s="379"/>
+      <c r="K12" s="379"/>
+      <c r="L12" s="379"/>
+      <c r="M12" s="379"/>
+      <c r="N12" s="379" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="348"/>
-      <c r="P12" s="348"/>
-      <c r="Q12" s="348" t="s">
+      <c r="O12" s="379"/>
+      <c r="P12" s="379"/>
+      <c r="Q12" s="379" t="s">
         <v>25</v>
       </c>
-      <c r="R12" s="348"/>
-      <c r="S12" s="348"/>
-      <c r="T12" s="348"/>
-      <c r="U12" s="348"/>
-      <c r="V12" s="348" t="s">
+      <c r="R12" s="379"/>
+      <c r="S12" s="379"/>
+      <c r="T12" s="379"/>
+      <c r="U12" s="379"/>
+      <c r="V12" s="379" t="s">
         <v>14</v>
       </c>
-      <c r="W12" s="348"/>
-      <c r="X12" s="348"/>
-      <c r="Y12" s="348"/>
-      <c r="Z12" s="348"/>
-      <c r="AA12" s="348"/>
-      <c r="AB12" s="348"/>
-      <c r="AC12" s="348"/>
+      <c r="W12" s="379"/>
+      <c r="X12" s="379"/>
+      <c r="Y12" s="379"/>
+      <c r="Z12" s="379"/>
+      <c r="AA12" s="379"/>
+      <c r="AB12" s="379"/>
+      <c r="AC12" s="379"/>
       <c r="AD12" s="135"/>
       <c r="AE12" s="135"/>
       <c r="AF12" s="135"/>
@@ -13808,39 +13812,39 @@
       <c r="D13" s="153">
         <v>1</v>
       </c>
-      <c r="E13" s="366" t="s">
+      <c r="E13" s="371" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="363"/>
-      <c r="G13" s="363"/>
-      <c r="H13" s="363"/>
-      <c r="I13" s="363"/>
-      <c r="J13" s="363"/>
-      <c r="K13" s="363"/>
-      <c r="L13" s="363"/>
-      <c r="M13" s="363"/>
-      <c r="N13" s="363" t="s">
+      <c r="F13" s="368"/>
+      <c r="G13" s="368"/>
+      <c r="H13" s="368"/>
+      <c r="I13" s="368"/>
+      <c r="J13" s="368"/>
+      <c r="K13" s="368"/>
+      <c r="L13" s="368"/>
+      <c r="M13" s="368"/>
+      <c r="N13" s="368" t="s">
         <v>89</v>
       </c>
-      <c r="O13" s="363"/>
-      <c r="P13" s="363"/>
-      <c r="Q13" s="361" t="s">
+      <c r="O13" s="368"/>
+      <c r="P13" s="368"/>
+      <c r="Q13" s="366" t="s">
         <v>79</v>
       </c>
-      <c r="R13" s="361"/>
-      <c r="S13" s="361"/>
-      <c r="T13" s="361"/>
-      <c r="U13" s="361"/>
-      <c r="V13" s="362" t="s">
+      <c r="R13" s="366"/>
+      <c r="S13" s="366"/>
+      <c r="T13" s="366"/>
+      <c r="U13" s="366"/>
+      <c r="V13" s="367" t="s">
         <v>79</v>
       </c>
-      <c r="W13" s="361"/>
-      <c r="X13" s="361"/>
-      <c r="Y13" s="361"/>
-      <c r="Z13" s="361"/>
-      <c r="AA13" s="361"/>
-      <c r="AB13" s="361"/>
-      <c r="AC13" s="361"/>
+      <c r="W13" s="366"/>
+      <c r="X13" s="366"/>
+      <c r="Y13" s="366"/>
+      <c r="Z13" s="366"/>
+      <c r="AA13" s="366"/>
+      <c r="AB13" s="366"/>
+      <c r="AC13" s="366"/>
       <c r="AM13" s="35"/>
     </row>
     <row r="14" spans="1:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13877,7 +13881,7 @@
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.15">
       <c r="C16" s="103" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AK16" s="92"/>
       <c r="AL16" s="92"/>
@@ -13917,36 +13921,36 @@
       <c r="AZ17" s="133"/>
     </row>
     <row r="18" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D18" s="346" t="s">
+      <c r="D18" s="322" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="310" t="s">
+      <c r="E18" s="357" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="311"/>
-      <c r="G18" s="311"/>
-      <c r="H18" s="311"/>
-      <c r="I18" s="311"/>
-      <c r="J18" s="311"/>
-      <c r="K18" s="311"/>
-      <c r="L18" s="311"/>
-      <c r="M18" s="311"/>
-      <c r="N18" s="311"/>
-      <c r="O18" s="311"/>
-      <c r="P18" s="311"/>
-      <c r="Q18" s="311"/>
-      <c r="R18" s="311"/>
-      <c r="S18" s="311"/>
-      <c r="T18" s="311"/>
-      <c r="U18" s="311"/>
-      <c r="V18" s="311"/>
-      <c r="W18" s="311"/>
-      <c r="X18" s="311"/>
-      <c r="Y18" s="311"/>
-      <c r="Z18" s="311"/>
-      <c r="AA18" s="311"/>
-      <c r="AB18" s="311"/>
-      <c r="AC18" s="312"/>
+      <c r="F18" s="358"/>
+      <c r="G18" s="358"/>
+      <c r="H18" s="358"/>
+      <c r="I18" s="358"/>
+      <c r="J18" s="358"/>
+      <c r="K18" s="358"/>
+      <c r="L18" s="358"/>
+      <c r="M18" s="358"/>
+      <c r="N18" s="358"/>
+      <c r="O18" s="358"/>
+      <c r="P18" s="358"/>
+      <c r="Q18" s="358"/>
+      <c r="R18" s="358"/>
+      <c r="S18" s="358"/>
+      <c r="T18" s="358"/>
+      <c r="U18" s="358"/>
+      <c r="V18" s="358"/>
+      <c r="W18" s="358"/>
+      <c r="X18" s="358"/>
+      <c r="Y18" s="358"/>
+      <c r="Z18" s="358"/>
+      <c r="AA18" s="358"/>
+      <c r="AB18" s="358"/>
+      <c r="AC18" s="359"/>
       <c r="AD18" s="284" t="s">
         <v>33</v>
       </c>
@@ -13973,29 +13977,29 @@
       <c r="AY18" s="17"/>
     </row>
     <row r="19" spans="3:53" s="91" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D19" s="376"/>
+      <c r="D19" s="330"/>
       <c r="E19" s="284" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="285"/>
       <c r="G19" s="285"/>
       <c r="H19" s="286"/>
-      <c r="I19" s="391" t="s">
+      <c r="I19" s="356" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="378"/>
-      <c r="K19" s="378"/>
-      <c r="L19" s="379"/>
-      <c r="M19" s="377" t="s">
+      <c r="J19" s="332"/>
+      <c r="K19" s="332"/>
+      <c r="L19" s="333"/>
+      <c r="M19" s="331" t="s">
         <v>115</v>
       </c>
-      <c r="N19" s="378"/>
-      <c r="O19" s="378"/>
-      <c r="P19" s="378"/>
-      <c r="Q19" s="378"/>
-      <c r="R19" s="378"/>
-      <c r="S19" s="378"/>
-      <c r="T19" s="379"/>
+      <c r="N19" s="332"/>
+      <c r="O19" s="332"/>
+      <c r="P19" s="332"/>
+      <c r="Q19" s="332"/>
+      <c r="R19" s="332"/>
+      <c r="S19" s="332"/>
+      <c r="T19" s="333"/>
       <c r="U19" s="284" t="s">
         <v>32</v>
       </c>
@@ -14008,7 +14012,7 @@
       </c>
       <c r="AA19" s="285"/>
       <c r="AB19" s="286"/>
-      <c r="AC19" s="346" t="s">
+      <c r="AC19" s="322" t="s">
         <v>44</v>
       </c>
       <c r="AD19" s="287"/>
@@ -14035,23 +14039,23 @@
       <c r="AY19" s="17"/>
     </row>
     <row r="20" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D20" s="347"/>
+      <c r="D20" s="323"/>
       <c r="E20" s="290"/>
       <c r="F20" s="291"/>
       <c r="G20" s="291"/>
       <c r="H20" s="292"/>
-      <c r="I20" s="380"/>
-      <c r="J20" s="381"/>
-      <c r="K20" s="381"/>
-      <c r="L20" s="382"/>
-      <c r="M20" s="380"/>
-      <c r="N20" s="381"/>
-      <c r="O20" s="381"/>
-      <c r="P20" s="381"/>
-      <c r="Q20" s="381"/>
-      <c r="R20" s="381"/>
-      <c r="S20" s="381"/>
-      <c r="T20" s="382"/>
+      <c r="I20" s="334"/>
+      <c r="J20" s="335"/>
+      <c r="K20" s="335"/>
+      <c r="L20" s="336"/>
+      <c r="M20" s="334"/>
+      <c r="N20" s="335"/>
+      <c r="O20" s="335"/>
+      <c r="P20" s="335"/>
+      <c r="Q20" s="335"/>
+      <c r="R20" s="335"/>
+      <c r="S20" s="335"/>
+      <c r="T20" s="336"/>
       <c r="U20" s="290"/>
       <c r="V20" s="291"/>
       <c r="W20" s="291"/>
@@ -14060,7 +14064,7 @@
       <c r="Z20" s="290"/>
       <c r="AA20" s="291"/>
       <c r="AB20" s="292"/>
-      <c r="AC20" s="347"/>
+      <c r="AC20" s="323"/>
       <c r="AD20" s="290"/>
       <c r="AE20" s="291"/>
       <c r="AF20" s="291"/>
@@ -14088,43 +14092,43 @@
       <c r="D21" s="138">
         <v>1</v>
       </c>
-      <c r="E21" s="231" t="s">
+      <c r="E21" s="224" t="s">
         <v>79</v>
       </c>
       <c r="F21" s="296"/>
       <c r="G21" s="296"/>
-      <c r="H21" s="369"/>
-      <c r="I21" s="368"/>
-      <c r="J21" s="368"/>
-      <c r="K21" s="368"/>
-      <c r="L21" s="368"/>
-      <c r="M21" s="364" t="s">
+      <c r="H21" s="354"/>
+      <c r="I21" s="355"/>
+      <c r="J21" s="355"/>
+      <c r="K21" s="355"/>
+      <c r="L21" s="355"/>
+      <c r="M21" s="369" t="s">
         <v>79</v>
       </c>
-      <c r="N21" s="365"/>
-      <c r="O21" s="365"/>
-      <c r="P21" s="365"/>
-      <c r="Q21" s="365"/>
-      <c r="R21" s="365"/>
-      <c r="S21" s="365"/>
-      <c r="T21" s="365"/>
-      <c r="U21" s="300" t="s">
+      <c r="N21" s="370"/>
+      <c r="O21" s="370"/>
+      <c r="P21" s="370"/>
+      <c r="Q21" s="370"/>
+      <c r="R21" s="370"/>
+      <c r="S21" s="370"/>
+      <c r="T21" s="370"/>
+      <c r="U21" s="352" t="s">
         <v>79</v>
       </c>
-      <c r="V21" s="301"/>
-      <c r="W21" s="301"/>
-      <c r="X21" s="301"/>
-      <c r="Y21" s="301"/>
-      <c r="Z21" s="300" t="s">
+      <c r="V21" s="353"/>
+      <c r="W21" s="353"/>
+      <c r="X21" s="353"/>
+      <c r="Y21" s="353"/>
+      <c r="Z21" s="352" t="s">
         <v>79</v>
       </c>
-      <c r="AA21" s="301"/>
-      <c r="AB21" s="301"/>
+      <c r="AA21" s="353"/>
+      <c r="AB21" s="353"/>
       <c r="AC21" s="173"/>
-      <c r="AD21" s="228"/>
-      <c r="AE21" s="302"/>
-      <c r="AF21" s="302"/>
-      <c r="AG21" s="303"/>
+      <c r="AD21" s="221"/>
+      <c r="AE21" s="320"/>
+      <c r="AF21" s="320"/>
+      <c r="AG21" s="321"/>
       <c r="AH21" s="133"/>
       <c r="AI21" s="133"/>
       <c r="AJ21" s="133"/>
@@ -14191,7 +14195,7 @@
     </row>
     <row r="24" spans="3:53" x14ac:dyDescent="0.15">
       <c r="C24" s="103" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D24" s="129"/>
       <c r="E24" s="130"/>
@@ -14252,24 +14256,24 @@
       <c r="AW25" s="105"/>
     </row>
     <row r="26" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D26" s="383" t="s">
+      <c r="D26" s="337" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="324" t="s">
+      <c r="E26" s="339" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="325"/>
-      <c r="G26" s="325"/>
-      <c r="H26" s="325"/>
-      <c r="I26" s="325"/>
-      <c r="J26" s="326"/>
-      <c r="K26" s="324" t="s">
+      <c r="F26" s="340"/>
+      <c r="G26" s="340"/>
+      <c r="H26" s="340"/>
+      <c r="I26" s="340"/>
+      <c r="J26" s="341"/>
+      <c r="K26" s="339" t="s">
         <v>50</v>
       </c>
-      <c r="L26" s="325"/>
-      <c r="M26" s="325"/>
-      <c r="N26" s="326"/>
-      <c r="O26" s="322" t="s">
+      <c r="L26" s="340"/>
+      <c r="M26" s="340"/>
+      <c r="N26" s="341"/>
+      <c r="O26" s="395" t="s">
         <v>51</v>
       </c>
       <c r="P26" s="139" t="s">
@@ -14280,21 +14284,21 @@
       <c r="S26" s="140"/>
       <c r="T26" s="140"/>
       <c r="U26" s="140"/>
-      <c r="V26" s="324" t="s">
+      <c r="V26" s="339" t="s">
         <v>30</v>
       </c>
-      <c r="W26" s="325"/>
-      <c r="X26" s="325"/>
-      <c r="Y26" s="325"/>
-      <c r="Z26" s="325"/>
-      <c r="AA26" s="325"/>
-      <c r="AB26" s="325"/>
-      <c r="AC26" s="325"/>
-      <c r="AD26" s="325"/>
-      <c r="AE26" s="325"/>
-      <c r="AF26" s="325"/>
-      <c r="AG26" s="325"/>
-      <c r="AH26" s="326"/>
+      <c r="W26" s="340"/>
+      <c r="X26" s="340"/>
+      <c r="Y26" s="340"/>
+      <c r="Z26" s="340"/>
+      <c r="AA26" s="340"/>
+      <c r="AB26" s="340"/>
+      <c r="AC26" s="340"/>
+      <c r="AD26" s="340"/>
+      <c r="AE26" s="340"/>
+      <c r="AF26" s="340"/>
+      <c r="AG26" s="340"/>
+      <c r="AH26" s="341"/>
       <c r="AK26" s="105"/>
       <c r="AL26" s="105"/>
       <c r="AM26" s="105"/>
@@ -14310,18 +14314,18 @@
       <c r="AW26" s="105"/>
     </row>
     <row r="27" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D27" s="384"/>
-      <c r="E27" s="327"/>
-      <c r="F27" s="328"/>
-      <c r="G27" s="328"/>
-      <c r="H27" s="328"/>
-      <c r="I27" s="328"/>
-      <c r="J27" s="329"/>
-      <c r="K27" s="327"/>
-      <c r="L27" s="328"/>
-      <c r="M27" s="328"/>
-      <c r="N27" s="329"/>
-      <c r="O27" s="323"/>
+      <c r="D27" s="338"/>
+      <c r="E27" s="342"/>
+      <c r="F27" s="343"/>
+      <c r="G27" s="343"/>
+      <c r="H27" s="343"/>
+      <c r="I27" s="343"/>
+      <c r="J27" s="344"/>
+      <c r="K27" s="342"/>
+      <c r="L27" s="343"/>
+      <c r="M27" s="343"/>
+      <c r="N27" s="344"/>
+      <c r="O27" s="396"/>
       <c r="P27" s="141" t="s">
         <v>52</v>
       </c>
@@ -14334,23 +14338,23 @@
       <c r="S27" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="T27" s="330" t="s">
+      <c r="T27" s="397" t="s">
         <v>59</v>
       </c>
-      <c r="U27" s="331"/>
-      <c r="V27" s="327"/>
-      <c r="W27" s="328"/>
-      <c r="X27" s="328"/>
-      <c r="Y27" s="328"/>
-      <c r="Z27" s="328"/>
-      <c r="AA27" s="328"/>
-      <c r="AB27" s="328"/>
-      <c r="AC27" s="328"/>
-      <c r="AD27" s="328"/>
-      <c r="AE27" s="328"/>
-      <c r="AF27" s="328"/>
-      <c r="AG27" s="328"/>
-      <c r="AH27" s="329"/>
+      <c r="U27" s="398"/>
+      <c r="V27" s="342"/>
+      <c r="W27" s="343"/>
+      <c r="X27" s="343"/>
+      <c r="Y27" s="343"/>
+      <c r="Z27" s="343"/>
+      <c r="AA27" s="343"/>
+      <c r="AB27" s="343"/>
+      <c r="AC27" s="343"/>
+      <c r="AD27" s="343"/>
+      <c r="AE27" s="343"/>
+      <c r="AF27" s="343"/>
+      <c r="AG27" s="343"/>
+      <c r="AH27" s="344"/>
       <c r="AK27" s="105"/>
       <c r="AL27" s="105"/>
       <c r="AM27" s="105"/>
@@ -14369,18 +14373,18 @@
       <c r="D28" s="142">
         <v>1</v>
       </c>
-      <c r="E28" s="388" t="s">
+      <c r="E28" s="306" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="389"/>
-      <c r="G28" s="389"/>
-      <c r="H28" s="389"/>
-      <c r="I28" s="389"/>
-      <c r="J28" s="390"/>
-      <c r="K28" s="358"/>
-      <c r="L28" s="302"/>
-      <c r="M28" s="302"/>
-      <c r="N28" s="303"/>
+      <c r="F28" s="307"/>
+      <c r="G28" s="307"/>
+      <c r="H28" s="307"/>
+      <c r="I28" s="307"/>
+      <c r="J28" s="308"/>
+      <c r="K28" s="350"/>
+      <c r="L28" s="320"/>
+      <c r="M28" s="320"/>
+      <c r="N28" s="321"/>
       <c r="O28" s="137"/>
       <c r="P28" s="204" t="s">
         <v>89</v>
@@ -14394,25 +14398,25 @@
       <c r="S28" s="204" t="s">
         <v>89</v>
       </c>
-      <c r="T28" s="386" t="s">
+      <c r="T28" s="348" t="s">
         <v>89</v>
       </c>
-      <c r="U28" s="387"/>
-      <c r="V28" s="358" t="s">
+      <c r="U28" s="349"/>
+      <c r="V28" s="350" t="s">
         <v>79</v>
       </c>
-      <c r="W28" s="302"/>
-      <c r="X28" s="302"/>
-      <c r="Y28" s="302"/>
-      <c r="Z28" s="302"/>
-      <c r="AA28" s="302"/>
-      <c r="AB28" s="302"/>
-      <c r="AC28" s="302"/>
-      <c r="AD28" s="302"/>
-      <c r="AE28" s="302"/>
-      <c r="AF28" s="302"/>
-      <c r="AG28" s="302"/>
-      <c r="AH28" s="303"/>
+      <c r="W28" s="320"/>
+      <c r="X28" s="320"/>
+      <c r="Y28" s="320"/>
+      <c r="Z28" s="320"/>
+      <c r="AA28" s="320"/>
+      <c r="AB28" s="320"/>
+      <c r="AC28" s="320"/>
+      <c r="AD28" s="320"/>
+      <c r="AE28" s="320"/>
+      <c r="AF28" s="320"/>
+      <c r="AG28" s="320"/>
+      <c r="AH28" s="321"/>
       <c r="AK28" s="105"/>
       <c r="AL28" s="105"/>
       <c r="AM28" s="105"/>
@@ -14521,7 +14525,7 @@
     </row>
     <row r="31" spans="3:53" x14ac:dyDescent="0.15">
       <c r="C31" s="103" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AS31" s="105"/>
       <c r="AT31" s="105"/>
@@ -14538,91 +14542,91 @@
       <c r="D33" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="313" t="s">
+      <c r="E33" s="345" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="314"/>
-      <c r="G33" s="314"/>
-      <c r="H33" s="314"/>
-      <c r="I33" s="314"/>
-      <c r="J33" s="385"/>
-      <c r="K33" s="313" t="s">
+      <c r="F33" s="346"/>
+      <c r="G33" s="346"/>
+      <c r="H33" s="346"/>
+      <c r="I33" s="346"/>
+      <c r="J33" s="347"/>
+      <c r="K33" s="345" t="s">
         <v>38</v>
       </c>
-      <c r="L33" s="314"/>
-      <c r="M33" s="314"/>
-      <c r="N33" s="314"/>
-      <c r="O33" s="314"/>
-      <c r="P33" s="314"/>
-      <c r="Q33" s="315"/>
+      <c r="L33" s="346"/>
+      <c r="M33" s="346"/>
+      <c r="N33" s="346"/>
+      <c r="O33" s="346"/>
+      <c r="P33" s="346"/>
+      <c r="Q33" s="351"/>
       <c r="R33" s="293" t="s">
         <v>73</v>
       </c>
-      <c r="S33" s="314"/>
-      <c r="T33" s="314"/>
-      <c r="U33" s="314"/>
-      <c r="V33" s="314"/>
-      <c r="W33" s="314"/>
-      <c r="X33" s="314"/>
-      <c r="Y33" s="315"/>
-      <c r="Z33" s="310" t="s">
+      <c r="S33" s="346"/>
+      <c r="T33" s="346"/>
+      <c r="U33" s="346"/>
+      <c r="V33" s="346"/>
+      <c r="W33" s="346"/>
+      <c r="X33" s="346"/>
+      <c r="Y33" s="351"/>
+      <c r="Z33" s="357" t="s">
         <v>26</v>
       </c>
-      <c r="AA33" s="311"/>
-      <c r="AB33" s="311"/>
-      <c r="AC33" s="311"/>
-      <c r="AD33" s="312"/>
-      <c r="AE33" s="307" t="s">
+      <c r="AA33" s="358"/>
+      <c r="AB33" s="358"/>
+      <c r="AC33" s="358"/>
+      <c r="AD33" s="359"/>
+      <c r="AE33" s="389" t="s">
         <v>129</v>
       </c>
-      <c r="AF33" s="308"/>
-      <c r="AG33" s="308"/>
-      <c r="AH33" s="309"/>
+      <c r="AF33" s="390"/>
+      <c r="AG33" s="390"/>
+      <c r="AH33" s="391"/>
     </row>
     <row r="34" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D34" s="145">
         <v>1</v>
       </c>
-      <c r="E34" s="360" t="s">
-        <v>187</v>
-      </c>
-      <c r="F34" s="350"/>
-      <c r="G34" s="350"/>
-      <c r="H34" s="350"/>
-      <c r="I34" s="350"/>
-      <c r="J34" s="351"/>
-      <c r="K34" s="228" t="s">
-        <v>188</v>
-      </c>
-      <c r="L34" s="302"/>
-      <c r="M34" s="302"/>
-      <c r="N34" s="302"/>
-      <c r="O34" s="302"/>
-      <c r="P34" s="302"/>
-      <c r="Q34" s="303"/>
-      <c r="R34" s="228" t="s">
-        <v>186</v>
-      </c>
-      <c r="S34" s="302"/>
-      <c r="T34" s="302"/>
-      <c r="U34" s="302"/>
-      <c r="V34" s="302"/>
-      <c r="W34" s="302"/>
-      <c r="X34" s="302"/>
-      <c r="Y34" s="303"/>
-      <c r="Z34" s="228" t="s">
+      <c r="E34" s="363" t="s">
+        <v>184</v>
+      </c>
+      <c r="F34" s="364"/>
+      <c r="G34" s="364"/>
+      <c r="H34" s="364"/>
+      <c r="I34" s="364"/>
+      <c r="J34" s="365"/>
+      <c r="K34" s="221" t="s">
+        <v>185</v>
+      </c>
+      <c r="L34" s="320"/>
+      <c r="M34" s="320"/>
+      <c r="N34" s="320"/>
+      <c r="O34" s="320"/>
+      <c r="P34" s="320"/>
+      <c r="Q34" s="321"/>
+      <c r="R34" s="221" t="s">
+        <v>183</v>
+      </c>
+      <c r="S34" s="320"/>
+      <c r="T34" s="320"/>
+      <c r="U34" s="320"/>
+      <c r="V34" s="320"/>
+      <c r="W34" s="320"/>
+      <c r="X34" s="320"/>
+      <c r="Y34" s="321"/>
+      <c r="Z34" s="221" t="s">
         <v>138</v>
       </c>
-      <c r="AA34" s="302"/>
-      <c r="AB34" s="302"/>
-      <c r="AC34" s="302"/>
-      <c r="AD34" s="303"/>
-      <c r="AE34" s="304" t="s">
+      <c r="AA34" s="320"/>
+      <c r="AB34" s="320"/>
+      <c r="AC34" s="320"/>
+      <c r="AD34" s="321"/>
+      <c r="AE34" s="386" t="s">
         <v>71</v>
       </c>
-      <c r="AF34" s="305"/>
-      <c r="AG34" s="305"/>
-      <c r="AH34" s="306"/>
+      <c r="AF34" s="387"/>
+      <c r="AG34" s="387"/>
+      <c r="AH34" s="388"/>
     </row>
     <row r="35" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D35" s="128"/>
@@ -14714,7 +14718,7 @@
     </row>
     <row r="37" spans="1:58" x14ac:dyDescent="0.15">
       <c r="C37" s="31" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D37" s="106"/>
       <c r="E37" s="106"/>
@@ -14768,7 +14772,7 @@
     <row r="39" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="105"/>
       <c r="D39" s="152" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E39" s="106"/>
       <c r="AP39" s="105"/>
@@ -14916,7 +14920,7 @@
     </row>
     <row r="46" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E46" s="103" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G46" s="107"/>
       <c r="AJ46" s="110"/>
@@ -14972,7 +14976,7 @@
     <row r="48" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E48" s="126"/>
       <c r="F48" s="71" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AJ48" s="110"/>
       <c r="AK48" s="110"/>
@@ -15054,31 +15058,26 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:U13"/>
-    <mergeCell ref="V13:AC13"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="V12:AC12"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="R34:Y34"/>
+    <mergeCell ref="Z34:AD34"/>
+    <mergeCell ref="AE34:AH34"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="R33:Y33"/>
+    <mergeCell ref="Z33:AD33"/>
+    <mergeCell ref="AE33:AH33"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:AH28"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:J27"/>
+    <mergeCell ref="K26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="V26:AH27"/>
+    <mergeCell ref="T27:U27"/>
     <mergeCell ref="AD21:AG21"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="E18:AC18"/>
@@ -15094,26 +15093,31 @@
     <mergeCell ref="M21:T21"/>
     <mergeCell ref="U21:Y21"/>
     <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:AH28"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:J27"/>
-    <mergeCell ref="K26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="V26:AH27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="R33:Y33"/>
-    <mergeCell ref="Z33:AD33"/>
-    <mergeCell ref="AE33:AH33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="R34:Y34"/>
-    <mergeCell ref="Z34:AD34"/>
-    <mergeCell ref="AE34:AH34"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="V12:AC12"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="V13:AC13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">
